--- a/results/train/DeepBench_NV_P100.xlsx
+++ b/results/train/DeepBench_NV_P100.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patwarymostofa/Documents/mostofa/deepbench-internal/DeepBench-internal/results/train/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32600" windowHeight="18260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32600" windowHeight="18260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Results FP32" sheetId="3" r:id="rId1"/>
     <sheet name="Results - Psuedo FP16" sheetId="5" r:id="rId2"/>
     <sheet name="Specs" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -21,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="80">
   <si>
     <t>Dense Matrix Multiplication</t>
   </si>
@@ -251,19 +259,16 @@
     <t>Std Dev All Reduce Time (msec)</t>
   </si>
   <si>
-    <t>NCCL MPI</t>
+    <t>16 bit inputs, 32 bit multiplication, 32 bit addition</t>
   </si>
   <si>
-    <t xml:space="preserve">OSU MPI </t>
+    <t>NCCL 2.0 MPI</t>
   </si>
   <si>
-    <t>NCCL Single Process</t>
+    <t>NCCL 2.0 Single</t>
   </si>
   <si>
-    <t>OSU MPI</t>
-  </si>
-  <si>
-    <t>16 bit inputs, 32 bit multiplication, 32 bit addition</t>
+    <t>Baidu RingAllReduce</t>
   </si>
 </sst>
 </file>
@@ -300,6 +305,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -635,7 +641,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -643,13 +649,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE369"/>
+  <dimension ref="A1:AE372"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
+      <selection activeCell="H376" sqref="H376"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" style="3" customWidth="1"/>
     <col min="2" max="3" width="11" style="3"/>
@@ -670,7 +676,7 @@
     <col min="23" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>61</v>
       </c>
@@ -678,7 +684,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -704,7 +710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C4" s="3">
         <v>1760</v>
       </c>
@@ -730,7 +736,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C5" s="3">
         <v>1760</v>
       </c>
@@ -756,7 +762,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C6" s="3">
         <v>1760</v>
       </c>
@@ -782,7 +788,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="3">
         <v>1760</v>
       </c>
@@ -808,7 +814,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="3">
         <v>1760</v>
       </c>
@@ -834,7 +840,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="3">
         <v>2048</v>
       </c>
@@ -860,7 +866,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="3">
         <v>2048</v>
       </c>
@@ -886,7 +892,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="3">
         <v>2048</v>
       </c>
@@ -912,7 +918,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="3">
         <v>2048</v>
       </c>
@@ -938,7 +944,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="3">
         <v>2048</v>
       </c>
@@ -964,7 +970,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="3">
         <v>2560</v>
       </c>
@@ -990,7 +996,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="3">
         <v>2560</v>
       </c>
@@ -1016,7 +1022,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C16" s="3">
         <v>2560</v>
       </c>
@@ -1042,7 +1048,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="3">
         <v>2560</v>
       </c>
@@ -1068,7 +1074,7 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="3">
         <v>2560</v>
       </c>
@@ -1094,7 +1100,7 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="3">
         <v>4096</v>
       </c>
@@ -1120,7 +1126,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="3:12">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="3">
         <v>4096</v>
       </c>
@@ -1146,7 +1152,7 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="3:12">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="3">
         <v>4096</v>
       </c>
@@ -1172,7 +1178,7 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="3:12">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="3">
         <v>4096</v>
       </c>
@@ -1198,7 +1204,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="3:12">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="3">
         <v>4096</v>
       </c>
@@ -1224,7 +1230,7 @@
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="3:12">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="3">
         <v>1760</v>
       </c>
@@ -1250,7 +1256,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="3:12">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="3">
         <v>1760</v>
       </c>
@@ -1276,7 +1282,7 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="3:12">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="3">
         <v>1760</v>
       </c>
@@ -1302,7 +1308,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="3:12">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="3">
         <v>1760</v>
       </c>
@@ -1328,7 +1334,7 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="3:12">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="3">
         <v>1760</v>
       </c>
@@ -1354,7 +1360,7 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="3:12">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="3">
         <v>2048</v>
       </c>
@@ -1380,7 +1386,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="3:12">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="3">
         <v>2048</v>
       </c>
@@ -1406,7 +1412,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
     </row>
-    <row r="31" spans="3:12">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="3">
         <v>2048</v>
       </c>
@@ -1432,7 +1438,7 @@
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
     </row>
-    <row r="32" spans="3:12">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="3">
         <v>2048</v>
       </c>
@@ -1458,7 +1464,7 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
     </row>
-    <row r="33" spans="3:12">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C33" s="3">
         <v>2048</v>
       </c>
@@ -1484,7 +1490,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
     </row>
-    <row r="34" spans="3:12">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C34" s="3">
         <v>2560</v>
       </c>
@@ -1510,7 +1516,7 @@
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
     </row>
-    <row r="35" spans="3:12">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C35" s="3">
         <v>2560</v>
       </c>
@@ -1536,7 +1542,7 @@
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
     </row>
-    <row r="36" spans="3:12">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C36" s="3">
         <v>2560</v>
       </c>
@@ -1562,7 +1568,7 @@
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
     </row>
-    <row r="37" spans="3:12">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C37" s="3">
         <v>2560</v>
       </c>
@@ -1588,7 +1594,7 @@
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
     </row>
-    <row r="38" spans="3:12">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C38" s="3">
         <v>2560</v>
       </c>
@@ -1614,7 +1620,7 @@
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
     </row>
-    <row r="39" spans="3:12">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C39" s="3">
         <v>4096</v>
       </c>
@@ -1640,7 +1646,7 @@
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
     </row>
-    <row r="40" spans="3:12">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C40" s="3">
         <v>4096</v>
       </c>
@@ -1666,7 +1672,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
     </row>
-    <row r="41" spans="3:12">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C41" s="3">
         <v>4096</v>
       </c>
@@ -1692,7 +1698,7 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
     </row>
-    <row r="42" spans="3:12">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C42" s="3">
         <v>4096</v>
       </c>
@@ -1718,7 +1724,7 @@
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
     </row>
-    <row r="43" spans="3:12">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C43" s="3">
         <v>4096</v>
       </c>
@@ -1744,7 +1750,7 @@
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
     </row>
-    <row r="44" spans="3:12">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C44" s="3">
         <v>1760</v>
       </c>
@@ -1773,7 +1779,7 @@
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
     </row>
-    <row r="45" spans="3:12">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C45" s="3">
         <v>2048</v>
       </c>
@@ -1799,7 +1805,7 @@
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
     </row>
-    <row r="46" spans="3:12">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C46" s="3">
         <v>2560</v>
       </c>
@@ -1825,7 +1831,7 @@
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
     </row>
-    <row r="47" spans="3:12">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C47" s="7">
         <v>4096</v>
       </c>
@@ -1851,19 +1857,19 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
     </row>
-    <row r="48" spans="3:12">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.2">
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
     </row>
-    <row r="49" spans="3:12">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
     </row>
-    <row r="50" spans="3:12">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="3">
         <v>5124</v>
       </c>
@@ -1889,7 +1895,7 @@
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
     </row>
-    <row r="51" spans="3:12">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="3">
         <v>35</v>
       </c>
@@ -1915,7 +1921,7 @@
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
     </row>
-    <row r="52" spans="3:12">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="3">
         <v>5124</v>
       </c>
@@ -1941,7 +1947,7 @@
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
     </row>
-    <row r="53" spans="3:12">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="3">
         <v>35</v>
       </c>
@@ -1967,7 +1973,7 @@
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
     </row>
-    <row r="54" spans="3:12">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="3">
         <v>5124</v>
       </c>
@@ -1993,7 +1999,7 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
     </row>
-    <row r="55" spans="3:12">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="3">
         <v>35</v>
       </c>
@@ -2019,7 +2025,7 @@
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
     </row>
-    <row r="56" spans="3:12">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="3">
         <v>5124</v>
       </c>
@@ -2045,7 +2051,7 @@
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
     </row>
-    <row r="57" spans="3:12">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="3">
         <v>35</v>
       </c>
@@ -2071,7 +2077,7 @@
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
     </row>
-    <row r="58" spans="3:12">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="3">
         <v>5124</v>
       </c>
@@ -2097,7 +2103,7 @@
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
     </row>
-    <row r="59" spans="3:12">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="3">
         <v>35</v>
       </c>
@@ -2123,7 +2129,7 @@
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
     </row>
-    <row r="60" spans="3:12">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="3">
         <v>5124</v>
       </c>
@@ -2149,7 +2155,7 @@
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
     </row>
-    <row r="61" spans="3:12">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="3">
         <v>35</v>
       </c>
@@ -2175,7 +2181,7 @@
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
     </row>
-    <row r="62" spans="3:12">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="3">
         <v>5124</v>
       </c>
@@ -2201,7 +2207,7 @@
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
     </row>
-    <row r="63" spans="3:12">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="3">
         <v>35</v>
       </c>
@@ -2227,7 +2233,7 @@
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
     </row>
-    <row r="64" spans="3:12">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="3">
         <v>5124</v>
       </c>
@@ -2253,7 +2259,7 @@
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
     </row>
-    <row r="65" spans="3:12">
+    <row r="65" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C65" s="3">
         <v>35</v>
       </c>
@@ -2279,13 +2285,13 @@
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
     </row>
-    <row r="66" spans="3:12">
+    <row r="66" spans="3:12" x14ac:dyDescent="0.2">
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
     </row>
-    <row r="67" spans="3:12">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C67" s="3">
         <v>7680</v>
       </c>
@@ -2311,7 +2317,7 @@
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
     </row>
-    <row r="68" spans="3:12">
+    <row r="68" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C68" s="3">
         <v>7680</v>
       </c>
@@ -2337,7 +2343,7 @@
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
     </row>
-    <row r="69" spans="3:12">
+    <row r="69" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C69" s="3">
         <v>7680</v>
       </c>
@@ -2363,7 +2369,7 @@
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
     </row>
-    <row r="70" spans="3:12">
+    <row r="70" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C70" s="3">
         <v>7680</v>
       </c>
@@ -2389,7 +2395,7 @@
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
     </row>
-    <row r="71" spans="3:12">
+    <row r="71" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C71" s="3">
         <v>7680</v>
       </c>
@@ -2415,7 +2421,7 @@
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
     </row>
-    <row r="72" spans="3:12">
+    <row r="72" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C72" s="3">
         <v>7680</v>
       </c>
@@ -2441,7 +2447,7 @@
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
     </row>
-    <row r="73" spans="3:12">
+    <row r="73" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C73" s="3">
         <v>7680</v>
       </c>
@@ -2467,7 +2473,7 @@
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
     </row>
-    <row r="74" spans="3:12">
+    <row r="74" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C74" s="3">
         <v>7680</v>
       </c>
@@ -2493,7 +2499,7 @@
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
     </row>
-    <row r="75" spans="3:12">
+    <row r="75" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C75" s="3">
         <f>3*1024</f>
         <v>3072</v>
@@ -2520,7 +2526,7 @@
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
     </row>
-    <row r="76" spans="3:12">
+    <row r="76" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C76" s="3">
         <f t="shared" ref="C76:C82" si="3">3*1024</f>
         <v>3072</v>
@@ -2547,7 +2553,7 @@
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
     </row>
-    <row r="77" spans="3:12">
+    <row r="77" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C77" s="3">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -2574,7 +2580,7 @@
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
     </row>
-    <row r="78" spans="3:12">
+    <row r="78" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C78" s="3">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -2601,7 +2607,7 @@
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
     </row>
-    <row r="79" spans="3:12">
+    <row r="79" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C79" s="3">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -2628,7 +2634,7 @@
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
     </row>
-    <row r="80" spans="3:12">
+    <row r="80" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C80" s="3">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -2655,7 +2661,7 @@
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
     </row>
-    <row r="81" spans="3:12">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="3">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -2682,7 +2688,7 @@
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
     </row>
-    <row r="82" spans="3:12">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="3">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -2709,13 +2715,13 @@
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
     </row>
-    <row r="83" spans="3:12">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
     </row>
-    <row r="84" spans="3:12">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="3">
         <v>3072</v>
       </c>
@@ -2741,7 +2747,7 @@
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
     </row>
-    <row r="85" spans="3:12">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="3">
         <v>7680</v>
       </c>
@@ -2767,11 +2773,11 @@
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
     </row>
-    <row r="86" spans="3:12">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
     </row>
-    <row r="87" spans="3:12">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="3">
         <v>512</v>
       </c>
@@ -2795,7 +2801,7 @@
         <v>0.40129323013618101</v>
       </c>
     </row>
-    <row r="88" spans="3:12">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="3">
         <v>1024</v>
       </c>
@@ -2819,7 +2825,7 @@
         <v>0.75280279360411695</v>
       </c>
     </row>
-    <row r="89" spans="3:12">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="3">
         <v>512</v>
       </c>
@@ -2843,7 +2849,7 @@
         <v>0.81036699970323478</v>
       </c>
     </row>
-    <row r="90" spans="3:12">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="3">
         <v>1024</v>
       </c>
@@ -2867,7 +2873,7 @@
         <v>1.4878314565928077</v>
       </c>
     </row>
-    <row r="91" spans="3:12">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="3">
         <v>512</v>
       </c>
@@ -2891,7 +2897,7 @@
         <v>0.57828603698997594</v>
       </c>
     </row>
-    <row r="92" spans="3:12">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="3">
         <v>1024</v>
       </c>
@@ -2915,7 +2921,7 @@
         <v>1.0306995470558631</v>
       </c>
     </row>
-    <row r="93" spans="3:12">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="3">
         <v>512</v>
       </c>
@@ -2939,7 +2945,7 @@
         <v>0.96546847377725398</v>
       </c>
     </row>
-    <row r="94" spans="3:12">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="3">
         <v>1024</v>
       </c>
@@ -2963,7 +2969,7 @@
         <v>0.9808429118773947</v>
       </c>
     </row>
-    <row r="95" spans="3:12">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="3">
         <v>1024</v>
       </c>
@@ -2987,7 +2993,7 @@
         <v>5.2056964539007087</v>
       </c>
     </row>
-    <row r="96" spans="3:12">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="3">
         <v>1024</v>
       </c>
@@ -3011,7 +3017,7 @@
         <v>5.0620910344827585</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C97" s="3">
         <v>7680</v>
       </c>
@@ -3035,7 +3041,7 @@
         <v>9.0773575468431389</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C98" s="3">
         <v>6144</v>
       </c>
@@ -3060,7 +3066,7 @@
         <v>8.8398064544456645</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="7"/>
       <c r="C99" s="7">
         <v>4608</v>
@@ -3086,7 +3092,7 @@
         <v>9.0365630386211286</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="7"/>
       <c r="C100" s="7">
         <v>8448</v>
@@ -3112,7 +3118,7 @@
         <v>9.0783274687358375</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="7"/>
       <c r="C101" s="7">
         <v>3072</v>
@@ -3138,7 +3144,7 @@
         <v>8.8851914793456519</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C102" s="3">
         <v>7680</v>
       </c>
@@ -3162,7 +3168,7 @@
         <v>9.1231646719901001</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C103" s="3">
         <v>6144</v>
       </c>
@@ -3187,7 +3193,7 @@
         <v>8.9006421645200273</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="7"/>
       <c r="C104" s="7">
         <v>4608</v>
@@ -3213,7 +3219,7 @@
         <v>9.0642892132013557</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="7"/>
       <c r="C105" s="7">
         <v>8448</v>
@@ -3239,7 +3245,7 @@
         <v>9.1176153496059609</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="7"/>
       <c r="C106" s="7">
         <v>3072</v>
@@ -3265,7 +3271,7 @@
         <v>8.9840509311596364</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C107" s="3">
         <v>7680</v>
       </c>
@@ -3289,7 +3295,7 @@
         <v>8.9853981795330764</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C108" s="3">
         <v>6144</v>
       </c>
@@ -3314,7 +3320,7 @@
         <v>8.6938590511285145</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="7"/>
       <c r="C109" s="7">
         <v>4608</v>
@@ -3340,7 +3346,7 @@
         <v>8.9320281838258495</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="7"/>
       <c r="C110" s="7">
         <v>8448</v>
@@ -3366,7 +3372,7 @@
         <v>8.998418156028368</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="7"/>
       <c r="C111" s="7">
         <v>3072</v>
@@ -3392,7 +3398,7 @@
         <v>8.8399358351384585</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C112" s="3">
         <v>7680</v>
       </c>
@@ -3416,7 +3422,7 @@
         <v>9.0309709276732555</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C113" s="3">
         <v>6144</v>
       </c>
@@ -3441,7 +3447,7 @@
         <v>8.7304916269758106</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="7"/>
       <c r="C114" s="7">
         <v>4608</v>
@@ -3467,7 +3473,7 @@
         <v>8.9669189189189193</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="7"/>
       <c r="C115" s="7">
         <v>8448</v>
@@ -3493,7 +3499,7 @@
         <v>9.0388043029137286</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="7"/>
       <c r="C116" s="7">
         <v>3072</v>
@@ -3519,7 +3525,7 @@
         <v>8.8940887082523421</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="7"/>
       <c r="C117" s="7">
         <v>6144</v>
@@ -3545,7 +3551,7 @@
         <v>1.3073155324675325</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="7"/>
       <c r="C118" s="7">
         <v>4608</v>
@@ -3571,7 +3577,7 @@
         <v>1.2653207597765364</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="7"/>
       <c r="C119" s="7">
         <v>8448</v>
@@ -3597,7 +3603,7 @@
         <v>1.1345248524590164</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="7"/>
       <c r="C120" s="7">
         <v>6144</v>
@@ -3623,7 +3629,7 @@
         <v>2.6490341052631576</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="7"/>
       <c r="C121" s="7">
         <v>4608</v>
@@ -3649,7 +3655,7 @@
         <v>6.1214166486486494</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="7"/>
       <c r="C122" s="7">
         <v>8448</v>
@@ -3675,7 +3681,7 @@
         <v>7.2848437894736842</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="7"/>
       <c r="C123" s="7">
         <v>6144</v>
@@ -3701,7 +3707,7 @@
         <v>1.1671106782608696</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="7"/>
       <c r="C124" s="7">
         <v>4608</v>
@@ -3727,7 +3733,7 @@
         <v>1.2177011612903226</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="7"/>
       <c r="C125" s="7">
         <v>8448</v>
@@ -3753,7 +3759,7 @@
         <v>1.2007352933753943</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="7"/>
       <c r="C126" s="7">
         <v>6144</v>
@@ -3779,7 +3785,7 @@
         <v>2.4627106055045869</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="7"/>
       <c r="C127" s="7">
         <v>4608</v>
@@ -3805,7 +3811,7 @@
         <v>6.1214166486486494</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="7"/>
       <c r="C128" s="7">
         <v>8448</v>
@@ -3831,7 +3837,7 @@
         <v>7.215793137440758</v>
       </c>
     </row>
-    <row r="129" spans="2:10">
+    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C129" s="7">
         <v>512</v>
       </c>
@@ -3857,7 +3863,7 @@
         <v>8.7084454511136293</v>
       </c>
     </row>
-    <row r="130" spans="2:10">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C130" s="7">
         <v>512</v>
       </c>
@@ -3883,7 +3889,7 @@
         <v>8.6853577221742881</v>
       </c>
     </row>
-    <row r="131" spans="2:10">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B131" s="7"/>
       <c r="C131" s="7">
         <v>512</v>
@@ -3910,7 +3916,7 @@
         <v>8.6850579790171185</v>
       </c>
     </row>
-    <row r="132" spans="2:10">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B132" s="7"/>
       <c r="C132" s="7">
         <v>512</v>
@@ -3937,7 +3943,7 @@
         <v>8.6162419798350136</v>
       </c>
     </row>
-    <row r="133" spans="2:10">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C133" s="7">
         <v>1024</v>
       </c>
@@ -3963,7 +3969,7 @@
         <v>8.7216151228733452</v>
       </c>
     </row>
-    <row r="134" spans="2:10">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C134" s="7">
         <v>1024</v>
       </c>
@@ -3989,7 +3995,7 @@
         <v>8.9248422732511763</v>
       </c>
     </row>
-    <row r="135" spans="2:10">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B135" s="7"/>
       <c r="C135" s="7">
         <v>1024</v>
@@ -4016,7 +4022,7 @@
         <v>8.901954014856738</v>
       </c>
     </row>
-    <row r="136" spans="2:10">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B136" s="7"/>
       <c r="C136" s="7">
         <v>1024</v>
@@ -4043,7 +4049,7 @@
         <v>8.8338494067896161</v>
       </c>
     </row>
-    <row r="137" spans="2:10">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B137" s="7"/>
       <c r="C137" s="7">
         <v>512</v>
@@ -4069,7 +4075,7 @@
         <v>0.59918628571428578</v>
       </c>
     </row>
-    <row r="138" spans="2:10">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B138" s="7"/>
       <c r="C138" s="7">
         <v>1024</v>
@@ -4095,7 +4101,7 @@
         <v>1.048576</v>
       </c>
     </row>
-    <row r="139" spans="2:10">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C139" s="7">
         <v>512</v>
       </c>
@@ -4121,7 +4127,7 @@
         <v>8.6324081327179751</v>
       </c>
     </row>
-    <row r="140" spans="2:10">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C140" s="7">
         <v>512</v>
       </c>
@@ -4147,7 +4153,7 @@
         <v>8.5773087934560337</v>
       </c>
     </row>
-    <row r="141" spans="2:10">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B141" s="7"/>
       <c r="C141" s="7">
         <v>512</v>
@@ -4174,7 +4180,7 @@
         <v>8.6207947382844612</v>
       </c>
     </row>
-    <row r="142" spans="2:10">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B142" s="7"/>
       <c r="C142" s="7">
         <v>512</v>
@@ -4201,7 +4207,7 @@
         <v>8.52057104010877</v>
       </c>
     </row>
-    <row r="143" spans="2:10">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C143" s="7">
         <v>1024</v>
       </c>
@@ -4227,7 +4233,7 @@
         <v>8.95059699948267</v>
       </c>
     </row>
-    <row r="144" spans="2:10">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C144" s="7">
         <v>1024</v>
       </c>
@@ -4253,7 +4259,7 @@
         <v>8.5941514556475695</v>
       </c>
     </row>
-    <row r="145" spans="2:10">
+    <row r="145" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B145" s="7"/>
       <c r="C145" s="7">
         <v>1024</v>
@@ -4280,7 +4286,7 @@
         <v>8.9449861377692486</v>
       </c>
     </row>
-    <row r="146" spans="2:10">
+    <row r="146" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B146" s="7"/>
       <c r="C146" s="7">
         <v>1024</v>
@@ -4307,7 +4313,7 @@
         <v>8.7080314960629916</v>
       </c>
     </row>
-    <row r="147" spans="2:10">
+    <row r="147" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B147" s="7"/>
       <c r="C147" s="7">
         <v>512</v>
@@ -4333,7 +4339,7 @@
         <v>0.76260072727272732</v>
       </c>
     </row>
-    <row r="148" spans="2:10">
+    <row r="148" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B148" s="7"/>
       <c r="C148" s="7">
         <v>1024</v>
@@ -4359,7 +4365,7 @@
         <v>1.5252014545454546</v>
       </c>
     </row>
-    <row r="149" spans="2:10">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C149" s="7">
         <v>512</v>
       </c>
@@ -4385,7 +4391,7 @@
         <v>8.7238139417622591</v>
       </c>
     </row>
-    <row r="150" spans="2:10">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C150" s="7">
         <v>512</v>
       </c>
@@ -4411,7 +4417,7 @@
         <v>8.9813790149892938</v>
       </c>
     </row>
-    <row r="151" spans="2:10">
+    <row r="151" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B151" s="7"/>
       <c r="C151" s="7">
         <v>512</v>
@@ -4438,7 +4444,7 @@
         <v>8.7838827225130895</v>
       </c>
     </row>
-    <row r="152" spans="2:10">
+    <row r="152" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B152" s="7"/>
       <c r="C152" s="7">
         <v>512</v>
@@ -4465,7 +4471,7 @@
         <v>8.8245200657122727</v>
       </c>
     </row>
-    <row r="153" spans="2:10">
+    <row r="153" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C153" s="7">
         <v>1024</v>
       </c>
@@ -4491,7 +4497,7 @@
         <v>9.0356126252570412</v>
       </c>
     </row>
-    <row r="154" spans="2:10">
+    <row r="154" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C154" s="7">
         <v>1024</v>
       </c>
@@ -4517,7 +4523,7 @@
         <v>9.031743394194967</v>
       </c>
     </row>
-    <row r="155" spans="2:10">
+    <row r="155" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B155" s="7"/>
       <c r="C155" s="7">
         <v>1024</v>
@@ -4544,7 +4550,7 @@
         <v>9.0326348659416382</v>
       </c>
     </row>
-    <row r="156" spans="2:10">
+    <row r="156" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B156" s="7"/>
       <c r="C156" s="7">
         <v>1024</v>
@@ -4571,7 +4577,7 @@
         <v>8.9606863270777488</v>
       </c>
     </row>
-    <row r="157" spans="2:10">
+    <row r="157" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B157" s="7"/>
       <c r="C157" s="7">
         <v>512</v>
@@ -4597,7 +4603,7 @@
         <v>1.5252014545454546</v>
       </c>
     </row>
-    <row r="158" spans="2:10">
+    <row r="158" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B158" s="7"/>
       <c r="C158" s="7">
         <v>1024</v>
@@ -4623,7 +4629,7 @@
         <v>2.7962026666666664</v>
       </c>
     </row>
-    <row r="159" spans="2:10">
+    <row r="159" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C159" s="7">
         <v>512</v>
       </c>
@@ -4649,7 +4655,7 @@
         <v>8.9488609297213415</v>
       </c>
     </row>
-    <row r="160" spans="2:10">
+    <row r="160" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C160" s="7">
         <v>512</v>
       </c>
@@ -4675,7 +4681,7 @@
         <v>8.5956191614721185</v>
       </c>
     </row>
-    <row r="161" spans="1:31">
+    <row r="161" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B161" s="7"/>
       <c r="C161" s="7">
         <v>512</v>
@@ -4702,7 +4708,7 @@
         <v>8.9411724578981016</v>
       </c>
     </row>
-    <row r="162" spans="1:31">
+    <row r="162" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B162" s="7"/>
       <c r="C162" s="7">
         <v>512</v>
@@ -4729,7 +4735,7 @@
         <v>8.6192045845272212</v>
       </c>
     </row>
-    <row r="163" spans="1:31">
+    <row r="163" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C163" s="7">
         <v>1024</v>
       </c>
@@ -4755,7 +4761,7 @@
         <v>8.9624781947097478</v>
       </c>
     </row>
-    <row r="164" spans="1:31">
+    <row r="164" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C164" s="7">
         <v>1024</v>
       </c>
@@ -4781,7 +4787,7 @@
         <v>8.8940887082523421</v>
       </c>
     </row>
-    <row r="165" spans="1:31">
+    <row r="165" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B165" s="7"/>
       <c r="C165" s="7">
         <v>1024</v>
@@ -4808,7 +4814,7 @@
         <v>8.956446722186632</v>
       </c>
     </row>
-    <row r="166" spans="1:31">
+    <row r="166" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B166" s="7"/>
       <c r="C166" s="7">
         <v>1024</v>
@@ -4835,7 +4841,7 @@
         <v>8.8671807569862029</v>
       </c>
     </row>
-    <row r="167" spans="1:31">
+    <row r="167" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B167" s="7"/>
       <c r="C167" s="7">
         <v>512</v>
@@ -4861,7 +4867,7 @@
         <v>1.5252014545454546</v>
       </c>
     </row>
-    <row r="168" spans="1:31">
+    <row r="168" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B168" s="7"/>
       <c r="C168" s="7">
         <v>1024</v>
@@ -4887,26 +4893,26 @@
         <v>2.7962026666666664</v>
       </c>
     </row>
-    <row r="169" spans="1:31">
+    <row r="169" spans="1:31" x14ac:dyDescent="0.2">
       <c r="I169" s="6"/>
     </row>
-    <row r="170" spans="1:31">
+    <row r="170" spans="1:31" x14ac:dyDescent="0.2">
       <c r="I170" s="6"/>
     </row>
-    <row r="171" spans="1:31">
+    <row r="171" spans="1:31" x14ac:dyDescent="0.2">
       <c r="I171" s="6"/>
       <c r="J171" s="8"/>
     </row>
-    <row r="172" spans="1:31">
+    <row r="172" spans="1:31" x14ac:dyDescent="0.2">
       <c r="I172" s="6"/>
     </row>
-    <row r="173" spans="1:31">
+    <row r="173" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I173" s="6"/>
     </row>
-    <row r="174" spans="1:31">
+    <row r="174" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C174" s="3" t="s">
         <v>11</v>
       </c>
@@ -4971,7 +4977,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="1:31">
+    <row r="175" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C175" s="3">
         <v>700</v>
       </c>
@@ -5044,7 +5050,7 @@
       <c r="AA175" s="6"/>
       <c r="AE175" s="6"/>
     </row>
-    <row r="176" spans="1:31">
+    <row r="176" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C176" s="3">
         <v>700</v>
       </c>
@@ -5117,7 +5123,7 @@
       <c r="AA176" s="6"/>
       <c r="AE176" s="6"/>
     </row>
-    <row r="177" spans="3:31">
+    <row r="177" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C177" s="3">
         <v>700</v>
       </c>
@@ -5190,7 +5196,7 @@
       <c r="AA177" s="6"/>
       <c r="AE177" s="6"/>
     </row>
-    <row r="178" spans="3:31">
+    <row r="178" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C178" s="3">
         <v>700</v>
       </c>
@@ -5263,7 +5269,7 @@
       <c r="AA178" s="6"/>
       <c r="AE178" s="6"/>
     </row>
-    <row r="179" spans="3:31">
+    <row r="179" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C179" s="3">
         <v>341</v>
       </c>
@@ -5336,7 +5342,7 @@
       <c r="AA179" s="6"/>
       <c r="AE179" s="6"/>
     </row>
-    <row r="180" spans="3:31">
+    <row r="180" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C180" s="3">
         <v>341</v>
       </c>
@@ -5409,7 +5415,7 @@
       <c r="AA180" s="6"/>
       <c r="AE180" s="6"/>
     </row>
-    <row r="181" spans="3:31">
+    <row r="181" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C181" s="3">
         <v>341</v>
       </c>
@@ -5482,7 +5488,7 @@
       <c r="AA181" s="6"/>
       <c r="AE181" s="6"/>
     </row>
-    <row r="182" spans="3:31">
+    <row r="182" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C182" s="3">
         <v>341</v>
       </c>
@@ -5555,7 +5561,7 @@
       <c r="AA182" s="6"/>
       <c r="AE182" s="6"/>
     </row>
-    <row r="183" spans="3:31">
+    <row r="183" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C183" s="3">
         <v>480</v>
       </c>
@@ -5628,7 +5634,7 @@
       <c r="AA183" s="6"/>
       <c r="AE183" s="6"/>
     </row>
-    <row r="184" spans="3:31">
+    <row r="184" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C184" s="3">
         <v>240</v>
       </c>
@@ -5701,7 +5707,7 @@
       <c r="AA184" s="6"/>
       <c r="AE184" s="6"/>
     </row>
-    <row r="185" spans="3:31">
+    <row r="185" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C185" s="3">
         <v>120</v>
       </c>
@@ -5774,7 +5780,7 @@
       <c r="AA185" s="6"/>
       <c r="AE185" s="6"/>
     </row>
-    <row r="186" spans="3:31">
+    <row r="186" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C186" s="3">
         <v>60</v>
       </c>
@@ -5847,7 +5853,7 @@
       <c r="AA186" s="6"/>
       <c r="AE186" s="6"/>
     </row>
-    <row r="187" spans="3:31">
+    <row r="187" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C187" s="3">
         <v>108</v>
       </c>
@@ -5920,7 +5926,7 @@
       <c r="AA187" s="6"/>
       <c r="AE187" s="6"/>
     </row>
-    <row r="188" spans="3:31">
+    <row r="188" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C188" s="3">
         <v>54</v>
       </c>
@@ -5993,7 +5999,7 @@
       <c r="AA188" s="6"/>
       <c r="AE188" s="6"/>
     </row>
-    <row r="189" spans="3:31">
+    <row r="189" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C189" s="3">
         <v>27</v>
       </c>
@@ -6066,7 +6072,7 @@
       <c r="AA189" s="6"/>
       <c r="AE189" s="6"/>
     </row>
-    <row r="190" spans="3:31">
+    <row r="190" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C190" s="3">
         <v>14</v>
       </c>
@@ -6139,7 +6145,7 @@
       <c r="AA190" s="6"/>
       <c r="AE190" s="6"/>
     </row>
-    <row r="191" spans="3:31">
+    <row r="191" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C191" s="3">
         <v>7</v>
       </c>
@@ -6212,7 +6218,7 @@
       <c r="AA191" s="6"/>
       <c r="AE191" s="6"/>
     </row>
-    <row r="192" spans="3:31">
+    <row r="192" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C192" s="3">
         <v>224</v>
       </c>
@@ -6285,7 +6291,7 @@
       <c r="AA192" s="6"/>
       <c r="AE192" s="6"/>
     </row>
-    <row r="193" spans="3:31">
+    <row r="193" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C193" s="3">
         <v>112</v>
       </c>
@@ -6358,7 +6364,7 @@
       <c r="AA193" s="6"/>
       <c r="AE193" s="6"/>
     </row>
-    <row r="194" spans="3:31">
+    <row r="194" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C194" s="3">
         <f>112/2</f>
         <v>56</v>
@@ -6432,7 +6438,7 @@
       <c r="AA194" s="6"/>
       <c r="AE194" s="6"/>
     </row>
-    <row r="195" spans="3:31">
+    <row r="195" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C195" s="3">
         <f>56/2</f>
         <v>28</v>
@@ -6506,7 +6512,7 @@
       <c r="AA195" s="6"/>
       <c r="AE195" s="6"/>
     </row>
-    <row r="196" spans="3:31">
+    <row r="196" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C196" s="3">
         <v>14</v>
       </c>
@@ -6579,7 +6585,7 @@
       <c r="AA196" s="6"/>
       <c r="AE196" s="6"/>
     </row>
-    <row r="197" spans="3:31">
+    <row r="197" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C197" s="3">
         <v>7</v>
       </c>
@@ -6652,7 +6658,7 @@
       <c r="AA197" s="6"/>
       <c r="AE197" s="6"/>
     </row>
-    <row r="198" spans="3:31">
+    <row r="198" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C198" s="3">
         <v>224</v>
       </c>
@@ -6725,7 +6731,7 @@
       <c r="AA198" s="6"/>
       <c r="AE198" s="6"/>
     </row>
-    <row r="199" spans="3:31">
+    <row r="199" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C199" s="3">
         <v>112</v>
       </c>
@@ -6798,7 +6804,7 @@
       <c r="AA199" s="6"/>
       <c r="AE199" s="6"/>
     </row>
-    <row r="200" spans="3:31">
+    <row r="200" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C200" s="3">
         <f>112/2</f>
         <v>56</v>
@@ -6872,7 +6878,7 @@
       <c r="AA200" s="6"/>
       <c r="AE200" s="6"/>
     </row>
-    <row r="201" spans="3:31">
+    <row r="201" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C201" s="3">
         <f>56/2</f>
         <v>28</v>
@@ -6946,7 +6952,7 @@
       <c r="AA201" s="6"/>
       <c r="AE201" s="6"/>
     </row>
-    <row r="202" spans="3:31">
+    <row r="202" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C202" s="3">
         <v>14</v>
       </c>
@@ -7019,7 +7025,7 @@
       <c r="AA202" s="6"/>
       <c r="AE202" s="6"/>
     </row>
-    <row r="203" spans="3:31">
+    <row r="203" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C203" s="3">
         <v>7</v>
       </c>
@@ -7092,7 +7098,7 @@
       <c r="AA203" s="6"/>
       <c r="AE203" s="6"/>
     </row>
-    <row r="204" spans="3:31">
+    <row r="204" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C204" s="3">
         <v>224</v>
       </c>
@@ -7165,7 +7171,7 @@
       <c r="AA204" s="6"/>
       <c r="AE204" s="6"/>
     </row>
-    <row r="205" spans="3:31">
+    <row r="205" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C205" s="3">
         <v>28</v>
       </c>
@@ -7238,7 +7244,7 @@
       <c r="AA205" s="6"/>
       <c r="AE205" s="6"/>
     </row>
-    <row r="206" spans="3:31">
+    <row r="206" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C206" s="3">
         <v>28</v>
       </c>
@@ -7311,7 +7317,7 @@
       <c r="AA206" s="6"/>
       <c r="AE206" s="6"/>
     </row>
-    <row r="207" spans="3:31">
+    <row r="207" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C207" s="3">
         <v>14</v>
       </c>
@@ -7384,7 +7390,7 @@
       <c r="AA207" s="6"/>
       <c r="AE207" s="6"/>
     </row>
-    <row r="208" spans="3:31">
+    <row r="208" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C208" s="3">
         <v>14</v>
       </c>
@@ -7457,7 +7463,7 @@
       <c r="AA208" s="6"/>
       <c r="AE208" s="6"/>
     </row>
-    <row r="209" spans="2:31">
+    <row r="209" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C209" s="3">
         <v>7</v>
       </c>
@@ -7530,7 +7536,7 @@
       <c r="AA209" s="6"/>
       <c r="AE209" s="6"/>
     </row>
-    <row r="210" spans="2:31">
+    <row r="210" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C210" s="3">
         <v>7</v>
       </c>
@@ -7603,7 +7609,7 @@
       <c r="AA210" s="6"/>
       <c r="AE210" s="6"/>
     </row>
-    <row r="211" spans="2:31">
+    <row r="211" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C211" s="3">
         <v>56</v>
       </c>
@@ -7674,7 +7680,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="212" spans="2:31">
+    <row r="212" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C212" s="3">
         <v>56</v>
       </c>
@@ -7745,7 +7751,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="213" spans="2:31">
+    <row r="213" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C213" s="3">
         <v>28</v>
       </c>
@@ -7816,7 +7822,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="214" spans="2:31">
+    <row r="214" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B214" s="7"/>
       <c r="C214" s="7">
         <v>28</v>
@@ -7888,7 +7894,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="215" spans="2:31">
+    <row r="215" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C215" s="3">
         <v>14</v>
       </c>
@@ -7959,7 +7965,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="216" spans="2:31">
+    <row r="216" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C216" s="3">
         <v>14</v>
       </c>
@@ -8030,7 +8036,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="217" spans="2:31">
+    <row r="217" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B217" s="7"/>
       <c r="C217" s="7">
         <v>14</v>
@@ -8102,7 +8108,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="218" spans="2:31">
+    <row r="218" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B218" s="7"/>
       <c r="C218" s="3">
         <v>7</v>
@@ -8174,7 +8180,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="219" spans="2:31">
+    <row r="219" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B219" s="7"/>
       <c r="C219" s="3">
         <v>7</v>
@@ -8246,7 +8252,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="220" spans="2:31">
+    <row r="220" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C220" s="3">
         <v>56</v>
       </c>
@@ -8317,7 +8323,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="221" spans="2:31">
+    <row r="221" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C221" s="3">
         <v>56</v>
       </c>
@@ -8388,7 +8394,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="222" spans="2:31">
+    <row r="222" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C222" s="3">
         <v>28</v>
       </c>
@@ -8459,7 +8465,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="223" spans="2:31">
+    <row r="223" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C223" s="7">
         <v>28</v>
       </c>
@@ -8530,7 +8536,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="224" spans="2:31">
+    <row r="224" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B224" s="7"/>
       <c r="C224" s="3">
         <v>14</v>
@@ -8602,7 +8608,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="225" spans="1:24">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C225" s="3">
         <v>14</v>
       </c>
@@ -8673,7 +8679,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="226" spans="1:24">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C226" s="7">
         <v>14</v>
       </c>
@@ -8744,7 +8750,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="227" spans="1:24">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B227" s="7"/>
       <c r="C227" s="3">
         <v>7</v>
@@ -8816,7 +8822,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="228" spans="1:24">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B228" s="7"/>
       <c r="C228" s="3">
         <v>7</v>
@@ -8888,7 +8894,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="229" spans="1:24">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B229" s="7"/>
       <c r="C229" s="11">
         <v>700</v>
@@ -8960,7 +8966,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="230" spans="1:24">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B230" s="7"/>
       <c r="C230" s="3">
         <v>350</v>
@@ -9032,7 +9038,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="231" spans="1:24">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B231" s="7"/>
       <c r="C231" s="3">
         <v>350</v>
@@ -9104,7 +9110,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="232" spans="1:24">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B232" s="7"/>
       <c r="C232" s="3">
         <v>175</v>
@@ -9176,7 +9182,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="233" spans="1:24">
+    <row r="233" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B233" s="7"/>
       <c r="C233" s="3">
         <v>175</v>
@@ -9248,7 +9254,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="234" spans="1:24">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B234" s="7"/>
       <c r="C234" s="3">
         <v>84</v>
@@ -9320,7 +9326,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="235" spans="1:24">
+    <row r="235" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B235" s="7"/>
       <c r="C235" s="3">
         <v>84</v>
@@ -9392,7 +9398,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="236" spans="1:24">
+    <row r="236" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B236" s="7"/>
       <c r="C236" s="3">
         <v>42</v>
@@ -9464,7 +9470,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="237" spans="1:24">
+    <row r="237" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A237" s="7"/>
       <c r="B237" s="7"/>
       <c r="C237" s="3">
@@ -9537,7 +9543,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="238" spans="1:24">
+    <row r="238" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A238" s="7"/>
       <c r="B238" s="7"/>
       <c r="C238" s="3">
@@ -9610,7 +9616,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="239" spans="1:24">
+    <row r="239" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A239" s="7"/>
       <c r="B239" s="7"/>
       <c r="C239" s="3">
@@ -9683,7 +9689,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="240" spans="1:24">
+    <row r="240" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A240" s="7"/>
       <c r="B240" s="7"/>
       <c r="C240" s="3">
@@ -9756,7 +9762,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="241" spans="1:24">
+    <row r="241" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A241" s="7"/>
       <c r="B241" s="7"/>
       <c r="C241" s="7">
@@ -9829,7 +9835,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="242" spans="1:24">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A242" s="7"/>
       <c r="B242" s="7"/>
       <c r="C242" s="7">
@@ -9902,7 +9908,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="243" spans="1:24">
+    <row r="243" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A243" s="7"/>
       <c r="B243" s="7"/>
       <c r="C243" s="7">
@@ -9975,7 +9981,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="244" spans="1:24">
+    <row r="244" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A244" s="7"/>
       <c r="B244" s="7"/>
       <c r="C244" s="7">
@@ -10048,7 +10054,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="245" spans="1:24">
+    <row r="245" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A245" s="7"/>
       <c r="B245" s="7"/>
       <c r="C245" s="7">
@@ -10121,7 +10127,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="246" spans="1:24">
+    <row r="246" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A246" s="7"/>
       <c r="B246" s="7"/>
       <c r="C246" s="7">
@@ -10194,7 +10200,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="247" spans="1:24">
+    <row r="247" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A247" s="7"/>
       <c r="B247" s="7"/>
       <c r="C247" s="7">
@@ -10267,7 +10273,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="248" spans="1:24">
+    <row r="248" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A248" s="7"/>
       <c r="B248" s="7"/>
       <c r="C248" s="7">
@@ -10340,7 +10346,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="249" spans="1:24">
+    <row r="249" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A249" s="7"/>
       <c r="B249" s="7"/>
       <c r="C249" s="7">
@@ -10413,7 +10419,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="250" spans="1:24">
+    <row r="250" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A250" s="7"/>
       <c r="B250" s="7"/>
       <c r="C250" s="7">
@@ -10486,7 +10492,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="251" spans="1:24">
+    <row r="251" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A251" s="7"/>
       <c r="B251" s="7"/>
       <c r="C251" s="7">
@@ -10559,7 +10565,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="252" spans="1:24">
+    <row r="252" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A252" s="7"/>
       <c r="B252" s="7"/>
       <c r="C252" s="7">
@@ -10632,7 +10638,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="253" spans="1:24">
+    <row r="253" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A253" s="7"/>
       <c r="B253" s="7"/>
       <c r="C253" s="3">
@@ -10705,7 +10711,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="254" spans="1:24">
+    <row r="254" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A254" s="7"/>
       <c r="B254" s="7"/>
       <c r="C254" s="3">
@@ -10778,7 +10784,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="255" spans="1:24">
+    <row r="255" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A255" s="7"/>
       <c r="B255" s="7"/>
       <c r="C255" s="3">
@@ -10851,7 +10857,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="256" spans="1:24">
+    <row r="256" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A256" s="7"/>
       <c r="B256" s="7"/>
       <c r="C256" s="3">
@@ -10924,7 +10930,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="257" spans="1:24">
+    <row r="257" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A257" s="7"/>
       <c r="B257" s="7"/>
       <c r="C257" s="7">
@@ -10997,7 +11003,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="258" spans="1:24">
+    <row r="258" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A258" s="7"/>
       <c r="B258" s="7"/>
       <c r="C258" s="7">
@@ -11070,7 +11076,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="259" spans="1:24">
+    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A259" s="7"/>
       <c r="B259" s="7"/>
       <c r="C259" s="7">
@@ -11143,7 +11149,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="260" spans="1:24">
+    <row r="260" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A260" s="7"/>
       <c r="B260" s="7"/>
       <c r="C260" s="7">
@@ -11216,7 +11222,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="261" spans="1:24">
+    <row r="261" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A261" s="7"/>
       <c r="B261" s="7"/>
       <c r="C261" s="7">
@@ -11289,7 +11295,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="262" spans="1:24">
+    <row r="262" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A262" s="7"/>
       <c r="B262" s="7"/>
       <c r="C262" s="7">
@@ -11362,7 +11368,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="263" spans="1:24">
+    <row r="263" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A263" s="7"/>
       <c r="B263" s="7"/>
       <c r="C263" s="7">
@@ -11435,7 +11441,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="264" spans="1:24">
+    <row r="264" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A264" s="7"/>
       <c r="B264" s="7"/>
       <c r="C264" s="7">
@@ -11508,7 +11514,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="265" spans="1:24">
+    <row r="265" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A265" s="7"/>
       <c r="B265" s="7"/>
       <c r="C265" s="7">
@@ -11581,7 +11587,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="266" spans="1:24">
+    <row r="266" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A266" s="7"/>
       <c r="B266" s="7"/>
       <c r="C266" s="7">
@@ -11654,7 +11660,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="267" spans="1:24">
+    <row r="267" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A267" s="7"/>
       <c r="B267" s="7"/>
       <c r="C267" s="7">
@@ -11727,7 +11733,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="268" spans="1:24">
+    <row r="268" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A268" s="7"/>
       <c r="B268" s="7"/>
       <c r="C268" s="7">
@@ -11800,18 +11806,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="270" spans="1:24">
+    <row r="270" spans="1:24" x14ac:dyDescent="0.2">
       <c r="T270" s="6"/>
     </row>
-    <row r="271" spans="1:24">
+    <row r="271" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D271" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="277" spans="1:12">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L277" s="8"/>
     </row>
-    <row r="278" spans="1:12">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
         <v>35</v>
       </c>
@@ -11837,7 +11843,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="280" spans="1:12">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C280" s="3">
         <v>1760</v>
       </c>
@@ -11862,7 +11868,7 @@
         <v>1.2515950517546075</v>
       </c>
     </row>
-    <row r="281" spans="1:12">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C281" s="3">
         <v>1760</v>
       </c>
@@ -11887,7 +11893,7 @@
         <v>0.75360158090750173</v>
       </c>
     </row>
-    <row r="282" spans="1:12">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C282" s="3">
         <v>1760</v>
       </c>
@@ -11912,7 +11918,7 @@
         <v>3.1431719765414488</v>
       </c>
     </row>
-    <row r="283" spans="1:12">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C283" s="3">
         <v>1760</v>
       </c>
@@ -11937,7 +11943,7 @@
         <v>4.7355873432835818</v>
       </c>
     </row>
-    <row r="284" spans="1:12">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C284" s="3">
         <v>2048</v>
       </c>
@@ -11962,7 +11968,7 @@
         <v>1.2883924760076775</v>
       </c>
     </row>
-    <row r="285" spans="1:12">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C285" s="3">
         <v>2048</v>
       </c>
@@ -11987,7 +11993,7 @@
         <v>0.88743056583818081</v>
       </c>
     </row>
-    <row r="286" spans="1:12">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C286" s="3">
         <v>2048</v>
       </c>
@@ -12012,7 +12018,7 @@
         <v>3.3267376037665719</v>
       </c>
     </row>
-    <row r="287" spans="1:12">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C287" s="3">
         <v>2048</v>
       </c>
@@ -12037,7 +12043,7 @@
         <v>4.8435283124379902</v>
       </c>
     </row>
-    <row r="288" spans="1:12">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C288" s="3">
         <v>2560</v>
       </c>
@@ -12062,7 +12068,7 @@
         <v>1.616493218249075</v>
       </c>
     </row>
-    <row r="289" spans="1:10">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C289" s="3">
         <v>2560</v>
       </c>
@@ -12087,7 +12093,7 @@
         <v>1.1508622846483048</v>
       </c>
     </row>
-    <row r="290" spans="1:10">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C290" s="3">
         <v>2560</v>
       </c>
@@ -12112,7 +12118,7 @@
         <v>4.966994080037888</v>
       </c>
     </row>
-    <row r="291" spans="1:10">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C291" s="3">
         <v>2560</v>
       </c>
@@ -12137,7 +12143,7 @@
         <v>5.8379114945727801</v>
       </c>
     </row>
-    <row r="295" spans="1:10">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
         <v>42</v>
       </c>
@@ -12163,7 +12169,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="296" spans="1:10">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C296" s="3">
         <v>512</v>
       </c>
@@ -12188,7 +12194,7 @@
         <v>0.4807225214899713</v>
       </c>
     </row>
-    <row r="297" spans="1:10">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C297" s="3">
         <v>512</v>
       </c>
@@ -12213,7 +12219,7 @@
         <v>0.22717963439404196</v>
       </c>
     </row>
-    <row r="298" spans="1:10">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C298" s="3">
         <v>512</v>
       </c>
@@ -12238,7 +12244,7 @@
         <v>1.101951789819376</v>
       </c>
     </row>
-    <row r="299" spans="1:10">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C299" s="3">
         <v>512</v>
       </c>
@@ -12263,7 +12269,7 @@
         <v>2.109678214397988</v>
       </c>
     </row>
-    <row r="300" spans="1:10">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C300" s="3">
         <v>1024</v>
       </c>
@@ -12288,7 +12294,7 @@
         <v>1.080658035426731</v>
       </c>
     </row>
-    <row r="301" spans="1:10">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C301" s="3">
         <v>1024</v>
       </c>
@@ -12313,7 +12319,7 @@
         <v>0.48788705198109772</v>
       </c>
     </row>
-    <row r="302" spans="1:10">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C302" s="3">
         <v>1024</v>
       </c>
@@ -12338,7 +12344,7 @@
         <v>2.9095540429221756</v>
       </c>
     </row>
-    <row r="303" spans="1:10">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C303" s="3">
         <v>1024</v>
       </c>
@@ -12363,7 +12369,7 @@
         <v>4.3344979170030671</v>
       </c>
     </row>
-    <row r="304" spans="1:10">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C304" s="3">
         <v>2048</v>
       </c>
@@ -12388,7 +12394,7 @@
         <v>1.3881241907125865</v>
       </c>
     </row>
-    <row r="305" spans="1:10">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C305" s="3">
         <v>2048</v>
       </c>
@@ -12413,7 +12419,7 @@
         <v>0.99879243935109385</v>
       </c>
     </row>
-    <row r="306" spans="1:10">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C306" s="3">
         <v>2048</v>
       </c>
@@ -12438,7 +12444,7 @@
         <v>5.6023261191693621</v>
       </c>
     </row>
-    <row r="307" spans="1:10">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C307" s="3">
         <v>2048</v>
       </c>
@@ -12463,7 +12469,7 @@
         <v>6.7087899031552647</v>
       </c>
     </row>
-    <row r="308" spans="1:10">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C308" s="3">
         <v>4096</v>
       </c>
@@ -12488,7 +12494,7 @@
         <v>1.1487064039198067</v>
       </c>
     </row>
-    <row r="309" spans="1:10">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C309" s="3">
         <v>4096</v>
       </c>
@@ -12513,7 +12519,7 @@
         <v>1.9050473253730285</v>
       </c>
     </row>
-    <row r="310" spans="1:10">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C310" s="3">
         <v>4096</v>
       </c>
@@ -12538,7 +12544,7 @@
         <v>3.6191918026156129</v>
       </c>
     </row>
-    <row r="311" spans="1:10">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C311" s="3">
         <v>4096</v>
       </c>
@@ -12563,7 +12569,7 @@
         <v>7.8246808088905082</v>
       </c>
     </row>
-    <row r="312" spans="1:10">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C312" s="3">
         <v>1536</v>
       </c>
@@ -12588,7 +12594,7 @@
         <v>0.89558092526690392</v>
       </c>
     </row>
-    <row r="313" spans="1:10">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C313" s="3">
         <v>1536</v>
       </c>
@@ -12613,7 +12619,7 @@
         <v>1.6337907812161869</v>
       </c>
     </row>
-    <row r="314" spans="1:10">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C314" s="3">
         <v>1536</v>
       </c>
@@ -12638,7 +12644,7 @@
         <v>0.74766628209254538</v>
       </c>
     </row>
-    <row r="315" spans="1:10">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C315" s="3">
         <v>256</v>
       </c>
@@ -12663,7 +12669,7 @@
         <v>0.25700392156862745</v>
       </c>
     </row>
-    <row r="316" spans="1:10">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C316" s="3">
         <v>256</v>
       </c>
@@ -12688,7 +12694,7 @@
         <v>0.1261065544197234</v>
       </c>
     </row>
-    <row r="317" spans="1:10">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C317" s="3">
         <v>256</v>
       </c>
@@ -12713,15 +12719,15 @@
         <v>0.35184654316672492</v>
       </c>
     </row>
-    <row r="318" spans="1:10">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G318" s="6"/>
       <c r="H318" s="6"/>
     </row>
-    <row r="319" spans="1:10">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G319" s="6"/>
       <c r="H319" s="6"/>
     </row>
-    <row r="320" spans="1:10">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
         <v>63</v>
       </c>
@@ -12747,7 +12753,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="321" spans="3:10">
+    <row r="321" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C321" s="3">
         <v>2816</v>
       </c>
@@ -12772,7 +12778,7 @@
         <v>1.3808464585782072</v>
       </c>
     </row>
-    <row r="322" spans="3:10">
+    <row r="322" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C322" s="3">
         <v>2816</v>
       </c>
@@ -12797,7 +12803,7 @@
         <v>1.3777725461238584</v>
       </c>
     </row>
-    <row r="323" spans="3:10">
+    <row r="323" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C323" s="3">
         <v>2816</v>
       </c>
@@ -12822,7 +12828,7 @@
         <v>1.3726994604887337</v>
       </c>
     </row>
-    <row r="324" spans="3:10">
+    <row r="324" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C324" s="3">
         <v>2816</v>
       </c>
@@ -12847,7 +12853,7 @@
         <v>1.3682165486445834</v>
       </c>
     </row>
-    <row r="325" spans="3:10">
+    <row r="325" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C325" s="3">
         <v>2048</v>
       </c>
@@ -12872,7 +12878,7 @@
         <v>1.0103214753194789</v>
       </c>
     </row>
-    <row r="326" spans="3:10">
+    <row r="326" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C326" s="3">
         <v>2048</v>
       </c>
@@ -12897,7 +12903,7 @@
         <v>1.0084077576534702</v>
       </c>
     </row>
-    <row r="327" spans="3:10">
+    <row r="327" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C327" s="3">
         <v>2048</v>
       </c>
@@ -12922,7 +12928,7 @@
         <v>1.0037488549567575</v>
       </c>
     </row>
-    <row r="328" spans="3:10">
+    <row r="328" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C328" s="3">
         <v>2048</v>
       </c>
@@ -12947,7 +12953,7 @@
         <v>0.99584244791398024</v>
       </c>
     </row>
-    <row r="329" spans="3:10">
+    <row r="329" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C329" s="3">
         <v>1536</v>
       </c>
@@ -12972,7 +12978,7 @@
         <v>0.74267762886079602</v>
       </c>
     </row>
-    <row r="330" spans="3:10">
+    <row r="330" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C330" s="3">
         <v>1536</v>
       </c>
@@ -12997,7 +13003,7 @@
         <v>0.74006326745333473</v>
       </c>
     </row>
-    <row r="331" spans="3:10">
+    <row r="331" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C331" s="3">
         <v>1536</v>
       </c>
@@ -13022,7 +13028,7 @@
         <v>0.73540955728918633</v>
       </c>
     </row>
-    <row r="332" spans="3:10">
+    <row r="332" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C332" s="3">
         <v>1536</v>
       </c>
@@ -13047,7 +13053,7 @@
         <v>0.72719608866301522</v>
       </c>
     </row>
-    <row r="333" spans="3:10">
+    <row r="333" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C333" s="3">
         <v>2560</v>
       </c>
@@ -13072,7 +13078,7 @@
         <v>1.2648914033426419</v>
       </c>
     </row>
-    <row r="334" spans="3:10">
+    <row r="334" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C334" s="3">
         <v>2560</v>
       </c>
@@ -13097,7 +13103,7 @@
         <v>1.262883042743415</v>
       </c>
     </row>
-    <row r="335" spans="3:10">
+    <row r="335" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C335" s="3">
         <v>2560</v>
       </c>
@@ -13122,7 +13128,7 @@
         <v>1.2584489255986748</v>
       </c>
     </row>
-    <row r="336" spans="3:10">
+    <row r="336" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C336" s="3">
         <v>2560</v>
       </c>
@@ -13147,7 +13153,7 @@
         <v>1.2514716831809551</v>
       </c>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C337" s="3">
         <v>512</v>
       </c>
@@ -13172,7 +13178,7 @@
         <v>0.24672376470588234</v>
       </c>
     </row>
-    <row r="338" spans="1:11">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C338" s="3">
         <v>1024</v>
       </c>
@@ -13197,7 +13203,7 @@
         <v>0.49355962873920711</v>
       </c>
     </row>
-    <row r="339" spans="1:11">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C339" s="3">
         <v>1024</v>
       </c>
@@ -13222,7 +13228,7 @@
         <v>2.9595680845955199</v>
       </c>
     </row>
-    <row r="343" spans="1:11">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
         <v>69</v>
       </c>
@@ -13245,67 +13251,67 @@
         <v>75</v>
       </c>
     </row>
-    <row r="345" spans="1:11">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C345" s="3">
         <v>100000</v>
       </c>
       <c r="D345" s="3">
         <v>2</v>
       </c>
-      <c r="G345" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="I345" s="3">
-        <v>13.08</v>
+      <c r="G345" s="6">
+        <v>0.10193366500000001</v>
+      </c>
+      <c r="I345" s="6">
+        <v>7.8482413047740414</v>
       </c>
       <c r="J345" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K345" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:11">
+        <v>77</v>
+      </c>
+      <c r="K345" s="6">
+        <v>1.6879972269480221E-3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C346" s="3">
         <v>100000</v>
       </c>
       <c r="D346" s="3">
         <v>4</v>
       </c>
-      <c r="G346" s="3">
-        <v>0.09</v>
-      </c>
-      <c r="I346" s="3">
-        <v>17.88</v>
+      <c r="G346" s="6">
+        <v>0.16718280000000002</v>
+      </c>
+      <c r="I346" s="6">
+        <v>9.5703625014056453</v>
       </c>
       <c r="J346" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K346" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:11">
+        <v>77</v>
+      </c>
+      <c r="K346" s="6">
+        <v>3.0368387753333908E-3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C347" s="3">
         <v>100000</v>
       </c>
       <c r="D347" s="3">
         <v>8</v>
       </c>
-      <c r="G347" s="3">
-        <v>0.22</v>
-      </c>
-      <c r="I347" s="3">
-        <v>14.63</v>
+      <c r="G347" s="6">
+        <v>0.23529420000000001</v>
+      </c>
+      <c r="I347" s="6">
+        <v>13.599995240001665</v>
       </c>
       <c r="J347" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K347" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:11">
+        <v>77</v>
+      </c>
+      <c r="K347" s="6">
+        <v>3.6968448795098086E-3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C348" s="3">
         <v>100000</v>
       </c>
@@ -13315,423 +13321,414 @@
       <c r="E348" s="3">
         <v>2</v>
       </c>
-      <c r="G348" s="3">
-        <v>0.63</v>
-      </c>
-      <c r="I348" s="3">
-        <v>10.17</v>
+      <c r="G348" s="6">
+        <v>0.46385865000000004</v>
+      </c>
+      <c r="I348" s="6">
+        <v>13.797306571732573</v>
       </c>
       <c r="J348" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K348" s="3">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="349" spans="1:11">
+      <c r="K348" s="6">
+        <v>6.8656842513673587E-3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C349" s="3">
-        <v>100000</v>
+        <v>3097600</v>
       </c>
       <c r="D349" s="3">
-        <v>32</v>
-      </c>
-      <c r="E349" s="3">
-        <v>4</v>
-      </c>
-      <c r="G349" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="I349" s="3">
-        <v>16.03</v>
+        <v>2</v>
+      </c>
+      <c r="G349" s="6">
+        <v>2.0814545</v>
+      </c>
+      <c r="I349" s="6">
+        <v>11.905520874945861</v>
       </c>
       <c r="J349" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K349" s="3">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="350" spans="1:11">
+      <c r="K349" s="6">
+        <v>8.4447042980544285E-2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C350" s="3">
         <v>3097600</v>
       </c>
       <c r="D350" s="3">
-        <v>2</v>
-      </c>
-      <c r="G350" s="3">
-        <v>1.07</v>
-      </c>
-      <c r="I350" s="3">
-        <v>23.05</v>
+        <v>4</v>
+      </c>
+      <c r="G350" s="6">
+        <v>3.2487015000000001</v>
+      </c>
+      <c r="I350" s="6">
+        <v>15.255818363121387</v>
       </c>
       <c r="J350" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K350" s="3">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="351" spans="1:11">
+        <v>77</v>
+      </c>
+      <c r="K350" s="6">
+        <v>1.5464289346749793E-2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C351" s="3">
         <v>3097600</v>
       </c>
       <c r="D351" s="3">
-        <v>4</v>
-      </c>
-      <c r="G351" s="3">
-        <v>2.14</v>
-      </c>
-      <c r="I351" s="3">
-        <v>23.16</v>
+        <v>8</v>
+      </c>
+      <c r="G351" s="6">
+        <v>3.7806765000000011</v>
+      </c>
+      <c r="I351" s="6">
+        <v>26.218376526000036</v>
       </c>
       <c r="J351" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K351" s="3">
-        <v>2.14</v>
-      </c>
-    </row>
-    <row r="352" spans="1:11">
+        <v>77</v>
+      </c>
+      <c r="K351" s="6">
+        <v>1.2050491702132227E-2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C352" s="3">
         <v>3097600</v>
       </c>
       <c r="D352" s="3">
-        <v>8</v>
-      </c>
-      <c r="G352" s="3">
-        <v>4.29</v>
-      </c>
-      <c r="I352" s="3">
-        <v>23.12</v>
+        <v>16</v>
+      </c>
+      <c r="E352" s="3">
+        <v>2</v>
+      </c>
+      <c r="G352" s="6">
+        <v>7.9888360000000009</v>
+      </c>
+      <c r="I352" s="6">
+        <v>24.81542993247076</v>
       </c>
       <c r="J352" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K352" s="3">
-        <v>4.29</v>
-      </c>
-    </row>
-    <row r="353" spans="3:11">
+        <v>77</v>
+      </c>
+      <c r="K352" s="6">
+        <v>0.6314684972964959</v>
+      </c>
+    </row>
+    <row r="353" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C353" s="3">
-        <v>3097600</v>
+        <v>4194304</v>
       </c>
       <c r="D353" s="3">
-        <v>16</v>
-      </c>
-      <c r="E353" s="3">
-        <v>2</v>
-      </c>
-      <c r="G353" s="3">
-        <v>21.87</v>
-      </c>
-      <c r="I353" s="3">
-        <v>9.06</v>
+        <v>2</v>
+      </c>
+      <c r="G353" s="6">
+        <v>2.7621320000000003</v>
+      </c>
+      <c r="I353" s="6">
+        <v>12.148018994023456</v>
       </c>
       <c r="J353" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K353" s="3">
-        <v>1.72</v>
-      </c>
-    </row>
-    <row r="354" spans="3:11">
+        <v>77</v>
+      </c>
+      <c r="K353" s="6">
+        <v>0.1055276175176308</v>
+      </c>
+    </row>
+    <row r="354" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C354" s="3">
-        <v>3097600</v>
+        <v>4194304</v>
       </c>
       <c r="D354" s="3">
-        <v>32</v>
-      </c>
-      <c r="E354" s="3">
         <v>4</v>
       </c>
-      <c r="G354" s="3">
-        <v>21.65</v>
-      </c>
-      <c r="I354" s="3">
-        <v>18.309999999999999</v>
+      <c r="G354" s="6">
+        <v>4.3824060000000005</v>
+      </c>
+      <c r="I354" s="6">
+        <v>15.313246650355991</v>
       </c>
       <c r="J354" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K354" s="3">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="355" spans="3:11">
+        <v>77</v>
+      </c>
+      <c r="K354" s="6">
+        <v>1.9242019644517452E-2</v>
+      </c>
+    </row>
+    <row r="355" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C355" s="3">
         <v>4194304</v>
       </c>
       <c r="D355" s="3">
-        <v>2</v>
-      </c>
-      <c r="G355" s="3">
-        <v>1.44</v>
-      </c>
-      <c r="I355" s="3">
-        <v>23.25</v>
+        <v>8</v>
+      </c>
+      <c r="G355" s="6">
+        <v>4.9887189999999997</v>
+      </c>
+      <c r="I355" s="6">
+        <v>26.904246961995653</v>
       </c>
       <c r="J355" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K355" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="3:11">
+        <v>77</v>
+      </c>
+      <c r="K355" s="6">
+        <v>1.5876655454504653E-2</v>
+      </c>
+    </row>
+    <row r="356" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C356" s="3">
         <v>4194304</v>
       </c>
       <c r="D356" s="3">
+        <v>16</v>
+      </c>
+      <c r="E356" s="3">
+        <v>2</v>
+      </c>
+      <c r="G356" s="6">
+        <v>12.65512</v>
+      </c>
+      <c r="I356" s="6">
+        <v>21.211608898216689</v>
+      </c>
+      <c r="J356" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K356" s="6">
+        <v>0.88704099270374315</v>
+      </c>
+    </row>
+    <row r="357" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C357" s="3">
+        <v>6553600</v>
+      </c>
+      <c r="D357" s="3">
+        <v>2</v>
+      </c>
+      <c r="G357" s="6">
+        <v>4.3039505</v>
+      </c>
+      <c r="I357" s="6">
+        <v>12.181552738582845</v>
+      </c>
+      <c r="J357" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K357" s="6">
+        <v>0.1372171626320465</v>
+      </c>
+    </row>
+    <row r="358" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C358" s="3">
+        <v>6553600</v>
+      </c>
+      <c r="D358" s="3">
         <v>4</v>
       </c>
-      <c r="G356" s="3">
-        <v>2.88</v>
-      </c>
-      <c r="I356" s="3">
-        <v>23.29</v>
-      </c>
-      <c r="J356" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K356" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="3:11">
-      <c r="C357" s="3">
-        <v>4194304</v>
-      </c>
-      <c r="D357" s="3">
+      <c r="G358" s="6">
+        <v>6.8428379999999986</v>
+      </c>
+      <c r="I358" s="6">
+        <v>15.323700488013895</v>
+      </c>
+      <c r="J358" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K358" s="6">
+        <v>3.0333329350298567E-2</v>
+      </c>
+    </row>
+    <row r="359" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C359" s="3">
+        <v>6553600</v>
+      </c>
+      <c r="D359" s="3">
         <v>8</v>
       </c>
-      <c r="G357" s="3">
-        <v>5.73</v>
-      </c>
-      <c r="I357" s="3">
-        <v>23.41</v>
-      </c>
-      <c r="J357" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K357" s="3">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="358" spans="3:11">
-      <c r="C358" s="3">
-        <v>4194304</v>
-      </c>
-      <c r="D358" s="3">
-        <v>16</v>
-      </c>
-      <c r="E358" s="3">
-        <v>2</v>
-      </c>
-      <c r="G358" s="3">
-        <v>26.65</v>
-      </c>
-      <c r="I358" s="3">
-        <v>10.07</v>
-      </c>
-      <c r="J358" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K358" s="3">
-        <v>2.76</v>
-      </c>
-    </row>
-    <row r="359" spans="3:11">
-      <c r="C359" s="3">
-        <v>4194304</v>
-      </c>
-      <c r="D359" s="3">
-        <v>32</v>
-      </c>
-      <c r="E359" s="3">
-        <v>4</v>
-      </c>
-      <c r="G359" s="3">
-        <v>26.92</v>
-      </c>
-      <c r="I359" s="3">
-        <v>19.940000000000001</v>
+      <c r="G359" s="6">
+        <v>7.8194050000000006</v>
+      </c>
+      <c r="I359" s="6">
+        <v>26.819841151596574</v>
       </c>
       <c r="J359" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K359" s="3">
-        <v>2.08</v>
-      </c>
-    </row>
-    <row r="360" spans="3:11">
+        <v>77</v>
+      </c>
+      <c r="K359" s="6">
+        <v>2.6075095700485416E-2</v>
+      </c>
+    </row>
+    <row r="360" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C360" s="3">
         <v>6553600</v>
       </c>
       <c r="D360" s="3">
-        <v>2</v>
-      </c>
-      <c r="G360" s="3">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I360" s="3">
-        <v>23.44</v>
+        <v>16</v>
+      </c>
+      <c r="E360" s="3">
+        <v>2</v>
+      </c>
+      <c r="G360" s="6">
+        <v>23.306310000000003</v>
+      </c>
+      <c r="I360" s="6">
+        <v>17.996431009456234</v>
       </c>
       <c r="J360" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K360" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="3:11">
+        <v>77</v>
+      </c>
+      <c r="K360" s="6">
+        <v>0.82967449920530811</v>
+      </c>
+    </row>
+    <row r="361" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C361" s="3">
-        <v>6553600</v>
+        <v>16777216</v>
       </c>
       <c r="D361" s="3">
-        <v>4</v>
-      </c>
-      <c r="G361" s="3">
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="I361" s="3">
-        <v>23.39</v>
+        <v>2</v>
+      </c>
+      <c r="G361" s="6">
+        <v>13.732950000000002</v>
+      </c>
+      <c r="I361" s="6">
+        <v>9.7734083354268364</v>
       </c>
       <c r="J361" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K361" s="3">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="362" spans="3:11">
+      <c r="K361" s="6">
+        <v>0.45193624084540274</v>
+      </c>
+    </row>
+    <row r="362" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C362" s="3">
-        <v>6553600</v>
+        <v>16777216</v>
       </c>
       <c r="D362" s="3">
-        <v>8</v>
-      </c>
-      <c r="G362" s="3">
-        <v>8.99</v>
-      </c>
-      <c r="I362" s="3">
-        <v>23.33</v>
+        <v>4</v>
+      </c>
+      <c r="G362" s="6">
+        <v>21.690200000000001</v>
+      </c>
+      <c r="I362" s="6">
+        <v>12.375886621607917</v>
       </c>
       <c r="J362" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K362" s="3">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="363" spans="3:11">
+      <c r="K362" s="6">
+        <v>0.72414004170464152</v>
+      </c>
+    </row>
+    <row r="363" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C363" s="3">
-        <v>6553600</v>
+        <v>16777216</v>
       </c>
       <c r="D363" s="3">
+        <v>8</v>
+      </c>
+      <c r="G363" s="6">
+        <v>25.132300000000004</v>
+      </c>
+      <c r="I363" s="6">
+        <v>21.361789887913162</v>
+      </c>
+      <c r="J363" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K363" s="6">
+        <v>0.48302589012010111</v>
+      </c>
+    </row>
+    <row r="364" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C364" s="3">
+        <v>16777216</v>
+      </c>
+      <c r="D364" s="3">
         <v>16</v>
       </c>
-      <c r="E363" s="3">
-        <v>2</v>
-      </c>
-      <c r="G363" s="3">
-        <v>39.270000000000003</v>
-      </c>
-      <c r="I363" s="3">
-        <v>10.68</v>
-      </c>
-      <c r="J363" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K363" s="3">
-        <v>2.5099999999999998</v>
-      </c>
-    </row>
-    <row r="364" spans="3:11">
-      <c r="C364" s="3">
-        <v>6553600</v>
-      </c>
-      <c r="D364" s="3">
-        <v>32</v>
-      </c>
       <c r="E364" s="3">
-        <v>4</v>
-      </c>
-      <c r="G364" s="3">
-        <v>42.32</v>
-      </c>
-      <c r="I364" s="3">
-        <v>19.82</v>
+        <v>2</v>
+      </c>
+      <c r="G364" s="6">
+        <v>62.261825000000002</v>
+      </c>
+      <c r="I364" s="6">
+        <v>17.245588673316274</v>
       </c>
       <c r="J364" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="K364" s="3">
-        <v>3.01</v>
-      </c>
-    </row>
-    <row r="365" spans="3:11">
+      <c r="K364" s="6">
+        <v>0.20489316824808243</v>
+      </c>
+    </row>
+    <row r="365" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C365" s="3">
-        <v>16777216</v>
+        <v>38360000</v>
       </c>
       <c r="D365" s="3">
         <v>2</v>
       </c>
-      <c r="G365" s="3">
-        <v>5.68</v>
-      </c>
-      <c r="I365" s="3">
-        <v>23.65</v>
+      <c r="G365" s="6">
+        <v>25.90992</v>
+      </c>
+      <c r="I365" s="6">
+        <v>11.844112216479248</v>
       </c>
       <c r="J365" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K365" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="3:11">
+        <v>77</v>
+      </c>
+      <c r="K365" s="6">
+        <v>1.4306662403083028</v>
+      </c>
+    </row>
+    <row r="366" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C366" s="3">
-        <v>16777216</v>
+        <v>38360000</v>
       </c>
       <c r="D366" s="3">
         <v>4</v>
       </c>
-      <c r="G366" s="3">
-        <v>11.49</v>
-      </c>
-      <c r="I366" s="3">
-        <v>23.37</v>
+      <c r="G366" s="6">
+        <v>39.960375000000006</v>
+      </c>
+      <c r="I366" s="6">
+        <v>15.359215222579866</v>
       </c>
       <c r="J366" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K366" s="3">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="367" spans="3:11">
+        <v>77</v>
+      </c>
+      <c r="K366" s="6">
+        <v>0.17198183158327179</v>
+      </c>
+    </row>
+    <row r="367" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C367" s="3">
-        <v>16777216</v>
+        <v>38360000</v>
       </c>
       <c r="D367" s="3">
         <v>8</v>
       </c>
-      <c r="G367" s="3">
-        <v>22.92</v>
-      </c>
-      <c r="I367" s="3">
-        <v>23.42</v>
+      <c r="G367" s="6">
+        <v>45.625990000000009</v>
+      </c>
+      <c r="I367" s="6">
+        <v>26.903964166037817</v>
       </c>
       <c r="J367" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K367" s="3">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="368" spans="3:11">
+        <v>77</v>
+      </c>
+      <c r="K367" s="6">
+        <v>0.1140040345546449</v>
+      </c>
+    </row>
+    <row r="368" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C368" s="3">
-        <v>16777216</v>
+        <v>38360000</v>
       </c>
       <c r="D368" s="3">
         <v>16</v>
@@ -13739,50 +13736,105 @@
       <c r="E368" s="3">
         <v>2</v>
       </c>
-      <c r="G368" s="3">
-        <v>101.76</v>
-      </c>
-      <c r="I368" s="3">
-        <v>10.55</v>
+      <c r="G368" s="6">
+        <v>102.34065000000001</v>
+      </c>
+      <c r="I368" s="6">
+        <v>23.988903724961681</v>
       </c>
       <c r="J368" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="K368" s="3">
-        <v>5.56</v>
-      </c>
-    </row>
-    <row r="369" spans="3:11">
+      <c r="K368" s="6">
+        <v>0.25120892437214504</v>
+      </c>
+    </row>
+    <row r="369" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C369" s="3">
-        <v>16777216</v>
+        <v>64500000</v>
       </c>
       <c r="D369" s="3">
-        <v>32</v>
-      </c>
-      <c r="E369" s="3">
+        <v>2</v>
+      </c>
+      <c r="G369" s="6">
+        <v>43.84521500000001</v>
+      </c>
+      <c r="I369" s="6">
+        <v>11.768673046762343</v>
+      </c>
+      <c r="J369" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K369" s="6">
+        <v>2.5481067684552325</v>
+      </c>
+    </row>
+    <row r="370" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C370" s="3">
+        <v>64500000</v>
+      </c>
+      <c r="D370" s="3">
         <v>4</v>
       </c>
-      <c r="G369" s="3">
-        <v>108.21</v>
-      </c>
-      <c r="I369" s="3">
-        <v>19.850000000000001</v>
-      </c>
-      <c r="J369" s="3" t="s">
+      <c r="G370" s="6">
+        <v>67.212285000000008</v>
+      </c>
+      <c r="I370" s="6">
+        <v>15.354335892612486</v>
+      </c>
+      <c r="J370" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K370" s="6">
+        <v>0.29409405991782256</v>
+      </c>
+    </row>
+    <row r="371" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C371" s="3">
+        <v>64500000</v>
+      </c>
+      <c r="D371" s="3">
+        <v>8</v>
+      </c>
+      <c r="G371" s="6">
+        <v>76.630785000000003</v>
+      </c>
+      <c r="I371" s="6">
+        <v>26.934344989419067</v>
+      </c>
+      <c r="J371" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K371" s="6">
+        <v>0.21118432027870399</v>
+      </c>
+    </row>
+    <row r="372" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C372" s="3">
+        <v>64500000</v>
+      </c>
+      <c r="D372" s="3">
+        <v>16</v>
+      </c>
+      <c r="E372" s="3">
+        <v>2</v>
+      </c>
+      <c r="G372" s="6">
+        <v>152.47234999999998</v>
+      </c>
+      <c r="I372" s="6">
+        <v>27.073761242612189</v>
+      </c>
+      <c r="J372" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="K369" s="3">
-        <v>9.0299999999999994</v>
+      <c r="K372" s="6">
+        <v>0.19930306861133232</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -13794,7 +13846,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" style="3" customWidth="1"/>
     <col min="2" max="3" width="11" style="3"/>
@@ -13815,15 +13867,15 @@
     <col min="23" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -13849,7 +13901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C4" s="3">
         <v>1760</v>
       </c>
@@ -13875,7 +13927,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C5" s="3">
         <v>1760</v>
       </c>
@@ -13901,7 +13953,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C6" s="3">
         <v>1760</v>
       </c>
@@ -13927,7 +13979,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="3">
         <v>1760</v>
       </c>
@@ -13953,7 +14005,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="3">
         <v>1760</v>
       </c>
@@ -13979,7 +14031,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="3">
         <v>2048</v>
       </c>
@@ -14005,7 +14057,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="3">
         <v>2048</v>
       </c>
@@ -14031,7 +14083,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="3">
         <v>2048</v>
       </c>
@@ -14057,7 +14109,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="3">
         <v>2048</v>
       </c>
@@ -14083,7 +14135,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="3">
         <v>2048</v>
       </c>
@@ -14109,7 +14161,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="3">
         <v>2560</v>
       </c>
@@ -14135,7 +14187,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="3">
         <v>2560</v>
       </c>
@@ -14161,7 +14213,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C16" s="3">
         <v>2560</v>
       </c>
@@ -14187,7 +14239,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="3">
         <v>2560</v>
       </c>
@@ -14213,7 +14265,7 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="3">
         <v>2560</v>
       </c>
@@ -14239,7 +14291,7 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="3">
         <v>4096</v>
       </c>
@@ -14265,7 +14317,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="3:12">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="3">
         <v>4096</v>
       </c>
@@ -14291,7 +14343,7 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="3:12">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="3">
         <v>4096</v>
       </c>
@@ -14317,7 +14369,7 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="3:12">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="3">
         <v>4096</v>
       </c>
@@ -14343,7 +14395,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="3:12">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="3">
         <v>4096</v>
       </c>
@@ -14369,7 +14421,7 @@
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="3:12">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="3">
         <v>1760</v>
       </c>
@@ -14395,7 +14447,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="3:12">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="3">
         <v>1760</v>
       </c>
@@ -14421,7 +14473,7 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="3:12">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="3">
         <v>1760</v>
       </c>
@@ -14447,7 +14499,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="3:12">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="3">
         <v>1760</v>
       </c>
@@ -14473,7 +14525,7 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="3:12">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="3">
         <v>1760</v>
       </c>
@@ -14499,7 +14551,7 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="3:12">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="3">
         <v>2048</v>
       </c>
@@ -14525,7 +14577,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="3:12">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="3">
         <v>2048</v>
       </c>
@@ -14551,7 +14603,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
     </row>
-    <row r="31" spans="3:12">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="3">
         <v>2048</v>
       </c>
@@ -14577,7 +14629,7 @@
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
     </row>
-    <row r="32" spans="3:12">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="3">
         <v>2048</v>
       </c>
@@ -14603,7 +14655,7 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
     </row>
-    <row r="33" spans="3:12">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C33" s="3">
         <v>2048</v>
       </c>
@@ -14629,7 +14681,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
     </row>
-    <row r="34" spans="3:12">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C34" s="3">
         <v>2560</v>
       </c>
@@ -14655,7 +14707,7 @@
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
     </row>
-    <row r="35" spans="3:12">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C35" s="3">
         <v>2560</v>
       </c>
@@ -14681,7 +14733,7 @@
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
     </row>
-    <row r="36" spans="3:12">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C36" s="3">
         <v>2560</v>
       </c>
@@ -14707,7 +14759,7 @@
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
     </row>
-    <row r="37" spans="3:12">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C37" s="3">
         <v>2560</v>
       </c>
@@ -14733,7 +14785,7 @@
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
     </row>
-    <row r="38" spans="3:12">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C38" s="3">
         <v>2560</v>
       </c>
@@ -14759,7 +14811,7 @@
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
     </row>
-    <row r="39" spans="3:12">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C39" s="3">
         <v>4096</v>
       </c>
@@ -14785,7 +14837,7 @@
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
     </row>
-    <row r="40" spans="3:12">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C40" s="3">
         <v>4096</v>
       </c>
@@ -14811,7 +14863,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
     </row>
-    <row r="41" spans="3:12">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C41" s="3">
         <v>4096</v>
       </c>
@@ -14837,7 +14889,7 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
     </row>
-    <row r="42" spans="3:12">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C42" s="3">
         <v>4096</v>
       </c>
@@ -14863,7 +14915,7 @@
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
     </row>
-    <row r="43" spans="3:12">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C43" s="3">
         <v>4096</v>
       </c>
@@ -14889,7 +14941,7 @@
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
     </row>
-    <row r="44" spans="3:12">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C44" s="3">
         <v>1760</v>
       </c>
@@ -14918,7 +14970,7 @@
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
     </row>
-    <row r="45" spans="3:12">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C45" s="3">
         <v>2048</v>
       </c>
@@ -14944,7 +14996,7 @@
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
     </row>
-    <row r="46" spans="3:12">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C46" s="3">
         <v>2560</v>
       </c>
@@ -14970,7 +15022,7 @@
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
     </row>
-    <row r="47" spans="3:12">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C47" s="7">
         <v>4096</v>
       </c>
@@ -14996,19 +15048,19 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
     </row>
-    <row r="48" spans="3:12">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.2">
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
     </row>
-    <row r="49" spans="3:12">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
     </row>
-    <row r="50" spans="3:12">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="3">
         <v>5124</v>
       </c>
@@ -15034,7 +15086,7 @@
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
     </row>
-    <row r="51" spans="3:12">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="3">
         <v>35</v>
       </c>
@@ -15060,7 +15112,7 @@
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
     </row>
-    <row r="52" spans="3:12">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="3">
         <v>5124</v>
       </c>
@@ -15086,7 +15138,7 @@
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
     </row>
-    <row r="53" spans="3:12">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="3">
         <v>35</v>
       </c>
@@ -15112,7 +15164,7 @@
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
     </row>
-    <row r="54" spans="3:12">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="3">
         <v>5124</v>
       </c>
@@ -15138,7 +15190,7 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
     </row>
-    <row r="55" spans="3:12">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="3">
         <v>35</v>
       </c>
@@ -15164,7 +15216,7 @@
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
     </row>
-    <row r="56" spans="3:12">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="3">
         <v>5124</v>
       </c>
@@ -15190,7 +15242,7 @@
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
     </row>
-    <row r="57" spans="3:12">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="3">
         <v>35</v>
       </c>
@@ -15216,7 +15268,7 @@
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
     </row>
-    <row r="58" spans="3:12">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="3">
         <v>5124</v>
       </c>
@@ -15242,7 +15294,7 @@
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
     </row>
-    <row r="59" spans="3:12">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="3">
         <v>35</v>
       </c>
@@ -15268,7 +15320,7 @@
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
     </row>
-    <row r="60" spans="3:12">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="3">
         <v>5124</v>
       </c>
@@ -15294,7 +15346,7 @@
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
     </row>
-    <row r="61" spans="3:12">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="3">
         <v>35</v>
       </c>
@@ -15320,7 +15372,7 @@
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
     </row>
-    <row r="62" spans="3:12">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="3">
         <v>5124</v>
       </c>
@@ -15346,7 +15398,7 @@
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
     </row>
-    <row r="63" spans="3:12">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="3">
         <v>35</v>
       </c>
@@ -15372,7 +15424,7 @@
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
     </row>
-    <row r="64" spans="3:12">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="3">
         <v>5124</v>
       </c>
@@ -15398,7 +15450,7 @@
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
     </row>
-    <row r="65" spans="3:12">
+    <row r="65" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C65" s="3">
         <v>35</v>
       </c>
@@ -15424,13 +15476,13 @@
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
     </row>
-    <row r="66" spans="3:12">
+    <row r="66" spans="3:12" x14ac:dyDescent="0.2">
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
     </row>
-    <row r="67" spans="3:12">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C67" s="3">
         <v>7680</v>
       </c>
@@ -15456,7 +15508,7 @@
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
     </row>
-    <row r="68" spans="3:12">
+    <row r="68" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C68" s="3">
         <v>7680</v>
       </c>
@@ -15482,7 +15534,7 @@
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
     </row>
-    <row r="69" spans="3:12">
+    <row r="69" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C69" s="3">
         <v>7680</v>
       </c>
@@ -15508,7 +15560,7 @@
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
     </row>
-    <row r="70" spans="3:12">
+    <row r="70" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C70" s="3">
         <v>7680</v>
       </c>
@@ -15534,7 +15586,7 @@
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
     </row>
-    <row r="71" spans="3:12">
+    <row r="71" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C71" s="3">
         <v>7680</v>
       </c>
@@ -15560,7 +15612,7 @@
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
     </row>
-    <row r="72" spans="3:12">
+    <row r="72" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C72" s="3">
         <v>7680</v>
       </c>
@@ -15586,7 +15638,7 @@
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
     </row>
-    <row r="73" spans="3:12">
+    <row r="73" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C73" s="3">
         <v>7680</v>
       </c>
@@ -15612,7 +15664,7 @@
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
     </row>
-    <row r="74" spans="3:12">
+    <row r="74" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C74" s="3">
         <v>7680</v>
       </c>
@@ -15638,7 +15690,7 @@
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
     </row>
-    <row r="75" spans="3:12">
+    <row r="75" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C75" s="3">
         <f>3*1024</f>
         <v>3072</v>
@@ -15665,7 +15717,7 @@
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
     </row>
-    <row r="76" spans="3:12">
+    <row r="76" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C76" s="3">
         <f t="shared" ref="C76:C82" si="3">3*1024</f>
         <v>3072</v>
@@ -15692,7 +15744,7 @@
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
     </row>
-    <row r="77" spans="3:12">
+    <row r="77" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C77" s="3">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -15719,7 +15771,7 @@
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
     </row>
-    <row r="78" spans="3:12">
+    <row r="78" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C78" s="3">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -15746,7 +15798,7 @@
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
     </row>
-    <row r="79" spans="3:12">
+    <row r="79" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C79" s="3">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -15773,7 +15825,7 @@
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
     </row>
-    <row r="80" spans="3:12">
+    <row r="80" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C80" s="3">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -15800,7 +15852,7 @@
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
     </row>
-    <row r="81" spans="3:12">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="3">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -15827,7 +15879,7 @@
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
     </row>
-    <row r="82" spans="3:12">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="3">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -15854,13 +15906,13 @@
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
     </row>
-    <row r="83" spans="3:12">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
     </row>
-    <row r="84" spans="3:12">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="3">
         <v>3072</v>
       </c>
@@ -15886,7 +15938,7 @@
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
     </row>
-    <row r="85" spans="3:12">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="3">
         <v>7680</v>
       </c>
@@ -15912,11 +15964,11 @@
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
     </row>
-    <row r="86" spans="3:12">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
     </row>
-    <row r="87" spans="3:12">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="3">
         <v>512</v>
       </c>
@@ -15940,7 +15992,7 @@
         <v>0.39380828766464759</v>
       </c>
     </row>
-    <row r="88" spans="3:12">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="3">
         <v>1024</v>
       </c>
@@ -15964,7 +16016,7 @@
         <v>0.75481433704966372</v>
       </c>
     </row>
-    <row r="89" spans="3:12">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="3">
         <v>512</v>
       </c>
@@ -15988,7 +16040,7 @@
         <v>0.80078201368523938</v>
       </c>
     </row>
-    <row r="90" spans="3:12">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="3">
         <v>1024</v>
       </c>
@@ -16012,7 +16064,7 @@
         <v>1.5187245087133852</v>
       </c>
     </row>
-    <row r="91" spans="3:12">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="3">
         <v>512</v>
       </c>
@@ -16036,7 +16088,7 @@
         <v>0.59079763450165867</v>
       </c>
     </row>
-    <row r="92" spans="3:12">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="3">
         <v>1024</v>
       </c>
@@ -16060,7 +16112,7 @@
         <v>1.068475283683318</v>
       </c>
     </row>
-    <row r="93" spans="3:12">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="3">
         <v>512</v>
       </c>
@@ -16084,7 +16136,7 @@
         <v>0.95544669932353621</v>
       </c>
     </row>
-    <row r="94" spans="3:12">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="3">
         <v>1024</v>
       </c>
@@ -16108,7 +16160,7 @@
         <v>1.0102978356046126</v>
       </c>
     </row>
-    <row r="95" spans="3:12">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="3">
         <v>1024</v>
       </c>
@@ -16132,7 +16184,7 @@
         <v>7.1961098039215674</v>
       </c>
     </row>
-    <row r="96" spans="3:12">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="3">
         <v>1024</v>
       </c>
@@ -16156,7 +16208,7 @@
         <v>7.1262446601941738</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C97" s="3">
         <v>7680</v>
       </c>
@@ -16180,7 +16232,7 @@
         <v>8.8601241163050499</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C98" s="3">
         <v>6144</v>
       </c>
@@ -16205,7 +16257,7 @@
         <v>8.8156786548341888</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="7"/>
       <c r="C99" s="7">
         <v>4608</v>
@@ -16231,7 +16283,7 @@
         <v>8.7577301059469495</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="7"/>
       <c r="C100" s="7">
         <v>8448</v>
@@ -16257,7 +16309,7 @@
         <v>8.8734624631858665</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="7"/>
       <c r="C101" s="7">
         <v>3072</v>
@@ -16283,7 +16335,7 @@
         <v>8.6544932653178197</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C102" s="3">
         <v>7680</v>
       </c>
@@ -16307,7 +16359,7 @@
         <v>8.901954014856738</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C103" s="3">
         <v>6144</v>
       </c>
@@ -16332,7 +16384,7 @@
         <v>8.8738993719008263</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="7"/>
       <c r="C104" s="7">
         <v>4608</v>
@@ -16358,7 +16410,7 @@
         <v>8.8251821334407037</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="7"/>
       <c r="C105" s="7">
         <v>8448</v>
@@ -16384,7 +16436,7 @@
         <v>8.9052255669588529</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="7"/>
       <c r="C106" s="7">
         <v>3072</v>
@@ -16410,7 +16462,7 @@
         <v>8.7340897732531229</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C107" s="3">
         <v>7680</v>
       </c>
@@ -16434,7 +16486,7 @@
         <v>8.7795925202344396</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C108" s="3">
         <v>6144</v>
       </c>
@@ -16459,7 +16511,7 @@
         <v>8.7457251086012171</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="7"/>
       <c r="C109" s="7">
         <v>4608</v>
@@ -16485,7 +16537,7 @@
         <v>8.7269104546622156</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="7"/>
       <c r="C110" s="7">
         <v>8448</v>
@@ -16511,7 +16563,7 @@
         <v>8.7872201923816871</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="7"/>
       <c r="C111" s="7">
         <v>3072</v>
@@ -16537,7 +16589,7 @@
         <v>8.6213854059609467</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C112" s="3">
         <v>7680</v>
       </c>
@@ -16561,7 +16613,7 @@
         <v>8.8200042057057395</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C113" s="3">
         <v>6144</v>
       </c>
@@ -16586,7 +16638,7 @@
         <v>8.7975088815573859</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="7"/>
       <c r="C114" s="7">
         <v>4608</v>
@@ -16612,7 +16664,7 @@
         <v>8.7422931178672982</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="7"/>
       <c r="C115" s="7">
         <v>8448</v>
@@ -16638,7 +16690,7 @@
         <v>8.8133312545826428</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="7"/>
       <c r="C116" s="7">
         <v>3072</v>
@@ -16664,7 +16716,7 @@
         <v>8.6681560320330657</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="7"/>
       <c r="C117" s="7">
         <v>6144</v>
@@ -16690,7 +16742,7 @@
         <v>1.7660227368421053</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="7"/>
       <c r="C118" s="7">
         <v>4608</v>
@@ -16716,7 +16768,7 @@
         <v>1.7029504962406012</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="7"/>
       <c r="C119" s="7">
         <v>8448</v>
@@ -16742,7 +16794,7 @@
         <v>1.5992986890756302</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="7"/>
       <c r="C120" s="7">
         <v>6144</v>
@@ -16768,7 +16820,7 @@
         <v>2.2431932256267406</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="7"/>
       <c r="C121" s="7">
         <v>4608</v>
@@ -16794,7 +16846,7 @@
         <v>6.2914560000000002</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="7"/>
       <c r="C122" s="7">
         <v>8448</v>
@@ -16820,7 +16872,7 @@
         <v>6.5065485128205118</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="7"/>
       <c r="C123" s="7">
         <v>6144</v>
@@ -16846,7 +16898,7 @@
         <v>1.2351324662576686</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="7"/>
       <c r="C124" s="7">
         <v>4608</v>
@@ -16872,7 +16924,7 @@
         <v>1.2796181694915254</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="7"/>
       <c r="C125" s="7">
         <v>8448</v>
@@ -16898,7 +16950,7 @@
         <v>1.2541452652388796</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="7"/>
       <c r="C126" s="7">
         <v>6144</v>
@@ -16924,7 +16976,7 @@
         <v>1.0926816390773406</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="7"/>
       <c r="C127" s="7">
         <v>4608</v>
@@ -16950,7 +17002,7 @@
         <v>6.1214166486486494</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="7"/>
       <c r="C128" s="7">
         <v>8448</v>
@@ -16976,7 +17028,7 @@
         <v>7.0162781198156692</v>
       </c>
     </row>
-    <row r="129" spans="2:10">
+    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C129" s="7">
         <v>512</v>
       </c>
@@ -17002,7 +17054,7 @@
         <v>8.7106376337319062</v>
       </c>
     </row>
-    <row r="130" spans="2:10">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C130" s="7">
         <v>512</v>
       </c>
@@ -17028,7 +17080,7 @@
         <v>8.6883562920766444</v>
       </c>
     </row>
-    <row r="131" spans="2:10">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B131" s="7"/>
       <c r="C131" s="7">
         <v>512</v>
@@ -17055,7 +17107,7 @@
         <v>8.7042833425567228</v>
       </c>
     </row>
-    <row r="132" spans="2:10">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B132" s="7"/>
       <c r="C132" s="7">
         <v>512</v>
@@ -17082,7 +17134,7 @@
         <v>8.6261252580867165</v>
       </c>
     </row>
-    <row r="133" spans="2:10">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C133" s="7">
         <v>1024</v>
       </c>
@@ -17108,7 +17160,7 @@
         <v>8.7216151228733452</v>
       </c>
     </row>
-    <row r="134" spans="2:10">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C134" s="7">
         <v>1024</v>
       </c>
@@ -17134,7 +17186,7 @@
         <v>9.0127402632285776</v>
       </c>
     </row>
-    <row r="135" spans="2:10">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B135" s="7"/>
       <c r="C135" s="7">
         <v>1024</v>
@@ -17161,7 +17213,7 @@
         <v>9.0271267666260133</v>
       </c>
     </row>
-    <row r="136" spans="2:10">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B136" s="7"/>
       <c r="C136" s="7">
         <v>1024</v>
@@ -17188,7 +17240,7 @@
         <v>8.9526857142857121</v>
       </c>
     </row>
-    <row r="137" spans="2:10">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B137" s="7"/>
       <c r="C137" s="7">
         <v>512</v>
@@ -17214,7 +17266,7 @@
         <v>0.59918628571428578</v>
       </c>
     </row>
-    <row r="138" spans="2:10">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B138" s="7"/>
       <c r="C138" s="7">
         <v>1024</v>
@@ -17240,7 +17292,7 @@
         <v>1.048576</v>
       </c>
     </row>
-    <row r="139" spans="2:10">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C139" s="7">
         <v>512</v>
       </c>
@@ -17266,7 +17318,7 @@
         <v>8.6098551878576757</v>
       </c>
     </row>
-    <row r="140" spans="2:10">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C140" s="7">
         <v>512</v>
       </c>
@@ -17292,7 +17344,7 @@
         <v>8.5773087934560337</v>
       </c>
     </row>
-    <row r="141" spans="2:10">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B141" s="7"/>
       <c r="C141" s="7">
         <v>512</v>
@@ -17319,7 +17371,7 @@
         <v>8.6031122658279777</v>
       </c>
     </row>
-    <row r="142" spans="2:10">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B142" s="7"/>
       <c r="C142" s="7">
         <v>512</v>
@@ -17346,7 +17398,7 @@
         <v>8.52057104010877</v>
       </c>
     </row>
-    <row r="143" spans="2:10">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C143" s="7">
         <v>1024</v>
       </c>
@@ -17372,7 +17424,7 @@
         <v>8.9275046439628483</v>
       </c>
     </row>
-    <row r="144" spans="2:10">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C144" s="7">
         <v>1024</v>
       </c>
@@ -17398,7 +17450,7 @@
         <v>8.5978216604031434</v>
       </c>
     </row>
-    <row r="145" spans="2:10">
+    <row r="145" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B145" s="7"/>
       <c r="C145" s="7">
         <v>1024</v>
@@ -17425,7 +17477,7 @@
         <v>8.9221527334609672</v>
       </c>
     </row>
-    <row r="146" spans="2:10">
+    <row r="146" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B146" s="7"/>
       <c r="C146" s="7">
         <v>1024</v>
@@ -17452,7 +17504,7 @@
         <v>8.8421587301587312</v>
       </c>
     </row>
-    <row r="147" spans="2:10">
+    <row r="147" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B147" s="7"/>
       <c r="C147" s="7">
         <v>512</v>
@@ -17478,7 +17530,7 @@
         <v>0.76260072727272732</v>
       </c>
     </row>
-    <row r="148" spans="2:10">
+    <row r="148" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B148" s="7"/>
       <c r="C148" s="7">
         <v>1024</v>
@@ -17504,7 +17556,7 @@
         <v>1.5252014545454546</v>
       </c>
     </row>
-    <row r="149" spans="2:10">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C149" s="7">
         <v>512</v>
       </c>
@@ -17530,7 +17582,7 @@
         <v>8.721065591330099</v>
       </c>
     </row>
-    <row r="150" spans="2:10">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C150" s="7">
         <v>512</v>
       </c>
@@ -17556,7 +17608,7 @@
         <v>9.0127402632285776</v>
       </c>
     </row>
-    <row r="151" spans="2:10">
+    <row r="151" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B151" s="7"/>
       <c r="C151" s="7">
         <v>512</v>
@@ -17583,7 +17635,7 @@
         <v>9.0258317193888526</v>
       </c>
     </row>
-    <row r="152" spans="2:10">
+    <row r="152" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B152" s="7"/>
       <c r="C152" s="7">
         <v>512</v>
@@ -17610,7 +17662,7 @@
         <v>8.9484245597334606</v>
       </c>
     </row>
-    <row r="153" spans="2:10">
+    <row r="153" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C153" s="7">
         <v>1024</v>
       </c>
@@ -17636,7 +17688,7 @@
         <v>8.8428067081935797</v>
       </c>
     </row>
-    <row r="154" spans="2:10">
+    <row r="154" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C154" s="7">
         <v>1024</v>
       </c>
@@ -17662,7 +17714,7 @@
         <v>8.8154213153516068</v>
       </c>
     </row>
-    <row r="155" spans="2:10">
+    <row r="155" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B155" s="7"/>
       <c r="C155" s="7">
         <v>1024</v>
@@ -17689,7 +17741,7 @@
         <v>8.8338331929233362</v>
       </c>
     </row>
-    <row r="156" spans="2:10">
+    <row r="156" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B156" s="7"/>
       <c r="C156" s="7">
         <v>1024</v>
@@ -17716,7 +17768,7 @@
         <v>8.7394026728646139</v>
       </c>
     </row>
-    <row r="157" spans="2:10">
+    <row r="157" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B157" s="7"/>
       <c r="C157" s="7">
         <v>512</v>
@@ -17742,7 +17794,7 @@
         <v>1.5252014545454546</v>
       </c>
     </row>
-    <row r="158" spans="2:10">
+    <row r="158" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B158" s="7"/>
       <c r="C158" s="7">
         <v>1024</v>
@@ -17768,7 +17820,7 @@
         <v>2.7962026666666664</v>
       </c>
     </row>
-    <row r="159" spans="2:10">
+    <row r="159" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C159" s="7">
         <v>512</v>
       </c>
@@ -17794,7 +17846,7 @@
         <v>8.9263531536179528</v>
       </c>
     </row>
-    <row r="160" spans="2:10">
+    <row r="160" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C160" s="7">
         <v>512</v>
       </c>
@@ -17820,7 +17872,7 @@
         <v>8.5978216604031434</v>
       </c>
     </row>
-    <row r="161" spans="1:31">
+    <row r="161" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B161" s="7"/>
       <c r="C161" s="7">
         <v>512</v>
@@ -17847,7 +17899,7 @@
         <v>8.920255210548703</v>
       </c>
     </row>
-    <row r="162" spans="1:31">
+    <row r="162" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B162" s="7"/>
       <c r="C162" s="7">
         <v>512</v>
@@ -17874,7 +17926,7 @@
         <v>8.8390409026798284</v>
       </c>
     </row>
-    <row r="163" spans="1:31">
+    <row r="163" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C163" s="7">
         <v>1024</v>
       </c>
@@ -17900,7 +17952,7 @@
         <v>8.7719140629951191</v>
       </c>
     </row>
-    <row r="164" spans="1:31">
+    <row r="164" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C164" s="7">
         <v>1024</v>
       </c>
@@ -17926,7 +17978,7 @@
         <v>8.7442056984016681</v>
       </c>
     </row>
-    <row r="165" spans="1:31">
+    <row r="165" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B165" s="7"/>
       <c r="C165" s="7">
         <v>1024</v>
@@ -17953,7 +18005,7 @@
         <v>8.7655256008359466</v>
       </c>
     </row>
-    <row r="166" spans="1:31">
+    <row r="166" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B166" s="7"/>
       <c r="C166" s="7">
         <v>1024</v>
@@ -17980,7 +18032,7 @@
         <v>8.6584030856024423</v>
       </c>
     </row>
-    <row r="167" spans="1:31">
+    <row r="167" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B167" s="7"/>
       <c r="C167" s="7">
         <v>512</v>
@@ -18006,7 +18058,7 @@
         <v>1.5252014545454546</v>
       </c>
     </row>
-    <row r="168" spans="1:31">
+    <row r="168" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B168" s="7"/>
       <c r="C168" s="7">
         <v>1024</v>
@@ -18032,26 +18084,26 @@
         <v>2.7962026666666664</v>
       </c>
     </row>
-    <row r="169" spans="1:31">
+    <row r="169" spans="1:31" x14ac:dyDescent="0.2">
       <c r="I169" s="6"/>
     </row>
-    <row r="170" spans="1:31">
+    <row r="170" spans="1:31" x14ac:dyDescent="0.2">
       <c r="I170" s="6"/>
     </row>
-    <row r="171" spans="1:31">
+    <row r="171" spans="1:31" x14ac:dyDescent="0.2">
       <c r="I171" s="6"/>
       <c r="J171" s="8"/>
     </row>
-    <row r="172" spans="1:31">
+    <row r="172" spans="1:31" x14ac:dyDescent="0.2">
       <c r="I172" s="6"/>
     </row>
-    <row r="173" spans="1:31">
+    <row r="173" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I173" s="6"/>
     </row>
-    <row r="174" spans="1:31">
+    <row r="174" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C174" s="3" t="s">
         <v>11</v>
       </c>
@@ -18116,7 +18168,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="1:31">
+    <row r="175" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C175" s="3">
         <v>700</v>
       </c>
@@ -18189,7 +18241,7 @@
       <c r="AA175" s="6"/>
       <c r="AE175" s="6"/>
     </row>
-    <row r="176" spans="1:31">
+    <row r="176" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C176" s="3">
         <v>700</v>
       </c>
@@ -18262,7 +18314,7 @@
       <c r="AA176" s="6"/>
       <c r="AE176" s="6"/>
     </row>
-    <row r="177" spans="3:31">
+    <row r="177" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C177" s="3">
         <v>700</v>
       </c>
@@ -18335,7 +18387,7 @@
       <c r="AA177" s="6"/>
       <c r="AE177" s="6"/>
     </row>
-    <row r="178" spans="3:31">
+    <row r="178" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C178" s="3">
         <v>700</v>
       </c>
@@ -18408,7 +18460,7 @@
       <c r="AA178" s="6"/>
       <c r="AE178" s="6"/>
     </row>
-    <row r="179" spans="3:31">
+    <row r="179" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C179" s="3">
         <v>341</v>
       </c>
@@ -18481,7 +18533,7 @@
       <c r="AA179" s="6"/>
       <c r="AE179" s="6"/>
     </row>
-    <row r="180" spans="3:31">
+    <row r="180" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C180" s="3">
         <v>341</v>
       </c>
@@ -18554,7 +18606,7 @@
       <c r="AA180" s="6"/>
       <c r="AE180" s="6"/>
     </row>
-    <row r="181" spans="3:31">
+    <row r="181" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C181" s="3">
         <v>341</v>
       </c>
@@ -18627,7 +18679,7 @@
       <c r="AA181" s="6"/>
       <c r="AE181" s="6"/>
     </row>
-    <row r="182" spans="3:31">
+    <row r="182" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C182" s="3">
         <v>341</v>
       </c>
@@ -18700,7 +18752,7 @@
       <c r="AA182" s="6"/>
       <c r="AE182" s="6"/>
     </row>
-    <row r="183" spans="3:31">
+    <row r="183" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C183" s="3">
         <v>480</v>
       </c>
@@ -18773,7 +18825,7 @@
       <c r="AA183" s="6"/>
       <c r="AE183" s="6"/>
     </row>
-    <row r="184" spans="3:31">
+    <row r="184" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C184" s="3">
         <v>240</v>
       </c>
@@ -18846,7 +18898,7 @@
       <c r="AA184" s="6"/>
       <c r="AE184" s="6"/>
     </row>
-    <row r="185" spans="3:31">
+    <row r="185" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C185" s="3">
         <v>120</v>
       </c>
@@ -18919,7 +18971,7 @@
       <c r="AA185" s="6"/>
       <c r="AE185" s="6"/>
     </row>
-    <row r="186" spans="3:31">
+    <row r="186" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C186" s="3">
         <v>60</v>
       </c>
@@ -18992,7 +19044,7 @@
       <c r="AA186" s="6"/>
       <c r="AE186" s="6"/>
     </row>
-    <row r="187" spans="3:31">
+    <row r="187" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C187" s="3">
         <v>108</v>
       </c>
@@ -19065,7 +19117,7 @@
       <c r="AA187" s="6"/>
       <c r="AE187" s="6"/>
     </row>
-    <row r="188" spans="3:31">
+    <row r="188" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C188" s="3">
         <v>54</v>
       </c>
@@ -19138,7 +19190,7 @@
       <c r="AA188" s="6"/>
       <c r="AE188" s="6"/>
     </row>
-    <row r="189" spans="3:31">
+    <row r="189" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C189" s="3">
         <v>27</v>
       </c>
@@ -19211,7 +19263,7 @@
       <c r="AA189" s="6"/>
       <c r="AE189" s="6"/>
     </row>
-    <row r="190" spans="3:31">
+    <row r="190" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C190" s="3">
         <v>14</v>
       </c>
@@ -19284,7 +19336,7 @@
       <c r="AA190" s="6"/>
       <c r="AE190" s="6"/>
     </row>
-    <row r="191" spans="3:31">
+    <row r="191" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C191" s="3">
         <v>7</v>
       </c>
@@ -19357,7 +19409,7 @@
       <c r="AA191" s="6"/>
       <c r="AE191" s="6"/>
     </row>
-    <row r="192" spans="3:31">
+    <row r="192" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C192" s="3">
         <v>224</v>
       </c>
@@ -19430,7 +19482,7 @@
       <c r="AA192" s="6"/>
       <c r="AE192" s="6"/>
     </row>
-    <row r="193" spans="3:31">
+    <row r="193" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C193" s="3">
         <v>112</v>
       </c>
@@ -19503,7 +19555,7 @@
       <c r="AA193" s="6"/>
       <c r="AE193" s="6"/>
     </row>
-    <row r="194" spans="3:31">
+    <row r="194" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C194" s="3">
         <f>112/2</f>
         <v>56</v>
@@ -19577,7 +19629,7 @@
       <c r="AA194" s="6"/>
       <c r="AE194" s="6"/>
     </row>
-    <row r="195" spans="3:31">
+    <row r="195" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C195" s="3">
         <f>56/2</f>
         <v>28</v>
@@ -19651,7 +19703,7 @@
       <c r="AA195" s="6"/>
       <c r="AE195" s="6"/>
     </row>
-    <row r="196" spans="3:31">
+    <row r="196" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C196" s="3">
         <v>14</v>
       </c>
@@ -19724,7 +19776,7 @@
       <c r="AA196" s="6"/>
       <c r="AE196" s="6"/>
     </row>
-    <row r="197" spans="3:31">
+    <row r="197" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C197" s="3">
         <v>7</v>
       </c>
@@ -19797,7 +19849,7 @@
       <c r="AA197" s="6"/>
       <c r="AE197" s="6"/>
     </row>
-    <row r="198" spans="3:31">
+    <row r="198" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C198" s="3">
         <v>224</v>
       </c>
@@ -19870,7 +19922,7 @@
       <c r="AA198" s="6"/>
       <c r="AE198" s="6"/>
     </row>
-    <row r="199" spans="3:31">
+    <row r="199" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C199" s="3">
         <v>112</v>
       </c>
@@ -19943,7 +19995,7 @@
       <c r="AA199" s="6"/>
       <c r="AE199" s="6"/>
     </row>
-    <row r="200" spans="3:31">
+    <row r="200" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C200" s="3">
         <f>112/2</f>
         <v>56</v>
@@ -20017,7 +20069,7 @@
       <c r="AA200" s="6"/>
       <c r="AE200" s="6"/>
     </row>
-    <row r="201" spans="3:31">
+    <row r="201" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C201" s="3">
         <f>56/2</f>
         <v>28</v>
@@ -20091,7 +20143,7 @@
       <c r="AA201" s="6"/>
       <c r="AE201" s="6"/>
     </row>
-    <row r="202" spans="3:31">
+    <row r="202" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C202" s="3">
         <v>14</v>
       </c>
@@ -20164,7 +20216,7 @@
       <c r="AA202" s="6"/>
       <c r="AE202" s="6"/>
     </row>
-    <row r="203" spans="3:31">
+    <row r="203" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C203" s="3">
         <v>7</v>
       </c>
@@ -20237,7 +20289,7 @@
       <c r="AA203" s="6"/>
       <c r="AE203" s="6"/>
     </row>
-    <row r="204" spans="3:31">
+    <row r="204" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C204" s="3">
         <v>224</v>
       </c>
@@ -20310,7 +20362,7 @@
       <c r="AA204" s="6"/>
       <c r="AE204" s="6"/>
     </row>
-    <row r="205" spans="3:31">
+    <row r="205" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C205" s="3">
         <v>28</v>
       </c>
@@ -20383,7 +20435,7 @@
       <c r="AA205" s="6"/>
       <c r="AE205" s="6"/>
     </row>
-    <row r="206" spans="3:31">
+    <row r="206" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C206" s="3">
         <v>28</v>
       </c>
@@ -20456,7 +20508,7 @@
       <c r="AA206" s="6"/>
       <c r="AE206" s="6"/>
     </row>
-    <row r="207" spans="3:31">
+    <row r="207" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C207" s="3">
         <v>14</v>
       </c>
@@ -20529,7 +20581,7 @@
       <c r="AA207" s="6"/>
       <c r="AE207" s="6"/>
     </row>
-    <row r="208" spans="3:31">
+    <row r="208" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C208" s="3">
         <v>14</v>
       </c>
@@ -20602,7 +20654,7 @@
       <c r="AA208" s="6"/>
       <c r="AE208" s="6"/>
     </row>
-    <row r="209" spans="2:31">
+    <row r="209" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C209" s="3">
         <v>7</v>
       </c>
@@ -20675,7 +20727,7 @@
       <c r="AA209" s="6"/>
       <c r="AE209" s="6"/>
     </row>
-    <row r="210" spans="2:31">
+    <row r="210" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C210" s="3">
         <v>7</v>
       </c>
@@ -20748,7 +20800,7 @@
       <c r="AA210" s="6"/>
       <c r="AE210" s="6"/>
     </row>
-    <row r="211" spans="2:31">
+    <row r="211" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C211" s="3">
         <v>56</v>
       </c>
@@ -20819,7 +20871,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="212" spans="2:31">
+    <row r="212" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C212" s="3">
         <v>56</v>
       </c>
@@ -20890,7 +20942,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="213" spans="2:31">
+    <row r="213" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C213" s="3">
         <v>28</v>
       </c>
@@ -20961,7 +21013,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="214" spans="2:31">
+    <row r="214" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B214" s="7"/>
       <c r="C214" s="7">
         <v>28</v>
@@ -21033,7 +21085,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="215" spans="2:31">
+    <row r="215" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C215" s="3">
         <v>14</v>
       </c>
@@ -21104,7 +21156,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="216" spans="2:31">
+    <row r="216" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C216" s="3">
         <v>14</v>
       </c>
@@ -21175,7 +21227,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="217" spans="2:31">
+    <row r="217" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B217" s="7"/>
       <c r="C217" s="7">
         <v>14</v>
@@ -21247,7 +21299,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="218" spans="2:31">
+    <row r="218" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B218" s="7"/>
       <c r="C218" s="3">
         <v>7</v>
@@ -21319,7 +21371,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="219" spans="2:31">
+    <row r="219" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B219" s="7"/>
       <c r="C219" s="3">
         <v>7</v>
@@ -21391,7 +21443,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="220" spans="2:31">
+    <row r="220" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C220" s="3">
         <v>56</v>
       </c>
@@ -21462,7 +21514,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="221" spans="2:31">
+    <row r="221" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C221" s="3">
         <v>56</v>
       </c>
@@ -21533,7 +21585,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="222" spans="2:31">
+    <row r="222" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C222" s="3">
         <v>28</v>
       </c>
@@ -21604,7 +21656,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="223" spans="2:31">
+    <row r="223" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C223" s="7">
         <v>28</v>
       </c>
@@ -21675,7 +21727,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="224" spans="2:31">
+    <row r="224" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B224" s="7"/>
       <c r="C224" s="3">
         <v>14</v>
@@ -21747,7 +21799,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="225" spans="1:24">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C225" s="3">
         <v>14</v>
       </c>
@@ -21818,7 +21870,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="226" spans="1:24">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C226" s="7">
         <v>14</v>
       </c>
@@ -21889,7 +21941,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="227" spans="1:24">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B227" s="7"/>
       <c r="C227" s="3">
         <v>7</v>
@@ -21961,7 +22013,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="228" spans="1:24">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B228" s="7"/>
       <c r="C228" s="3">
         <v>7</v>
@@ -22033,7 +22085,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="229" spans="1:24">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B229" s="7"/>
       <c r="C229" s="11">
         <v>700</v>
@@ -22105,7 +22157,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="230" spans="1:24">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B230" s="7"/>
       <c r="C230" s="3">
         <v>350</v>
@@ -22177,7 +22229,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="231" spans="1:24">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B231" s="7"/>
       <c r="C231" s="3">
         <v>350</v>
@@ -22249,7 +22301,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="232" spans="1:24">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B232" s="7"/>
       <c r="C232" s="3">
         <v>175</v>
@@ -22321,7 +22373,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="233" spans="1:24">
+    <row r="233" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B233" s="7"/>
       <c r="C233" s="3">
         <v>175</v>
@@ -22393,7 +22445,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="234" spans="1:24">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B234" s="7"/>
       <c r="C234" s="3">
         <v>84</v>
@@ -22465,7 +22517,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="235" spans="1:24">
+    <row r="235" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B235" s="7"/>
       <c r="C235" s="3">
         <v>84</v>
@@ -22537,7 +22589,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="236" spans="1:24">
+    <row r="236" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B236" s="7"/>
       <c r="C236" s="3">
         <v>42</v>
@@ -22609,7 +22661,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="237" spans="1:24">
+    <row r="237" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A237" s="7"/>
       <c r="B237" s="7"/>
       <c r="C237" s="3">
@@ -22682,7 +22734,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="238" spans="1:24">
+    <row r="238" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A238" s="7"/>
       <c r="B238" s="7"/>
       <c r="C238" s="3">
@@ -22755,7 +22807,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="239" spans="1:24">
+    <row r="239" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A239" s="7"/>
       <c r="B239" s="7"/>
       <c r="C239" s="3">
@@ -22828,7 +22880,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="240" spans="1:24">
+    <row r="240" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A240" s="7"/>
       <c r="B240" s="7"/>
       <c r="C240" s="3">
@@ -22901,7 +22953,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="241" spans="1:24">
+    <row r="241" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A241" s="7"/>
       <c r="B241" s="7"/>
       <c r="C241" s="7">
@@ -22974,7 +23026,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="242" spans="1:24">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A242" s="7"/>
       <c r="B242" s="7"/>
       <c r="C242" s="7">
@@ -23047,7 +23099,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="243" spans="1:24">
+    <row r="243" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A243" s="7"/>
       <c r="B243" s="7"/>
       <c r="C243" s="7">
@@ -23120,7 +23172,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="244" spans="1:24">
+    <row r="244" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A244" s="7"/>
       <c r="B244" s="7"/>
       <c r="C244" s="7">
@@ -23193,7 +23245,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="245" spans="1:24">
+    <row r="245" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A245" s="7"/>
       <c r="B245" s="7"/>
       <c r="C245" s="7">
@@ -23266,7 +23318,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="246" spans="1:24">
+    <row r="246" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A246" s="7"/>
       <c r="B246" s="7"/>
       <c r="C246" s="7">
@@ -23339,7 +23391,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="247" spans="1:24">
+    <row r="247" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A247" s="7"/>
       <c r="B247" s="7"/>
       <c r="C247" s="7">
@@ -23412,7 +23464,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="248" spans="1:24">
+    <row r="248" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A248" s="7"/>
       <c r="B248" s="7"/>
       <c r="C248" s="7">
@@ -23485,7 +23537,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="249" spans="1:24">
+    <row r="249" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A249" s="7"/>
       <c r="B249" s="7"/>
       <c r="C249" s="7">
@@ -23558,7 +23610,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="250" spans="1:24">
+    <row r="250" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A250" s="7"/>
       <c r="B250" s="7"/>
       <c r="C250" s="7">
@@ -23631,7 +23683,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="251" spans="1:24">
+    <row r="251" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A251" s="7"/>
       <c r="B251" s="7"/>
       <c r="C251" s="7">
@@ -23704,7 +23756,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="252" spans="1:24">
+    <row r="252" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A252" s="7"/>
       <c r="B252" s="7"/>
       <c r="C252" s="7">
@@ -23777,7 +23829,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="253" spans="1:24">
+    <row r="253" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A253" s="7"/>
       <c r="B253" s="7"/>
       <c r="C253" s="3">
@@ -23850,7 +23902,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="254" spans="1:24">
+    <row r="254" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A254" s="7"/>
       <c r="B254" s="7"/>
       <c r="C254" s="3">
@@ -23923,7 +23975,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="255" spans="1:24">
+    <row r="255" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A255" s="7"/>
       <c r="B255" s="7"/>
       <c r="C255" s="3">
@@ -23996,7 +24048,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="256" spans="1:24">
+    <row r="256" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A256" s="7"/>
       <c r="B256" s="7"/>
       <c r="C256" s="3">
@@ -24069,7 +24121,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="257" spans="1:24">
+    <row r="257" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A257" s="7"/>
       <c r="B257" s="7"/>
       <c r="C257" s="7">
@@ -24142,7 +24194,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="258" spans="1:24">
+    <row r="258" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A258" s="7"/>
       <c r="B258" s="7"/>
       <c r="C258" s="7">
@@ -24215,7 +24267,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="259" spans="1:24">
+    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A259" s="7"/>
       <c r="B259" s="7"/>
       <c r="C259" s="7">
@@ -24288,7 +24340,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="260" spans="1:24">
+    <row r="260" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A260" s="7"/>
       <c r="B260" s="7"/>
       <c r="C260" s="7">
@@ -24361,7 +24413,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="261" spans="1:24">
+    <row r="261" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A261" s="7"/>
       <c r="B261" s="7"/>
       <c r="C261" s="7">
@@ -24434,7 +24486,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="262" spans="1:24">
+    <row r="262" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A262" s="7"/>
       <c r="B262" s="7"/>
       <c r="C262" s="7">
@@ -24507,7 +24559,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="263" spans="1:24">
+    <row r="263" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A263" s="7"/>
       <c r="B263" s="7"/>
       <c r="C263" s="7">
@@ -24580,7 +24632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="264" spans="1:24">
+    <row r="264" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A264" s="7"/>
       <c r="B264" s="7"/>
       <c r="C264" s="7">
@@ -24653,7 +24705,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="265" spans="1:24">
+    <row r="265" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A265" s="7"/>
       <c r="B265" s="7"/>
       <c r="C265" s="7">
@@ -24726,7 +24778,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="266" spans="1:24">
+    <row r="266" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A266" s="7"/>
       <c r="B266" s="7"/>
       <c r="C266" s="7">
@@ -24799,7 +24851,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="267" spans="1:24">
+    <row r="267" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A267" s="7"/>
       <c r="B267" s="7"/>
       <c r="C267" s="7">
@@ -24872,7 +24924,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="268" spans="1:24">
+    <row r="268" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A268" s="7"/>
       <c r="B268" s="7"/>
       <c r="C268" s="7">
@@ -24945,32 +24997,32 @@
         <v>31</v>
       </c>
     </row>
-    <row r="269" spans="1:24">
+    <row r="269" spans="1:24" x14ac:dyDescent="0.2">
       <c r="I269" s="7"/>
     </row>
-    <row r="270" spans="1:24">
+    <row r="270" spans="1:24" x14ac:dyDescent="0.2">
       <c r="I270" s="7"/>
       <c r="T270" s="6"/>
     </row>
-    <row r="271" spans="1:24">
+    <row r="271" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D271" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I271" s="7"/>
     </row>
-    <row r="272" spans="1:24">
+    <row r="272" spans="1:24" x14ac:dyDescent="0.2">
       <c r="I272" s="7"/>
     </row>
-    <row r="273" spans="1:12">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I273" s="7"/>
     </row>
-    <row r="274" spans="1:12">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I274" s="7"/>
     </row>
-    <row r="277" spans="1:12">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L277" s="8"/>
     </row>
-    <row r="278" spans="1:12">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
         <v>35</v>
       </c>
@@ -24996,7 +25048,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="280" spans="1:12">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C280" s="3">
         <v>1760</v>
       </c>
@@ -25021,7 +25073,7 @@
         <v>1.2964351464435147</v>
       </c>
     </row>
-    <row r="281" spans="1:12">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C281" s="3">
         <v>1760</v>
       </c>
@@ -25046,7 +25098,7 @@
         <v>0.65506976744186052</v>
       </c>
     </row>
-    <row r="282" spans="1:12">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C282" s="3">
         <v>1760</v>
       </c>
@@ -25071,7 +25123,7 @@
         <v>1.5249363272839127</v>
       </c>
     </row>
-    <row r="283" spans="1:12">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C283" s="3">
         <v>1760</v>
       </c>
@@ -25096,7 +25148,7 @@
         <v>3.0073205944798302</v>
       </c>
     </row>
-    <row r="284" spans="1:12">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C284" s="3">
         <v>2048</v>
       </c>
@@ -25121,7 +25173,7 @@
         <v>1.4854004868333701</v>
       </c>
     </row>
-    <row r="285" spans="1:12">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C285" s="3">
         <v>2048</v>
       </c>
@@ -25146,7 +25198,7 @@
         <v>0.77480519420557503</v>
       </c>
     </row>
-    <row r="286" spans="1:12">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C286" s="3">
         <v>2048</v>
       </c>
@@ -25171,7 +25223,7 @@
         <v>1.8226935849568937</v>
       </c>
     </row>
-    <row r="287" spans="1:12">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C287" s="3">
         <v>2048</v>
       </c>
@@ -25196,7 +25248,7 @@
         <v>3.6083993011691979</v>
       </c>
     </row>
-    <row r="288" spans="1:12">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C288" s="3">
         <v>2560</v>
       </c>
@@ -25221,7 +25273,7 @@
         <v>1.7943213002566296</v>
       </c>
     </row>
-    <row r="289" spans="1:10">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C289" s="3">
         <v>2560</v>
       </c>
@@ -25246,7 +25298,7 @@
         <v>0.98611329979784679</v>
       </c>
     </row>
-    <row r="290" spans="1:10">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C290" s="3">
         <v>2560</v>
       </c>
@@ -25271,7 +25323,7 @@
         <v>2.3537693990910622</v>
       </c>
     </row>
-    <row r="291" spans="1:10">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C291" s="3">
         <v>2560</v>
       </c>
@@ -25296,7 +25348,7 @@
         <v>4.6485934954845147</v>
       </c>
     </row>
-    <row r="295" spans="1:10">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
         <v>42</v>
       </c>
@@ -25322,7 +25374,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="296" spans="1:10">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C296" s="3">
         <v>512</v>
       </c>
@@ -25347,7 +25399,7 @@
         <v>0.65948176100628919</v>
       </c>
     </row>
-    <row r="297" spans="1:10">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C297" s="3">
         <v>512</v>
       </c>
@@ -25372,7 +25424,7 @@
         <v>0.23606607570001406</v>
       </c>
     </row>
-    <row r="298" spans="1:10">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C298" s="3">
         <v>512</v>
       </c>
@@ -25397,7 +25449,7 @@
         <v>0.51982079008520521</v>
       </c>
     </row>
-    <row r="299" spans="1:10">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C299" s="3">
         <v>512</v>
       </c>
@@ -25422,7 +25474,7 @@
         <v>1.00915584962406</v>
       </c>
     </row>
-    <row r="300" spans="1:10">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C300" s="3">
         <v>1024</v>
       </c>
@@ -25447,7 +25499,7 @@
         <v>1.1184810666666667</v>
       </c>
     </row>
-    <row r="301" spans="1:10">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C301" s="3">
         <v>1024</v>
       </c>
@@ -25472,7 +25524,7 @@
         <v>0.41427781961849491</v>
       </c>
     </row>
-    <row r="302" spans="1:10">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C302" s="3">
         <v>1024</v>
       </c>
@@ -25497,7 +25549,7 @@
         <v>0.99046364105970031</v>
       </c>
     </row>
-    <row r="303" spans="1:10">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C303" s="3">
         <v>1024</v>
       </c>
@@ -25522,7 +25574,7 @@
         <v>1.9737901176470589</v>
       </c>
     </row>
-    <row r="304" spans="1:10">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C304" s="3">
         <v>2048</v>
       </c>
@@ -25547,7 +25599,7 @@
         <v>1.5940347743467933</v>
       </c>
     </row>
-    <row r="305" spans="1:10">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C305" s="3">
         <v>2048</v>
       </c>
@@ -25572,7 +25624,7 @@
         <v>0.84714695616498881</v>
       </c>
     </row>
-    <row r="306" spans="1:10">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C306" s="3">
         <v>2048</v>
       </c>
@@ -25597,7 +25649,7 @@
         <v>2.0648087073574093</v>
       </c>
     </row>
-    <row r="307" spans="1:10">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C307" s="3">
         <v>2048</v>
       </c>
@@ -25622,7 +25674,7 @@
         <v>4.02935238667067</v>
       </c>
     </row>
-    <row r="308" spans="1:10">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C308" s="3">
         <v>4096</v>
       </c>
@@ -25647,7 +25699,7 @@
         <v>1.5250281558913761</v>
       </c>
     </row>
-    <row r="309" spans="1:10">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C309" s="3">
         <v>4096</v>
       </c>
@@ -25672,7 +25724,7 @@
         <v>1.594413494891898</v>
       </c>
     </row>
-    <row r="310" spans="1:10">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C310" s="3">
         <v>4096</v>
       </c>
@@ -25697,7 +25749,7 @@
         <v>2.9060498369351935</v>
       </c>
     </row>
-    <row r="311" spans="1:10">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C311" s="3">
         <v>4096</v>
       </c>
@@ -25722,7 +25774,7 @@
         <v>4.8608147398680384</v>
       </c>
     </row>
-    <row r="312" spans="1:10">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C312" s="3">
         <v>1536</v>
       </c>
@@ -25747,7 +25799,7 @@
         <v>0.90459468008626898</v>
       </c>
     </row>
-    <row r="313" spans="1:10">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C313" s="3">
         <v>1536</v>
       </c>
@@ -25772,7 +25824,7 @@
         <v>1.6714073942882444</v>
       </c>
     </row>
-    <row r="314" spans="1:10">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C314" s="3">
         <v>1536</v>
       </c>
@@ -25797,7 +25849,7 @@
         <v>6.2993301627033791</v>
       </c>
     </row>
-    <row r="315" spans="1:10">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C315" s="3">
         <v>256</v>
       </c>
@@ -25822,7 +25874,7 @@
         <v>0.26143594431747352</v>
       </c>
     </row>
-    <row r="316" spans="1:10">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C316" s="3">
         <v>256</v>
       </c>
@@ -25847,7 +25899,7 @@
         <v>0.10991842760428042</v>
       </c>
     </row>
-    <row r="317" spans="1:10">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C317" s="3">
         <v>256</v>
       </c>
@@ -25872,15 +25924,15 @@
         <v>0.23543665450463092</v>
       </c>
     </row>
-    <row r="318" spans="1:10">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G318" s="6"/>
       <c r="H318" s="6"/>
     </row>
-    <row r="319" spans="1:10">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G319" s="6"/>
       <c r="H319" s="6"/>
     </row>
-    <row r="320" spans="1:10">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
         <v>63</v>
       </c>
@@ -25906,7 +25958,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="321" spans="3:10">
+    <row r="321" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C321" s="3">
         <v>2816</v>
       </c>
@@ -25931,7 +25983,7 @@
         <v>1.1708184804675483</v>
       </c>
     </row>
-    <row r="322" spans="3:10">
+    <row r="322" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C322" s="3">
         <v>2816</v>
       </c>
@@ -25956,7 +26008,7 @@
         <v>1.1697570276125937</v>
       </c>
     </row>
-    <row r="323" spans="3:10">
+    <row r="323" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C323" s="3">
         <v>2816</v>
       </c>
@@ -25981,7 +26033,7 @@
         <v>1.1660338322601198</v>
       </c>
     </row>
-    <row r="324" spans="3:10">
+    <row r="324" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C324" s="3">
         <v>2816</v>
       </c>
@@ -26006,7 +26058,7 @@
         <v>1.1632736395371641</v>
       </c>
     </row>
-    <row r="325" spans="3:10">
+    <row r="325" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C325" s="3">
         <v>2048</v>
       </c>
@@ -26031,7 +26083,7 @@
         <v>0.84823080515106797</v>
       </c>
     </row>
-    <row r="326" spans="3:10">
+    <row r="326" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C326" s="3">
         <v>2048</v>
       </c>
@@ -26056,7 +26108,7 @@
         <v>0.84690878599132302</v>
       </c>
     </row>
-    <row r="327" spans="3:10">
+    <row r="327" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C327" s="3">
         <v>2048</v>
       </c>
@@ -26081,7 +26133,7 @@
         <v>0.84436323373987154</v>
       </c>
     </row>
-    <row r="328" spans="3:10">
+    <row r="328" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C328" s="3">
         <v>2048</v>
       </c>
@@ -26106,7 +26158,7 @@
         <v>0.83895894025036355</v>
       </c>
     </row>
-    <row r="329" spans="3:10">
+    <row r="329" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C329" s="3">
         <v>1536</v>
       </c>
@@ -26131,7 +26183,7 @@
         <v>0.62939502691807481</v>
       </c>
     </row>
-    <row r="330" spans="3:10">
+    <row r="330" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C330" s="3">
         <v>1536</v>
       </c>
@@ -26156,7 +26208,7 @@
         <v>0.62784224600412852</v>
       </c>
     </row>
-    <row r="331" spans="3:10">
+    <row r="331" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C331" s="3">
         <v>1536</v>
       </c>
@@ -26181,7 +26233,7 @@
         <v>0.62479747240500361</v>
       </c>
     </row>
-    <row r="332" spans="3:10">
+    <row r="332" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C332" s="3">
         <v>1536</v>
       </c>
@@ -26206,7 +26258,7 @@
         <v>0.61923888170533803</v>
       </c>
     </row>
-    <row r="333" spans="3:10">
+    <row r="333" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C333" s="3">
         <v>2560</v>
       </c>
@@ -26231,7 +26283,7 @@
         <v>1.0631506136344688</v>
       </c>
     </row>
-    <row r="334" spans="3:10">
+    <row r="334" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C334" s="3">
         <v>2560</v>
       </c>
@@ -26256,7 +26308,7 @@
         <v>1.0619817496193618</v>
       </c>
     </row>
-    <row r="335" spans="3:10">
+    <row r="335" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C335" s="3">
         <v>2560</v>
       </c>
@@ -26281,7 +26333,7 @@
         <v>1.0584240477509628</v>
       </c>
     </row>
-    <row r="336" spans="3:10">
+    <row r="336" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C336" s="3">
         <v>2560</v>
       </c>
@@ -26306,7 +26358,7 @@
         <v>1.0554950428163228</v>
       </c>
     </row>
-    <row r="337" spans="3:10">
+    <row r="337" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C337" s="3">
         <v>512</v>
       </c>
@@ -26331,7 +26383,7 @@
         <v>0.22982487671232876</v>
       </c>
     </row>
-    <row r="338" spans="3:10">
+    <row r="338" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C338" s="3">
         <v>1024</v>
       </c>
@@ -26356,7 +26408,7 @@
         <v>0.41493469780887904</v>
       </c>
     </row>
-    <row r="339" spans="3:10">
+    <row r="339" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C339" s="3">
         <v>1024</v>
       </c>
@@ -26384,11 +26436,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -26400,12 +26447,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="10.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -26413,7 +26460,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
@@ -26421,7 +26468,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
@@ -26429,7 +26476,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>49</v>
       </c>
@@ -26437,7 +26484,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>50</v>
       </c>
@@ -26445,13 +26492,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>52</v>
       </c>
@@ -26459,7 +26506,7 @@
         <v>375.66</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
@@ -26467,7 +26514,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>55</v>
       </c>
@@ -26475,27 +26522,22 @@
         <v>3502</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/results/train/DeepBench_NV_P100.xlsx
+++ b/results/train/DeepBench_NV_P100.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patwarymostofa/Documents/mostofa/deepbench-internal/DeepBench-internal/results/train/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharan/Desktop/svail_mnt/DeepBench-ext/results/train/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B80036C8-D1D3-9B4A-BF6B-39AF7D795646}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32600" windowHeight="18260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="36020" windowHeight="19620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results FP32" sheetId="3" r:id="rId1"/>
     <sheet name="Results - Psuedo FP16" sheetId="5" r:id="rId2"/>
     <sheet name="Specs" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="90">
   <si>
     <t>Dense Matrix Multiplication</t>
   </si>
@@ -270,11 +271,41 @@
   <si>
     <t>Baidu RingAllReduce</t>
   </si>
+  <si>
+    <t>Time Backward wrt inputs (msec)</t>
+  </si>
+  <si>
+    <t>Time Backward wrt weights (msec)</t>
+  </si>
+  <si>
+    <t>TERAFLOPS BWD Inputs</t>
+  </si>
+  <si>
+    <t>TERAFLOPS BWD Params</t>
+  </si>
+  <si>
+    <t>Total Time</t>
+  </si>
+  <si>
+    <t>DeepSpeech</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Machine Translation</t>
+  </si>
+  <si>
+    <t>Language Modelling</t>
+  </si>
+  <si>
+    <t>Speaker ID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -334,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -369,6 +400,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,25 +683,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
-      <selection activeCell="H376" sqref="H376"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" style="3" customWidth="1"/>
-    <col min="2" max="3" width="11" style="3"/>
+    <col min="2" max="2" width="18.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11" style="3"/>
     <col min="4" max="4" width="22" style="3" customWidth="1"/>
     <col min="5" max="6" width="11" style="3"/>
     <col min="7" max="7" width="22.5" style="3" customWidth="1"/>
     <col min="8" max="8" width="32.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="26" style="3" customWidth="1"/>
+    <col min="9" max="9" width="32" style="3" customWidth="1"/>
     <col min="10" max="10" width="20" style="3" customWidth="1"/>
-    <col min="11" max="11" width="18.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="19.83203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="21.1640625" style="3" customWidth="1"/>
     <col min="13" max="13" width="18" style="3" customWidth="1"/>
     <col min="14" max="14" width="20.83203125" style="3" customWidth="1"/>
     <col min="15" max="19" width="11" style="3"/>
@@ -11814,1421 +11850,2388 @@
         <v>34</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L277" s="8"/>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A278" s="3" t="s">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A278" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C278" s="3" t="s">
+      <c r="B278" s="12"/>
+      <c r="C278" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D278" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E278" s="3" t="s">
+      <c r="D278" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E278" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G278" s="3" t="s">
+      <c r="F278" s="12"/>
+      <c r="G278" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H278" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I278" s="3" t="s">
+      <c r="H278" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I278" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J278" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="J278" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C280" s="3">
+      <c r="K278" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="L278" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="M278" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A279" s="12"/>
+      <c r="B279" s="12"/>
+      <c r="C279" s="12"/>
+      <c r="D279" s="12"/>
+      <c r="E279" s="12"/>
+      <c r="F279" s="12"/>
+      <c r="G279" s="12"/>
+      <c r="H279" s="12"/>
+      <c r="I279" s="12"/>
+      <c r="J279" s="12"/>
+      <c r="K279" s="12"/>
+      <c r="L279" s="12"/>
+      <c r="M279" s="12"/>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A280" s="12"/>
+      <c r="B280" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C280" s="12">
         <v>1760</v>
       </c>
-      <c r="D280" s="3">
+      <c r="D280" s="12">
         <v>16</v>
       </c>
-      <c r="E280" s="3">
+      <c r="E280" s="12">
         <v>50</v>
       </c>
-      <c r="G280" s="6">
-        <v>4.1890000000000001</v>
-      </c>
-      <c r="H280" s="6">
-        <v>3.9610000000000003</v>
-      </c>
-      <c r="I280" s="6">
-        <f t="shared" ref="I280:I291" si="29">(2*$E280*$D280*$C280*$C280+$E280*$D280*$C280)/(G280/1000)/10^12</f>
-        <v>1.183472905227978</v>
-      </c>
-      <c r="J280" s="6">
-        <f t="shared" ref="J280:J291" si="30">(2*$E280*$D280*$C280*$C280+$E280*$D280*$C280)/(H280/1000)/10^12</f>
-        <v>1.2515950517546075</v>
-      </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C281" s="3">
+      <c r="F280" s="12"/>
+      <c r="G280" s="13">
+        <v>4.734</v>
+      </c>
+      <c r="H280" s="13">
+        <v>4.093</v>
+      </c>
+      <c r="I280" s="13">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="J280" s="13">
+        <f>(2*$E280*$D280*$C280*$C280+$E280*$D280*$C280)/(G280/1000)/10^12</f>
+        <v>1.0472260245035909</v>
+      </c>
+      <c r="K280" s="13">
+        <f>(2*$E280*$D280*$C280*$C280+$E280*$D280*$C280)/(H280/1000)/10^12</f>
+        <v>1.2112308819936477</v>
+      </c>
+      <c r="L280" s="13">
+        <f>(2*$E280*$D280*$C280*$C280+$E280*$D280*$C280)/(I280/1000)/10^12</f>
+        <v>6.0680146878824983</v>
+      </c>
+      <c r="M280" s="14">
+        <f>G280+H280+I280</f>
+        <v>9.6440000000000001</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A281" s="12"/>
+      <c r="B281" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C281" s="12">
         <v>1760</v>
       </c>
-      <c r="D281" s="3">
+      <c r="D281" s="12">
         <v>32</v>
       </c>
-      <c r="E281" s="3">
+      <c r="E281" s="12">
         <v>50</v>
       </c>
-      <c r="G281" s="6">
-        <v>13.879</v>
-      </c>
-      <c r="H281" s="6">
-        <v>13.157</v>
-      </c>
-      <c r="I281" s="6">
+      <c r="F281" s="12"/>
+      <c r="G281" s="13">
+        <v>14.019</v>
+      </c>
+      <c r="H281" s="13">
+        <v>13.459</v>
+      </c>
+      <c r="I281" s="13">
+        <v>1.466</v>
+      </c>
+      <c r="J281" s="13">
+        <f t="shared" ref="J281:L291" si="29">(2*$E281*$D281*$C281*$C281+$E281*$D281*$C281)/(G281/1000)/10^12</f>
+        <v>0.70726414152221984</v>
+      </c>
+      <c r="K281" s="13">
         <f t="shared" si="29"/>
-        <v>0.71439844369190875</v>
-      </c>
-      <c r="J281" s="6">
+        <v>0.73669187904004751</v>
+      </c>
+      <c r="L281" s="13">
+        <f t="shared" si="29"/>
+        <v>6.7633942701227836</v>
+      </c>
+      <c r="M281" s="14">
+        <f t="shared" ref="M281:M291" si="30">G281+H281+I281</f>
+        <v>28.944000000000003</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A282" s="12"/>
+      <c r="B282" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C282" s="12">
+        <v>1760</v>
+      </c>
+      <c r="D282" s="12">
+        <v>64</v>
+      </c>
+      <c r="E282" s="12">
+        <v>50</v>
+      </c>
+      <c r="F282" s="12"/>
+      <c r="G282" s="13">
+        <v>6.9480000000000004</v>
+      </c>
+      <c r="H282" s="13">
+        <v>6.39</v>
+      </c>
+      <c r="I282" s="13">
+        <v>2.5950000000000002</v>
+      </c>
+      <c r="J282" s="13">
+        <f t="shared" si="29"/>
+        <v>2.8540978698906159</v>
+      </c>
+      <c r="K282" s="13">
+        <f t="shared" si="29"/>
+        <v>3.1033289514866982</v>
+      </c>
+      <c r="L282" s="13">
+        <f t="shared" si="29"/>
+        <v>7.6417233140655103</v>
+      </c>
+      <c r="M282" s="14">
         <f t="shared" si="30"/>
-        <v>0.75360158090750173</v>
-      </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C282" s="3">
+        <v>15.933000000000002</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A283" s="12"/>
+      <c r="B283" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C283" s="12">
         <v>1760</v>
       </c>
-      <c r="D282" s="3">
+      <c r="D283" s="12">
+        <v>128</v>
+      </c>
+      <c r="E283" s="12">
+        <v>50</v>
+      </c>
+      <c r="F283" s="12"/>
+      <c r="G283" s="13">
+        <v>8.7750000000000004</v>
+      </c>
+      <c r="H283" s="13">
+        <v>8.4749999999999996</v>
+      </c>
+      <c r="I283" s="13">
+        <v>4.9859999999999998</v>
+      </c>
+      <c r="J283" s="13">
+        <f t="shared" si="29"/>
+        <v>4.5197201139601146</v>
+      </c>
+      <c r="K283" s="13">
+        <f t="shared" si="29"/>
+        <v>4.6797102064896761</v>
+      </c>
+      <c r="L283" s="13">
+        <f t="shared" si="29"/>
+        <v>7.9543810669875654</v>
+      </c>
+      <c r="M283" s="14">
+        <f t="shared" si="30"/>
+        <v>22.236000000000001</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A284" s="12"/>
+      <c r="B284" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C284" s="12">
+        <v>2048</v>
+      </c>
+      <c r="D284" s="12">
+        <v>16</v>
+      </c>
+      <c r="E284" s="12">
+        <v>50</v>
+      </c>
+      <c r="F284" s="12"/>
+      <c r="G284" s="13">
+        <v>6.056</v>
+      </c>
+      <c r="H284" s="13">
+        <v>5.3310000000000004</v>
+      </c>
+      <c r="I284" s="13">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="J284" s="13">
+        <f t="shared" si="29"/>
+        <v>1.1084089828269486</v>
+      </c>
+      <c r="K284" s="13">
+        <f t="shared" si="29"/>
+        <v>1.2591492778090412</v>
+      </c>
+      <c r="L284" s="13">
+        <f t="shared" si="29"/>
+        <v>6.561607820136854</v>
+      </c>
+      <c r="M284" s="14">
+        <f t="shared" si="30"/>
+        <v>12.41</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A285" s="12"/>
+      <c r="B285" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C285" s="12">
+        <v>2048</v>
+      </c>
+      <c r="D285" s="12">
+        <v>32</v>
+      </c>
+      <c r="E285" s="12">
+        <v>50</v>
+      </c>
+      <c r="F285" s="12"/>
+      <c r="G285" s="13">
+        <v>15.961</v>
+      </c>
+      <c r="H285" s="13">
+        <v>15.315</v>
+      </c>
+      <c r="I285" s="13">
+        <v>1.82</v>
+      </c>
+      <c r="J285" s="13">
+        <f t="shared" si="29"/>
+        <v>0.84111581981078887</v>
+      </c>
+      <c r="K285" s="13">
+        <f t="shared" si="29"/>
+        <v>0.87659481554032004</v>
+      </c>
+      <c r="L285" s="13">
+        <f t="shared" si="29"/>
+        <v>7.3764008791208786</v>
+      </c>
+      <c r="M285" s="14">
+        <f t="shared" si="30"/>
+        <v>33.095999999999997</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A286" s="12"/>
+      <c r="B286" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C286" s="12">
+        <v>2048</v>
+      </c>
+      <c r="D286" s="12">
         <v>64</v>
       </c>
-      <c r="E282" s="3">
+      <c r="E286" s="12">
         <v>50</v>
       </c>
-      <c r="G282" s="6">
-        <v>6.7460000000000004</v>
-      </c>
-      <c r="H282" s="6">
-        <v>6.3090000000000002</v>
-      </c>
-      <c r="I282" s="6">
+      <c r="F286" s="12"/>
+      <c r="G286" s="13">
+        <v>8.7260000000000009</v>
+      </c>
+      <c r="H286" s="13">
+        <v>8.1379999999999999</v>
+      </c>
+      <c r="I286" s="13">
+        <v>3.3650000000000002</v>
+      </c>
+      <c r="J286" s="13">
         <f t="shared" si="29"/>
-        <v>2.9395600355766378</v>
-      </c>
-      <c r="J282" s="6">
+        <v>3.0770225991290392</v>
+      </c>
+      <c r="K286" s="13">
+        <f t="shared" si="29"/>
+        <v>3.2993486360285083</v>
+      </c>
+      <c r="L286" s="13">
+        <f t="shared" si="29"/>
+        <v>7.9792271025260018</v>
+      </c>
+      <c r="M286" s="14">
         <f t="shared" si="30"/>
-        <v>3.1431719765414488</v>
-      </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C283" s="3">
-        <v>1760</v>
-      </c>
-      <c r="D283" s="3">
+        <v>20.228999999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A287" s="12"/>
+      <c r="B287" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C287" s="12">
+        <v>2048</v>
+      </c>
+      <c r="D287" s="12">
         <v>128</v>
       </c>
-      <c r="E283" s="3">
+      <c r="E287" s="12">
         <v>50</v>
       </c>
-      <c r="G283" s="6">
-        <v>8.5329999999999995</v>
-      </c>
-      <c r="H283" s="6">
-        <v>8.375</v>
-      </c>
-      <c r="I283" s="6">
+      <c r="F287" s="12"/>
+      <c r="G287" s="13">
+        <v>11.472</v>
+      </c>
+      <c r="H287" s="13">
+        <v>11.099</v>
+      </c>
+      <c r="I287" s="13">
+        <v>6.4550000000000001</v>
+      </c>
+      <c r="J287" s="13">
         <f t="shared" si="29"/>
-        <v>4.6479015586546355</v>
-      </c>
-      <c r="J283" s="6">
+        <v>4.6809796373779635</v>
+      </c>
+      <c r="K287" s="13">
+        <f t="shared" si="29"/>
+        <v>4.8382915938372832</v>
+      </c>
+      <c r="L287" s="13">
+        <f t="shared" si="29"/>
+        <v>8.3191631913245541</v>
+      </c>
+      <c r="M287" s="14">
         <f t="shared" si="30"/>
-        <v>4.7355873432835818</v>
-      </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C284" s="3">
+        <v>29.025999999999996</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A288" s="12"/>
+      <c r="B288" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C288" s="12">
+        <v>2560</v>
+      </c>
+      <c r="D288" s="12">
+        <v>16</v>
+      </c>
+      <c r="E288" s="12">
+        <v>50</v>
+      </c>
+      <c r="F288" s="12"/>
+      <c r="G288" s="13">
+        <v>7.6349999999999998</v>
+      </c>
+      <c r="H288" s="13">
+        <v>6.5919999999999996</v>
+      </c>
+      <c r="I288" s="13">
+        <v>1.456</v>
+      </c>
+      <c r="J288" s="13">
+        <f t="shared" si="29"/>
+        <v>1.3736487229862475</v>
+      </c>
+      <c r="K288" s="13">
+        <f t="shared" si="29"/>
+        <v>1.5909902912621361</v>
+      </c>
+      <c r="L288" s="13">
+        <f t="shared" si="29"/>
+        <v>7.2031648351648352</v>
+      </c>
+      <c r="M288" s="14">
+        <f t="shared" si="30"/>
+        <v>15.683</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A289" s="12"/>
+      <c r="B289" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C289" s="12">
+        <v>2560</v>
+      </c>
+      <c r="D289" s="12">
+        <v>32</v>
+      </c>
+      <c r="E289" s="12">
+        <v>50</v>
+      </c>
+      <c r="F289" s="12"/>
+      <c r="G289" s="13">
+        <v>19.048999999999999</v>
+      </c>
+      <c r="H289" s="13">
+        <v>18.423999999999999</v>
+      </c>
+      <c r="I289" s="13">
+        <v>2.6850000000000001</v>
+      </c>
+      <c r="J289" s="13">
+        <f t="shared" si="29"/>
+        <v>1.1011400073494673</v>
+      </c>
+      <c r="K289" s="13">
+        <f t="shared" si="29"/>
+        <v>1.1384941380807641</v>
+      </c>
+      <c r="L289" s="13">
+        <f t="shared" si="29"/>
+        <v>7.8121474860335196</v>
+      </c>
+      <c r="M289" s="14">
+        <f t="shared" si="30"/>
+        <v>40.158000000000001</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A290" s="12"/>
+      <c r="B290" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C290" s="12">
+        <v>2560</v>
+      </c>
+      <c r="D290" s="12">
+        <v>64</v>
+      </c>
+      <c r="E290" s="12">
+        <v>50</v>
+      </c>
+      <c r="F290" s="12"/>
+      <c r="G290" s="13">
+        <v>8.9489999999999998</v>
+      </c>
+      <c r="H290" s="13">
+        <v>8.5079999999999991</v>
+      </c>
+      <c r="I290" s="13">
+        <v>5.12</v>
+      </c>
+      <c r="J290" s="13">
+        <f t="shared" si="29"/>
+        <v>4.6878122695273214</v>
+      </c>
+      <c r="K290" s="13">
+        <f t="shared" si="29"/>
+        <v>4.9307983074753174</v>
+      </c>
+      <c r="L290" s="13">
+        <f t="shared" si="29"/>
+        <v>8.1935999999999982</v>
+      </c>
+      <c r="M290" s="14">
+        <f t="shared" si="30"/>
+        <v>22.577000000000002</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A291" s="12"/>
+      <c r="B291" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C291" s="12">
+        <v>2560</v>
+      </c>
+      <c r="D291" s="12">
+        <v>128</v>
+      </c>
+      <c r="E291" s="12">
+        <v>50</v>
+      </c>
+      <c r="F291" s="12"/>
+      <c r="G291" s="13">
+        <v>14.414999999999999</v>
+      </c>
+      <c r="H291" s="13">
+        <v>14.385999999999999</v>
+      </c>
+      <c r="I291" s="13">
+        <v>10.041</v>
+      </c>
+      <c r="J291" s="13">
+        <f t="shared" si="29"/>
+        <v>5.820496982310094</v>
+      </c>
+      <c r="K291" s="13">
+        <f t="shared" si="29"/>
+        <v>5.8322302238287227</v>
+      </c>
+      <c r="L291" s="13">
+        <f t="shared" si="29"/>
+        <v>8.3559868538990152</v>
+      </c>
+      <c r="M291" s="14">
+        <f t="shared" si="30"/>
+        <v>38.841999999999999</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A292" s="12"/>
+      <c r="B292" s="12"/>
+      <c r="C292" s="12"/>
+      <c r="D292" s="12"/>
+      <c r="E292" s="12"/>
+      <c r="F292" s="12"/>
+      <c r="G292" s="12"/>
+      <c r="H292" s="12"/>
+      <c r="I292" s="12"/>
+      <c r="J292" s="12"/>
+      <c r="K292" s="12"/>
+      <c r="L292" s="12"/>
+      <c r="M292" s="12"/>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A293" s="12"/>
+      <c r="B293" s="12"/>
+      <c r="C293" s="12"/>
+      <c r="D293" s="12"/>
+      <c r="E293" s="12"/>
+      <c r="F293" s="12"/>
+      <c r="G293" s="12"/>
+      <c r="H293" s="12"/>
+      <c r="I293" s="15"/>
+      <c r="J293" s="12"/>
+      <c r="K293" s="12"/>
+      <c r="L293" s="12"/>
+      <c r="M293" s="12"/>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A294" s="12"/>
+      <c r="B294" s="12"/>
+      <c r="C294" s="12"/>
+      <c r="D294" s="12"/>
+      <c r="E294" s="12"/>
+      <c r="F294" s="12"/>
+      <c r="G294" s="12"/>
+      <c r="H294" s="12"/>
+      <c r="I294" s="12"/>
+      <c r="J294" s="12"/>
+      <c r="K294" s="12"/>
+      <c r="L294" s="12"/>
+      <c r="M294" s="12"/>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A295" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B295" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C295" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D295" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E295" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F295" s="12"/>
+      <c r="G295" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H295" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I295" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J295" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K295" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="L295" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="M295" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A296" s="12"/>
+      <c r="B296" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C296" s="12">
+        <v>512</v>
+      </c>
+      <c r="D296" s="12">
+        <v>16</v>
+      </c>
+      <c r="E296" s="12">
+        <v>25</v>
+      </c>
+      <c r="F296" s="12"/>
+      <c r="G296" s="13">
+        <v>1.478</v>
+      </c>
+      <c r="H296" s="13">
+        <v>1.6879999999999999</v>
+      </c>
+      <c r="I296" s="13">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="J296" s="13">
+        <f>(8*$E296*$D296*$C296*$C296)/(G296/1000)/10^12</f>
+        <v>0.56756481732070374</v>
+      </c>
+      <c r="K296" s="13">
+        <f>(8*$E296*$D296*$C296*$C296)/(H296/1000)/10^12</f>
+        <v>0.4969554502369668</v>
+      </c>
+      <c r="L296" s="13">
+        <f>(8*$E296*$D296*$C296*$C296)/(I296/1000)/10^12</f>
+        <v>3.9383136150234743</v>
+      </c>
+      <c r="M296" s="14">
+        <f t="shared" ref="M296:M317" si="31">G296+H296+I296</f>
+        <v>3.379</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A297" s="12"/>
+      <c r="B297" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C297" s="12">
+        <v>512</v>
+      </c>
+      <c r="D297" s="12">
+        <v>32</v>
+      </c>
+      <c r="E297" s="12">
+        <v>25</v>
+      </c>
+      <c r="F297" s="12"/>
+      <c r="G297" s="13">
+        <v>2.9780000000000002</v>
+      </c>
+      <c r="H297" s="13">
+        <v>7.415</v>
+      </c>
+      <c r="I297" s="13">
+        <v>0.34</v>
+      </c>
+      <c r="J297" s="13">
+        <f t="shared" ref="J297:L317" si="32">(8*$E297*$D297*$C297*$C297)/(G297/1000)/10^12</f>
+        <v>0.56337192746809939</v>
+      </c>
+      <c r="K297" s="13">
+        <f t="shared" si="32"/>
+        <v>0.22626049898853678</v>
+      </c>
+      <c r="L297" s="13">
+        <f t="shared" si="32"/>
+        <v>4.9344752941176466</v>
+      </c>
+      <c r="M297" s="14">
+        <f t="shared" si="31"/>
+        <v>10.733000000000001</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A298" s="12"/>
+      <c r="B298" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C298" s="12">
+        <v>512</v>
+      </c>
+      <c r="D298" s="12">
+        <v>64</v>
+      </c>
+      <c r="E298" s="12">
+        <v>25</v>
+      </c>
+      <c r="F298" s="12"/>
+      <c r="G298" s="13">
+        <v>3.0339999999999998</v>
+      </c>
+      <c r="H298" s="13">
+        <v>3.0470000000000002</v>
+      </c>
+      <c r="I298" s="13">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="J298" s="13">
+        <f t="shared" si="32"/>
+        <v>1.1059470006591958</v>
+      </c>
+      <c r="K298" s="13">
+        <f t="shared" si="32"/>
+        <v>1.1012284870364293</v>
+      </c>
+      <c r="L298" s="13">
+        <f t="shared" si="32"/>
+        <v>5.5738259136212625</v>
+      </c>
+      <c r="M298" s="14">
+        <f t="shared" si="31"/>
+        <v>6.6829999999999998</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A299" s="12"/>
+      <c r="B299" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C299" s="12">
+        <v>512</v>
+      </c>
+      <c r="D299" s="12">
+        <v>128</v>
+      </c>
+      <c r="E299" s="12">
+        <v>25</v>
+      </c>
+      <c r="F299" s="12"/>
+      <c r="G299" s="13">
+        <v>3.125</v>
+      </c>
+      <c r="H299" s="13">
+        <v>3.2290000000000001</v>
+      </c>
+      <c r="I299" s="13">
+        <v>1.024</v>
+      </c>
+      <c r="J299" s="13">
+        <f t="shared" si="32"/>
+        <v>2.1474836480000001</v>
+      </c>
+      <c r="K299" s="13">
+        <f t="shared" si="32"/>
+        <v>2.0783172499225766</v>
+      </c>
+      <c r="L299" s="13">
+        <f t="shared" si="32"/>
+        <v>6.5536000000000003</v>
+      </c>
+      <c r="M299" s="14">
+        <f t="shared" si="31"/>
+        <v>7.3780000000000001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A300" s="12"/>
+      <c r="B300" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C300" s="12">
+        <v>1024</v>
+      </c>
+      <c r="D300" s="12">
+        <v>16</v>
+      </c>
+      <c r="E300" s="12">
+        <v>25</v>
+      </c>
+      <c r="F300" s="12"/>
+      <c r="G300" s="13">
+        <v>3.5590000000000002</v>
+      </c>
+      <c r="H300" s="13">
+        <v>3.0659999999999998</v>
+      </c>
+      <c r="I300" s="13">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="J300" s="13">
+        <f t="shared" si="32"/>
+        <v>0.94280505760044964</v>
+      </c>
+      <c r="K300" s="13">
+        <f t="shared" si="32"/>
+        <v>1.0944041748206133</v>
+      </c>
+      <c r="L300" s="13">
+        <f t="shared" si="32"/>
+        <v>5.4917237315875616</v>
+      </c>
+      <c r="M300" s="14">
+        <f t="shared" si="31"/>
+        <v>7.2359999999999998</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A301" s="12"/>
+      <c r="B301" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C301" s="12">
+        <v>1024</v>
+      </c>
+      <c r="D301" s="12">
+        <v>32</v>
+      </c>
+      <c r="E301" s="12">
+        <v>25</v>
+      </c>
+      <c r="F301" s="12"/>
+      <c r="G301" s="13">
+        <v>4.9269999999999996</v>
+      </c>
+      <c r="H301" s="13">
+        <v>13.785</v>
+      </c>
+      <c r="I301" s="13">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="J301" s="13">
+        <f t="shared" si="32"/>
+        <v>1.3620634057235639</v>
+      </c>
+      <c r="K301" s="13">
+        <f t="shared" si="32"/>
+        <v>0.48682527384838592</v>
+      </c>
+      <c r="L301" s="13">
+        <f t="shared" si="32"/>
+        <v>6.5472062439024397</v>
+      </c>
+      <c r="M301" s="14">
+        <f t="shared" si="31"/>
+        <v>19.736999999999998</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A302" s="12"/>
+      <c r="B302" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C302" s="12">
+        <v>1024</v>
+      </c>
+      <c r="D302" s="12">
+        <v>64</v>
+      </c>
+      <c r="E302" s="12">
+        <v>25</v>
+      </c>
+      <c r="F302" s="12"/>
+      <c r="G302" s="13">
+        <v>4.7439999999999998</v>
+      </c>
+      <c r="H302" s="13">
+        <v>4.6449999999999996</v>
+      </c>
+      <c r="I302" s="13">
+        <v>1.8149999999999999</v>
+      </c>
+      <c r="J302" s="13">
+        <f t="shared" si="32"/>
+        <v>2.8292101180438447</v>
+      </c>
+      <c r="K302" s="13">
+        <f t="shared" si="32"/>
+        <v>2.8895097524219588</v>
+      </c>
+      <c r="L302" s="13">
+        <f t="shared" si="32"/>
+        <v>7.3949161432506889</v>
+      </c>
+      <c r="M302" s="14">
+        <f t="shared" si="31"/>
+        <v>11.203999999999999</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A303" s="12"/>
+      <c r="B303" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C303" s="12">
+        <v>1024</v>
+      </c>
+      <c r="D303" s="12">
+        <v>128</v>
+      </c>
+      <c r="E303" s="12">
+        <v>25</v>
+      </c>
+      <c r="F303" s="12"/>
+      <c r="G303" s="13">
+        <v>7.2409999999999997</v>
+      </c>
+      <c r="H303" s="13">
+        <v>6.2290000000000001</v>
+      </c>
+      <c r="I303" s="13">
+        <v>3.427</v>
+      </c>
+      <c r="J303" s="13">
+        <f t="shared" si="32"/>
+        <v>3.7071600055240985</v>
+      </c>
+      <c r="K303" s="13">
+        <f t="shared" si="32"/>
+        <v>4.3094470380478409</v>
+      </c>
+      <c r="L303" s="13">
+        <f t="shared" si="32"/>
+        <v>7.832957572220602</v>
+      </c>
+      <c r="M303" s="14">
+        <f t="shared" si="31"/>
+        <v>16.896999999999998</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A304" s="12"/>
+      <c r="B304" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C304" s="12">
         <v>2048</v>
       </c>
-      <c r="D284" s="3">
+      <c r="D304" s="12">
         <v>16</v>
       </c>
-      <c r="E284" s="3">
+      <c r="E304" s="12">
+        <v>25</v>
+      </c>
+      <c r="F304" s="12"/>
+      <c r="G304" s="13">
+        <v>12.832000000000001</v>
+      </c>
+      <c r="H304" s="13">
+        <v>9.7539999999999996</v>
+      </c>
+      <c r="I304" s="13">
+        <v>2.048</v>
+      </c>
+      <c r="J304" s="13">
+        <f t="shared" si="32"/>
+        <v>1.0459610972568578</v>
+      </c>
+      <c r="K304" s="13">
+        <f t="shared" si="32"/>
+        <v>1.3760275579249541</v>
+      </c>
+      <c r="L304" s="13">
+        <f t="shared" si="32"/>
+        <v>6.5536000000000003</v>
+      </c>
+      <c r="M304" s="14">
+        <f t="shared" si="31"/>
+        <v>24.634</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A305" s="12"/>
+      <c r="B305" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C305" s="12">
+        <v>2048</v>
+      </c>
+      <c r="D305" s="12">
+        <v>32</v>
+      </c>
+      <c r="E305" s="12">
+        <v>25</v>
+      </c>
+      <c r="F305" s="12"/>
+      <c r="G305" s="13">
+        <v>9.43</v>
+      </c>
+      <c r="H305" s="13">
+        <v>26.986999999999998</v>
+      </c>
+      <c r="I305" s="13">
+        <v>3.6520000000000001</v>
+      </c>
+      <c r="J305" s="13">
+        <f t="shared" si="32"/>
+        <v>2.8466114103923652</v>
+      </c>
+      <c r="K305" s="13">
+        <f t="shared" si="32"/>
+        <v>0.99468431467002638</v>
+      </c>
+      <c r="L305" s="13">
+        <f t="shared" si="32"/>
+        <v>7.3503684556407443</v>
+      </c>
+      <c r="M305" s="14">
+        <f t="shared" si="31"/>
+        <v>40.069000000000003</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A306" s="12"/>
+      <c r="B306" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C306" s="12">
+        <v>2048</v>
+      </c>
+      <c r="D306" s="12">
+        <v>64</v>
+      </c>
+      <c r="E306" s="12">
+        <v>25</v>
+      </c>
+      <c r="F306" s="12"/>
+      <c r="G306" s="13">
+        <v>11.724</v>
+      </c>
+      <c r="H306" s="13">
+        <v>9.6069999999999993</v>
+      </c>
+      <c r="I306" s="13">
+        <v>6.6529999999999996</v>
+      </c>
+      <c r="J306" s="13">
+        <f t="shared" si="32"/>
+        <v>4.5792469464346643</v>
+      </c>
+      <c r="K306" s="13">
+        <f t="shared" si="32"/>
+        <v>5.5883305090038515</v>
+      </c>
+      <c r="L306" s="13">
+        <f t="shared" si="32"/>
+        <v>8.0696063730647847</v>
+      </c>
+      <c r="M306" s="14">
+        <f t="shared" si="31"/>
+        <v>27.983999999999998</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A307" s="12"/>
+      <c r="B307" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C307" s="12">
+        <v>2048</v>
+      </c>
+      <c r="D307" s="12">
+        <v>128</v>
+      </c>
+      <c r="E307" s="12">
+        <v>25</v>
+      </c>
+      <c r="F307" s="12"/>
+      <c r="G307" s="13">
+        <v>23.26</v>
+      </c>
+      <c r="H307" s="13">
+        <v>16.045000000000002</v>
+      </c>
+      <c r="I307" s="13">
+        <v>12.677</v>
+      </c>
+      <c r="J307" s="13">
+        <f t="shared" si="32"/>
+        <v>4.6162589165950125</v>
+      </c>
+      <c r="K307" s="13">
+        <f t="shared" si="32"/>
+        <v>6.692064967279526</v>
+      </c>
+      <c r="L307" s="13">
+        <f t="shared" si="32"/>
+        <v>8.4699994004890744</v>
+      </c>
+      <c r="M307" s="14">
+        <f t="shared" si="31"/>
+        <v>51.982000000000006</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A308" s="12"/>
+      <c r="B308" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C308" s="12">
+        <v>4096</v>
+      </c>
+      <c r="D308" s="12">
+        <v>16</v>
+      </c>
+      <c r="E308" s="12">
+        <v>25</v>
+      </c>
+      <c r="F308" s="12"/>
+      <c r="G308" s="13">
+        <v>50.246000000000002</v>
+      </c>
+      <c r="H308" s="13">
+        <v>46.857999999999997</v>
+      </c>
+      <c r="I308" s="13">
+        <v>7.29</v>
+      </c>
+      <c r="J308" s="13">
+        <f t="shared" si="32"/>
+        <v>1.0684848783982805</v>
+      </c>
+      <c r="K308" s="13">
+        <f t="shared" si="32"/>
+        <v>1.1457401340219386</v>
+      </c>
+      <c r="L308" s="13">
+        <f t="shared" si="32"/>
+        <v>7.3644843895747609</v>
+      </c>
+      <c r="M308" s="14">
+        <f t="shared" si="31"/>
+        <v>104.39400000000001</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A309" s="12"/>
+      <c r="B309" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C309" s="12">
+        <v>4096</v>
+      </c>
+      <c r="D309" s="12">
+        <v>32</v>
+      </c>
+      <c r="E309" s="12">
+        <v>25</v>
+      </c>
+      <c r="F309" s="12"/>
+      <c r="G309" s="13">
+        <v>22.579000000000001</v>
+      </c>
+      <c r="H309" s="13">
+        <v>56.341999999999999</v>
+      </c>
+      <c r="I309" s="13">
+        <v>13.134</v>
+      </c>
+      <c r="J309" s="13">
+        <f t="shared" si="32"/>
+        <v>4.7554888347579611</v>
+      </c>
+      <c r="K309" s="13">
+        <f t="shared" si="32"/>
+        <v>1.9057573817045899</v>
+      </c>
+      <c r="L309" s="13">
+        <f t="shared" si="32"/>
+        <v>8.1752841784680985</v>
+      </c>
+      <c r="M309" s="14">
+        <f t="shared" si="31"/>
+        <v>92.054999999999993</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A310" s="12"/>
+      <c r="B310" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C310" s="12">
+        <v>4096</v>
+      </c>
+      <c r="D310" s="12">
+        <v>64</v>
+      </c>
+      <c r="E310" s="12">
+        <v>25</v>
+      </c>
+      <c r="F310" s="12"/>
+      <c r="G310" s="13">
+        <v>34.923000000000002</v>
+      </c>
+      <c r="H310" s="13">
+        <v>59.225999999999999</v>
+      </c>
+      <c r="I310" s="13">
+        <v>24.789000000000001</v>
+      </c>
+      <c r="J310" s="13">
+        <f t="shared" si="32"/>
+        <v>6.149195796466512</v>
+      </c>
+      <c r="K310" s="13">
+        <f t="shared" si="32"/>
+        <v>3.625913700064161</v>
+      </c>
+      <c r="L310" s="13">
+        <f t="shared" si="32"/>
+        <v>8.6630507402476891</v>
+      </c>
+      <c r="M310" s="14">
+        <f t="shared" si="31"/>
+        <v>118.938</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A311" s="12"/>
+      <c r="B311" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C311" s="12">
+        <v>4096</v>
+      </c>
+      <c r="D311" s="12">
+        <v>128</v>
+      </c>
+      <c r="E311" s="12">
+        <v>25</v>
+      </c>
+      <c r="F311" s="12"/>
+      <c r="G311" s="13">
+        <v>67.5</v>
+      </c>
+      <c r="H311" s="13">
+        <v>54.896999999999998</v>
+      </c>
+      <c r="I311" s="13">
+        <v>48.578000000000003</v>
+      </c>
+      <c r="J311" s="13">
+        <f t="shared" si="32"/>
+        <v>6.3629145125925914</v>
+      </c>
+      <c r="K311" s="13">
+        <f t="shared" si="32"/>
+        <v>7.8236830719347141</v>
+      </c>
+      <c r="L311" s="13">
+        <f t="shared" si="32"/>
+        <v>8.8413835398740162</v>
+      </c>
+      <c r="M311" s="14">
+        <f t="shared" si="31"/>
+        <v>170.97499999999999</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A312" s="12"/>
+      <c r="B312" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C312" s="12">
+        <v>1536</v>
+      </c>
+      <c r="D312" s="12">
+        <v>8</v>
+      </c>
+      <c r="E312" s="12">
         <v>50</v>
       </c>
-      <c r="G284" s="6">
-        <v>6.2279999999999998</v>
-      </c>
-      <c r="H284" s="6">
-        <v>5.21</v>
-      </c>
-      <c r="I284" s="6">
-        <f t="shared" si="29"/>
-        <v>1.0777978163134232</v>
-      </c>
-      <c r="J284" s="6">
-        <f t="shared" si="30"/>
-        <v>1.2883924760076775</v>
-      </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C285" s="3">
+      <c r="F312" s="12"/>
+      <c r="G312" s="13">
+        <v>7.8289999999999997</v>
+      </c>
+      <c r="H312" s="13">
+        <v>8.6780000000000008</v>
+      </c>
+      <c r="I312" s="13">
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="J312" s="13">
+        <f t="shared" si="32"/>
+        <v>0.9643309745816836</v>
+      </c>
+      <c r="K312" s="13">
+        <f t="shared" si="32"/>
+        <v>0.8699870016132748</v>
+      </c>
+      <c r="L312" s="13">
+        <f t="shared" si="32"/>
+        <v>6.3389984886649877</v>
+      </c>
+      <c r="M312" s="14">
+        <f t="shared" si="31"/>
+        <v>17.698</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A313" s="12"/>
+      <c r="B313" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C313" s="12">
+        <v>1536</v>
+      </c>
+      <c r="D313" s="12">
+        <v>16</v>
+      </c>
+      <c r="E313" s="12">
+        <v>50</v>
+      </c>
+      <c r="F313" s="12"/>
+      <c r="G313" s="13">
+        <v>13.769</v>
+      </c>
+      <c r="H313" s="13">
+        <v>9.4359999999999999</v>
+      </c>
+      <c r="I313" s="13">
+        <v>2.0920000000000001</v>
+      </c>
+      <c r="J313" s="13">
+        <f t="shared" si="32"/>
+        <v>1.0966297044084536</v>
+      </c>
+      <c r="K313" s="13">
+        <f t="shared" si="32"/>
+        <v>1.6002007630351844</v>
+      </c>
+      <c r="L313" s="13">
+        <f t="shared" si="32"/>
+        <v>7.21773154875717</v>
+      </c>
+      <c r="M313" s="14">
+        <f t="shared" si="31"/>
+        <v>25.296999999999997</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A314" s="12"/>
+      <c r="B314" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C314" s="12">
+        <v>1536</v>
+      </c>
+      <c r="D314" s="12">
+        <v>32</v>
+      </c>
+      <c r="E314" s="12">
+        <v>50</v>
+      </c>
+      <c r="F314" s="12"/>
+      <c r="G314" s="13">
+        <v>13.526999999999999</v>
+      </c>
+      <c r="H314" s="13">
+        <v>40.46</v>
+      </c>
+      <c r="I314" s="13">
+        <v>4.0049999999999999</v>
+      </c>
+      <c r="J314" s="13">
+        <f t="shared" si="32"/>
+        <v>2.2324971390552233</v>
+      </c>
+      <c r="K314" s="13">
+        <f t="shared" si="32"/>
+        <v>0.74639122095897181</v>
+      </c>
+      <c r="L314" s="13">
+        <f t="shared" si="32"/>
+        <v>7.5403217977528092</v>
+      </c>
+      <c r="M314" s="14">
+        <f t="shared" si="31"/>
+        <v>57.992000000000004</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A315" s="12"/>
+      <c r="B315" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C315" s="12">
+        <v>256</v>
+      </c>
+      <c r="D315" s="12">
+        <v>16</v>
+      </c>
+      <c r="E315" s="12">
+        <v>150</v>
+      </c>
+      <c r="F315" s="12"/>
+      <c r="G315" s="13">
+        <v>4.3109999999999999</v>
+      </c>
+      <c r="H315" s="13">
+        <v>5.234</v>
+      </c>
+      <c r="I315" s="13">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="J315" s="13">
+        <f t="shared" si="32"/>
+        <v>0.29187919276270008</v>
+      </c>
+      <c r="K315" s="13">
+        <f t="shared" si="32"/>
+        <v>0.24040718379824227</v>
+      </c>
+      <c r="L315" s="13">
+        <f t="shared" si="32"/>
+        <v>4.2509837837837843</v>
+      </c>
+      <c r="M315" s="14">
+        <f t="shared" si="31"/>
+        <v>9.8409999999999993</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A316" s="12"/>
+      <c r="B316" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C316" s="12">
+        <v>256</v>
+      </c>
+      <c r="D316" s="12">
+        <v>32</v>
+      </c>
+      <c r="E316" s="12">
+        <v>150</v>
+      </c>
+      <c r="F316" s="12"/>
+      <c r="G316" s="13">
+        <v>8.7439999999999998</v>
+      </c>
+      <c r="H316" s="13">
+        <v>20.082999999999998</v>
+      </c>
+      <c r="I316" s="13">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="J316" s="13">
+        <f t="shared" si="32"/>
+        <v>0.28780677035681612</v>
+      </c>
+      <c r="K316" s="13">
+        <f t="shared" si="32"/>
+        <v>0.12530908728775583</v>
+      </c>
+      <c r="L316" s="13">
+        <f t="shared" si="32"/>
+        <v>5.4353831533477317</v>
+      </c>
+      <c r="M316" s="14">
+        <f t="shared" si="31"/>
+        <v>29.29</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A317" s="12"/>
+      <c r="B317" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C317" s="12">
+        <v>256</v>
+      </c>
+      <c r="D317" s="12">
+        <v>64</v>
+      </c>
+      <c r="E317" s="12">
+        <v>150</v>
+      </c>
+      <c r="F317" s="12"/>
+      <c r="G317" s="13">
+        <v>9.5220000000000002</v>
+      </c>
+      <c r="H317" s="13">
+        <v>13.851000000000001</v>
+      </c>
+      <c r="I317" s="13">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="J317" s="13">
+        <f t="shared" si="32"/>
+        <v>0.52858273471959671</v>
+      </c>
+      <c r="K317" s="13">
+        <f t="shared" si="32"/>
+        <v>0.36337916395928088</v>
+      </c>
+      <c r="L317" s="13">
+        <f t="shared" si="32"/>
+        <v>6.1008058181818186</v>
+      </c>
+      <c r="M317" s="14">
+        <f t="shared" si="31"/>
+        <v>24.198</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A318" s="12"/>
+      <c r="B318" s="12"/>
+      <c r="C318" s="12"/>
+      <c r="D318" s="12"/>
+      <c r="E318" s="12"/>
+      <c r="F318" s="12"/>
+      <c r="G318" s="12"/>
+      <c r="H318" s="12"/>
+      <c r="I318" s="12"/>
+      <c r="J318" s="12"/>
+      <c r="K318" s="12"/>
+      <c r="L318" s="12"/>
+      <c r="M318" s="12"/>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A319" s="12"/>
+      <c r="B319" s="12"/>
+      <c r="C319" s="12"/>
+      <c r="D319" s="12"/>
+      <c r="E319" s="12"/>
+      <c r="F319" s="12"/>
+      <c r="G319" s="12"/>
+      <c r="H319" s="12"/>
+      <c r="I319" s="12"/>
+      <c r="J319" s="12"/>
+      <c r="K319" s="12"/>
+      <c r="L319" s="12"/>
+      <c r="M319" s="12"/>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A320" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B320" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C320" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D320" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E320" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F320" s="12"/>
+      <c r="G320" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H320" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I320" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J320" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K320" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="L320" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="M320" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A321" s="12"/>
+      <c r="B321" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C321" s="12">
+        <v>2816</v>
+      </c>
+      <c r="D321" s="12">
+        <v>32</v>
+      </c>
+      <c r="E321" s="12">
+        <v>1500</v>
+      </c>
+      <c r="F321" s="12"/>
+      <c r="G321" s="13">
+        <v>691.19100000000003</v>
+      </c>
+      <c r="H321" s="13">
+        <v>1653.2739999999999</v>
+      </c>
+      <c r="I321" s="13">
+        <v>256.16199999999998</v>
+      </c>
+      <c r="J321" s="13">
+        <f>(6*$E321*$D321*$C321*$C321)/(G321/1000)/10^12</f>
+        <v>3.3041496894490816</v>
+      </c>
+      <c r="K321" s="13">
+        <f>(6*$E321*$D321*$C321*$C321)/(H321/1000)/10^12</f>
+        <v>1.3813793285323548</v>
+      </c>
+      <c r="L321" s="13">
+        <f>(6*$E321*$D321*$C321*$C321)/(I321/1000)/10^12</f>
+        <v>8.915446194205229</v>
+      </c>
+      <c r="M321" s="14">
+        <f t="shared" ref="M321:M339" si="33">G321+H321+I321</f>
+        <v>2600.627</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A322" s="12"/>
+      <c r="B322" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C322" s="12">
+        <v>2816</v>
+      </c>
+      <c r="D322" s="12">
+        <v>32</v>
+      </c>
+      <c r="E322" s="12">
+        <v>750</v>
+      </c>
+      <c r="F322" s="12"/>
+      <c r="G322" s="13">
+        <v>347.28300000000002</v>
+      </c>
+      <c r="H322" s="13">
+        <v>826.22299999999996</v>
+      </c>
+      <c r="I322" s="13">
+        <v>128.50399999999999</v>
+      </c>
+      <c r="J322" s="13">
+        <f>(6*$E322*$D322*$C322*$C322)/(G322/1000)/10^12</f>
+        <v>3.2880943322880762</v>
+      </c>
+      <c r="K322" s="13">
+        <f>(6*$E322*$D322*$C322*$C322)/(H322/1000)/10^12</f>
+        <v>1.3820715036981543</v>
+      </c>
+      <c r="L322" s="13">
+        <f>(6*$E322*$D322*$C322*$C322)/(I322/1000)/10^12</f>
+        <v>8.8860989852455976</v>
+      </c>
+      <c r="M322" s="14">
+        <f t="shared" si="33"/>
+        <v>1302.0099999999998</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A323" s="12"/>
+      <c r="B323" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C323" s="12">
+        <v>2816</v>
+      </c>
+      <c r="D323" s="12">
+        <v>32</v>
+      </c>
+      <c r="E323" s="12">
+        <v>375</v>
+      </c>
+      <c r="F323" s="12"/>
+      <c r="G323" s="13">
+        <v>175.53299999999999</v>
+      </c>
+      <c r="H323" s="13">
+        <v>414.92399999999998</v>
+      </c>
+      <c r="I323" s="13">
+        <v>64.492000000000004</v>
+      </c>
+      <c r="J323" s="13">
+        <f>(6*$E323*$D323*$C323*$C323)/(G323/1000)/10^12</f>
+        <v>3.2526626446309241</v>
+      </c>
+      <c r="K323" s="13">
+        <f>(6*$E323*$D323*$C323*$C323)/(H323/1000)/10^12</f>
+        <v>1.3760342424154786</v>
+      </c>
+      <c r="L323" s="13">
+        <f>(6*$E323*$D323*$C323*$C323)/(I323/1000)/10^12</f>
+        <v>8.8530303293431736</v>
+      </c>
+      <c r="M323" s="14">
+        <f t="shared" si="33"/>
+        <v>654.94899999999996</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A324" s="12"/>
+      <c r="B324" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C324" s="12">
+        <v>2816</v>
+      </c>
+      <c r="D324" s="12">
+        <v>32</v>
+      </c>
+      <c r="E324" s="12">
+        <v>187</v>
+      </c>
+      <c r="F324" s="12"/>
+      <c r="G324" s="13">
+        <v>88.894999999999996</v>
+      </c>
+      <c r="H324" s="13">
+        <v>207.881</v>
+      </c>
+      <c r="I324" s="13">
+        <v>32.427</v>
+      </c>
+      <c r="J324" s="13">
+        <f>(6*$E324*$D324*$C324*$C324)/(G324/1000)/10^12</f>
+        <v>3.2028072425220766</v>
+      </c>
+      <c r="K324" s="13">
+        <f>(6*$E324*$D324*$C324*$C324)/(H324/1000)/10^12</f>
+        <v>1.3695987118784305</v>
+      </c>
+      <c r="L324" s="13">
+        <f>(6*$E324*$D324*$C324*$C324)/(I324/1000)/10^12</f>
+        <v>8.7801384594319547</v>
+      </c>
+      <c r="M324" s="14">
+        <f t="shared" si="33"/>
+        <v>329.20300000000003</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A325" s="12"/>
+      <c r="B325" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C325" s="12">
         <v>2048</v>
       </c>
-      <c r="D285" s="3">
+      <c r="D325" s="12">
         <v>32</v>
       </c>
-      <c r="E285" s="3">
-        <v>50</v>
-      </c>
-      <c r="G285" s="6">
-        <v>15.699</v>
-      </c>
-      <c r="H285" s="6">
-        <v>15.128</v>
-      </c>
-      <c r="I285" s="6">
-        <f t="shared" si="29"/>
-        <v>0.8551531689916555</v>
-      </c>
-      <c r="J285" s="6">
-        <f t="shared" si="30"/>
-        <v>0.88743056583818081</v>
-      </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C286" s="3">
+      <c r="E325" s="12">
+        <v>1500</v>
+      </c>
+      <c r="F325" s="12"/>
+      <c r="G325" s="13">
+        <v>466.97199999999998</v>
+      </c>
+      <c r="H325" s="13">
+        <v>1197.924</v>
+      </c>
+      <c r="I325" s="13">
+        <v>137.44900000000001</v>
+      </c>
+      <c r="J325" s="13">
+        <f>(6*$E325*$D325*$C325*$C325)/(G325/1000)/10^12</f>
+        <v>2.5867922530687064</v>
+      </c>
+      <c r="K325" s="13">
+        <f>(6*$E325*$D325*$C325*$C325)/(H325/1000)/10^12</f>
+        <v>1.0083774529936791</v>
+      </c>
+      <c r="L325" s="13">
+        <f>(6*$E325*$D325*$C325*$C325)/(I325/1000)/10^12</f>
+        <v>8.7884200830853612</v>
+      </c>
+      <c r="M325" s="14">
+        <f t="shared" si="33"/>
+        <v>1802.345</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A326" s="12"/>
+      <c r="B326" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C326" s="12">
         <v>2048</v>
       </c>
-      <c r="D286" s="3">
+      <c r="D326" s="12">
+        <v>32</v>
+      </c>
+      <c r="E326" s="12">
+        <v>750</v>
+      </c>
+      <c r="F326" s="12"/>
+      <c r="G326" s="13">
+        <v>235.55799999999999</v>
+      </c>
+      <c r="H326" s="13">
+        <v>600.66300000000001</v>
+      </c>
+      <c r="I326" s="13">
+        <v>68.941999999999993</v>
+      </c>
+      <c r="J326" s="13">
+        <f>(6*$E326*$D326*$C326*$C326)/(G326/1000)/10^12</f>
+        <v>2.564038478845974</v>
+      </c>
+      <c r="K326" s="13">
+        <f>(6*$E326*$D326*$C326*$C326)/(H326/1000)/10^12</f>
+        <v>1.0055218583465271</v>
+      </c>
+      <c r="L326" s="13">
+        <f>(6*$E326*$D326*$C326*$C326)/(I326/1000)/10^12</f>
+        <v>8.7606941487047099</v>
+      </c>
+      <c r="M326" s="14">
+        <f t="shared" si="33"/>
+        <v>905.16300000000001</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A327" s="12"/>
+      <c r="B327" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C327" s="12">
+        <v>2048</v>
+      </c>
+      <c r="D327" s="12">
+        <v>32</v>
+      </c>
+      <c r="E327" s="12">
+        <v>375</v>
+      </c>
+      <c r="F327" s="12"/>
+      <c r="G327" s="13">
+        <v>119.52800000000001</v>
+      </c>
+      <c r="H327" s="13">
+        <v>301.67200000000003</v>
+      </c>
+      <c r="I327" s="13">
+        <v>34.887999999999998</v>
+      </c>
+      <c r="J327" s="13">
+        <f>(6*$E327*$D327*$C327*$C327)/(G327/1000)/10^12</f>
+        <v>2.5265200455123482</v>
+      </c>
+      <c r="K327" s="13">
+        <f>(6*$E327*$D327*$C327*$C327)/(H327/1000)/10^12</f>
+        <v>1.00105375374579</v>
+      </c>
+      <c r="L327" s="13">
+        <f>(6*$E327*$D327*$C327*$C327)/(I327/1000)/10^12</f>
+        <v>8.6559816555835827</v>
+      </c>
+      <c r="M327" s="14">
+        <f t="shared" si="33"/>
+        <v>456.08800000000002</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A328" s="12"/>
+      <c r="B328" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C328" s="12">
+        <v>2048</v>
+      </c>
+      <c r="D328" s="12">
+        <v>32</v>
+      </c>
+      <c r="E328" s="12">
+        <v>187</v>
+      </c>
+      <c r="F328" s="12"/>
+      <c r="G328" s="13">
+        <v>61.402000000000001</v>
+      </c>
+      <c r="H328" s="13">
+        <v>151.733</v>
+      </c>
+      <c r="I328" s="13">
+        <v>17.649000000000001</v>
+      </c>
+      <c r="J328" s="13">
+        <f>(6*$E328*$D328*$C328*$C328)/(G328/1000)/10^12</f>
+        <v>2.4525632848441421</v>
+      </c>
+      <c r="K328" s="13">
+        <f>(6*$E328*$D328*$C328*$C328)/(H328/1000)/10^12</f>
+        <v>0.99248212858112594</v>
+      </c>
+      <c r="L328" s="13">
+        <f>(6*$E328*$D328*$C328*$C328)/(I328/1000)/10^12</f>
+        <v>8.5326245575386697</v>
+      </c>
+      <c r="M328" s="14">
+        <f t="shared" si="33"/>
+        <v>230.78399999999999</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A329" s="12"/>
+      <c r="B329" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C329" s="12">
+        <v>1536</v>
+      </c>
+      <c r="D329" s="12">
+        <v>32</v>
+      </c>
+      <c r="E329" s="12">
+        <v>1500</v>
+      </c>
+      <c r="F329" s="12"/>
+      <c r="G329" s="13">
+        <v>354.56299999999999</v>
+      </c>
+      <c r="H329" s="13">
+        <v>915.78200000000004</v>
+      </c>
+      <c r="I329" s="13">
+        <v>78.436000000000007</v>
+      </c>
+      <c r="J329" s="13">
+        <f>(6*$E329*$D329*$C329*$C329)/(G329/1000)/10^12</f>
+        <v>1.9163794530168126</v>
+      </c>
+      <c r="K329" s="13">
+        <f>(6*$E329*$D329*$C329*$C329)/(H329/1000)/10^12</f>
+        <v>0.74196396959101618</v>
+      </c>
+      <c r="L329" s="13">
+        <f>(6*$E329*$D329*$C329*$C329)/(I329/1000)/10^12</f>
+        <v>8.6628238053954814</v>
+      </c>
+      <c r="M329" s="14">
+        <f t="shared" si="33"/>
+        <v>1348.7809999999999</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A330" s="12"/>
+      <c r="B330" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C330" s="12">
+        <v>1536</v>
+      </c>
+      <c r="D330" s="12">
+        <v>32</v>
+      </c>
+      <c r="E330" s="12">
+        <v>750</v>
+      </c>
+      <c r="F330" s="12"/>
+      <c r="G330" s="13">
+        <v>179.98099999999999</v>
+      </c>
+      <c r="H330" s="13">
+        <v>459.36900000000003</v>
+      </c>
+      <c r="I330" s="13">
+        <v>39.341999999999999</v>
+      </c>
+      <c r="J330" s="13">
+        <f>(6*$E330*$D330*$C330*$C330)/(G330/1000)/10^12</f>
+        <v>1.8876360504719942</v>
+      </c>
+      <c r="K330" s="13">
+        <f>(6*$E330*$D330*$C330*$C330)/(H330/1000)/10^12</f>
+        <v>0.73957673243079092</v>
+      </c>
+      <c r="L330" s="13">
+        <f>(6*$E330*$D330*$C330*$C330)/(I330/1000)/10^12</f>
+        <v>8.6355199023943872</v>
+      </c>
+      <c r="M330" s="14">
+        <f t="shared" si="33"/>
+        <v>678.69200000000001</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A331" s="12"/>
+      <c r="B331" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C331" s="12">
+        <v>1536</v>
+      </c>
+      <c r="D331" s="12">
+        <v>32</v>
+      </c>
+      <c r="E331" s="12">
+        <v>375</v>
+      </c>
+      <c r="F331" s="12"/>
+      <c r="G331" s="13">
+        <v>92.072000000000003</v>
+      </c>
+      <c r="H331" s="13">
+        <v>231.29499999999999</v>
+      </c>
+      <c r="I331" s="13">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="J331" s="13">
+        <f>(6*$E331*$D331*$C331*$C331)/(G331/1000)/10^12</f>
+        <v>1.8449616821617865</v>
+      </c>
+      <c r="K331" s="13">
+        <f>(6*$E331*$D331*$C331*$C331)/(H331/1000)/10^12</f>
+        <v>0.73442708229749887</v>
+      </c>
+      <c r="L331" s="13">
+        <f>(6*$E331*$D331*$C331*$C331)/(I331/1000)/10^12</f>
+        <v>8.5576479596977322</v>
+      </c>
+      <c r="M331" s="14">
+        <f t="shared" si="33"/>
+        <v>343.21699999999998</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A332" s="12"/>
+      <c r="B332" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C332" s="12">
+        <v>1536</v>
+      </c>
+      <c r="D332" s="12">
+        <v>32</v>
+      </c>
+      <c r="E332" s="12">
+        <v>187</v>
+      </c>
+      <c r="F332" s="12"/>
+      <c r="G332" s="13">
+        <v>47.551000000000002</v>
+      </c>
+      <c r="H332" s="13">
+        <v>116.425</v>
+      </c>
+      <c r="I332" s="13">
+        <v>10.205</v>
+      </c>
+      <c r="J332" s="13">
+        <f>(6*$E332*$D332*$C332*$C332)/(G332/1000)/10^12</f>
+        <v>1.7814170802717082</v>
+      </c>
+      <c r="K332" s="13">
+        <f>(6*$E332*$D332*$C332*$C332)/(H332/1000)/10^12</f>
+        <v>0.72757709756495592</v>
+      </c>
+      <c r="L332" s="13">
+        <f>(6*$E332*$D332*$C332*$C332)/(I332/1000)/10^12</f>
+        <v>8.3006529724644782</v>
+      </c>
+      <c r="M332" s="14">
+        <f t="shared" si="33"/>
+        <v>174.18100000000001</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A333" s="12"/>
+      <c r="B333" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C333" s="12">
+        <v>2560</v>
+      </c>
+      <c r="D333" s="12">
+        <v>32</v>
+      </c>
+      <c r="E333" s="12">
+        <v>1500</v>
+      </c>
+      <c r="F333" s="12"/>
+      <c r="G333" s="13">
+        <v>623.03700000000003</v>
+      </c>
+      <c r="H333" s="13">
+        <v>1494.6869999999999</v>
+      </c>
+      <c r="I333" s="13">
+        <v>215.26499999999999</v>
+      </c>
+      <c r="J333" s="13">
+        <f>(6*$E333*$D333*$C333*$C333)/(G333/1000)/10^12</f>
+        <v>3.0294136624309629</v>
+      </c>
+      <c r="K333" s="13">
+        <f>(6*$E333*$D333*$C333*$C333)/(H333/1000)/10^12</f>
+        <v>1.2627639097683996</v>
+      </c>
+      <c r="L333" s="13">
+        <f>(6*$E333*$D333*$C333*$C333)/(I333/1000)/10^12</f>
+        <v>8.76796878266323</v>
+      </c>
+      <c r="M333" s="14">
+        <f t="shared" si="33"/>
+        <v>2332.989</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A334" s="12"/>
+      <c r="B334" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C334" s="12">
+        <v>2560</v>
+      </c>
+      <c r="D334" s="12">
+        <v>32</v>
+      </c>
+      <c r="E334" s="12">
+        <v>750</v>
+      </c>
+      <c r="F334" s="12"/>
+      <c r="G334" s="13">
+        <v>313.36399999999998</v>
+      </c>
+      <c r="H334" s="13">
+        <v>748.69500000000005</v>
+      </c>
+      <c r="I334" s="13">
+        <v>108.598</v>
+      </c>
+      <c r="J334" s="13">
+        <f>(6*$E334*$D334*$C334*$C334)/(G334/1000)/10^12</f>
+        <v>3.0115724843951446</v>
+      </c>
+      <c r="K334" s="13">
+        <f>(6*$E334*$D334*$C334*$C334)/(H334/1000)/10^12</f>
+        <v>1.2604844429306994</v>
+      </c>
+      <c r="L334" s="13">
+        <f>(6*$E334*$D334*$C334*$C334)/(I334/1000)/10^12</f>
+        <v>8.6900163907254271</v>
+      </c>
+      <c r="M334" s="14">
+        <f t="shared" si="33"/>
+        <v>1170.6569999999999</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A335" s="12"/>
+      <c r="B335" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C335" s="12">
+        <v>2560</v>
+      </c>
+      <c r="D335" s="12">
+        <v>32</v>
+      </c>
+      <c r="E335" s="12">
+        <v>375</v>
+      </c>
+      <c r="F335" s="12"/>
+      <c r="G335" s="13">
+        <v>158.81100000000001</v>
+      </c>
+      <c r="H335" s="13">
+        <v>375.803</v>
+      </c>
+      <c r="I335" s="13">
+        <v>54.570999999999998</v>
+      </c>
+      <c r="J335" s="13">
+        <f>(6*$E335*$D335*$C335*$C335)/(G335/1000)/10^12</f>
+        <v>2.9711997279785405</v>
+      </c>
+      <c r="K335" s="13">
+        <f>(6*$E335*$D335*$C335*$C335)/(H335/1000)/10^12</f>
+        <v>1.2556025364353132</v>
+      </c>
+      <c r="L335" s="13">
+        <f>(6*$E335*$D335*$C335*$C335)/(I335/1000)/10^12</f>
+        <v>8.6467024610140921</v>
+      </c>
+      <c r="M335" s="14">
+        <f t="shared" si="33"/>
+        <v>589.18500000000006</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A336" s="12"/>
+      <c r="B336" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C336" s="12">
+        <v>2560</v>
+      </c>
+      <c r="D336" s="12">
+        <v>32</v>
+      </c>
+      <c r="E336" s="12">
+        <v>187</v>
+      </c>
+      <c r="F336" s="12"/>
+      <c r="G336" s="13">
+        <v>80.619</v>
+      </c>
+      <c r="H336" s="13">
+        <v>188.637</v>
+      </c>
+      <c r="I336" s="13">
+        <v>27.465</v>
+      </c>
+      <c r="J336" s="13">
+        <f>(6*$E336*$D336*$C336*$C336)/(G336/1000)/10^12</f>
+        <v>2.9186724519033973</v>
+      </c>
+      <c r="K336" s="13">
+        <f>(6*$E336*$D336*$C336*$C336)/(H336/1000)/10^12</f>
+        <v>1.2473716948424753</v>
+      </c>
+      <c r="L336" s="13">
+        <f>(6*$E336*$D336*$C336*$C336)/(I336/1000)/10^12</f>
+        <v>8.5672839759694153</v>
+      </c>
+      <c r="M336" s="14">
+        <f t="shared" si="33"/>
+        <v>296.72099999999995</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A337" s="12"/>
+      <c r="B337" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C337" s="12">
+        <v>512</v>
+      </c>
+      <c r="D337" s="12">
+        <v>32</v>
+      </c>
+      <c r="E337" s="12">
+        <v>1</v>
+      </c>
+      <c r="F337" s="12"/>
+      <c r="G337" s="13">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="H337" s="13">
+        <v>0.191</v>
+      </c>
+      <c r="I337" s="13">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="J337" s="13">
+        <f>(6*$E337*$D337*$C337*$C337)/(G337/1000)/10^12</f>
+        <v>0.48865677669902913</v>
+      </c>
+      <c r="K337" s="13">
+        <f>(6*$E337*$D337*$C337*$C337)/(H337/1000)/10^12</f>
+        <v>0.26351648167539266</v>
+      </c>
+      <c r="L337" s="13">
+        <f>(6*$E337*$D337*$C337*$C337)/(I337/1000)/10^12</f>
+        <v>1.4803425882352943</v>
+      </c>
+      <c r="M337" s="14">
+        <f t="shared" si="33"/>
+        <v>0.32799999999999996</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A338" s="12"/>
+      <c r="B338" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C338" s="12">
+        <v>1024</v>
+      </c>
+      <c r="D338" s="12">
+        <v>32</v>
+      </c>
+      <c r="E338" s="12">
+        <v>1500</v>
+      </c>
+      <c r="F338" s="12"/>
+      <c r="G338" s="13">
+        <v>234.66399999999999</v>
+      </c>
+      <c r="H338" s="13">
+        <v>611.86</v>
+      </c>
+      <c r="I338" s="13">
+        <v>36.091999999999999</v>
+      </c>
+      <c r="J338" s="13">
+        <f>(6*$E338*$D338*$C338*$C338)/(G338/1000)/10^12</f>
+        <v>1.2869033511744452</v>
+      </c>
+      <c r="K338" s="13">
+        <f>(6*$E338*$D338*$C338*$C338)/(H338/1000)/10^12</f>
+        <v>0.49356043539371752</v>
+      </c>
+      <c r="L338" s="13">
+        <f>(6*$E338*$D338*$C338*$C338)/(I338/1000)/10^12</f>
+        <v>8.3672250914330046</v>
+      </c>
+      <c r="M338" s="14">
+        <f t="shared" si="33"/>
+        <v>882.61599999999999</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A339" s="12"/>
+      <c r="B339" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C339" s="12">
+        <v>1024</v>
+      </c>
+      <c r="D339" s="12">
         <v>64</v>
       </c>
-      <c r="E286" s="3">
-        <v>50</v>
-      </c>
-      <c r="G286" s="6">
-        <v>8.5299999999999994</v>
-      </c>
-      <c r="H286" s="6">
-        <v>8.0709999999999997</v>
-      </c>
-      <c r="I286" s="6">
-        <f t="shared" si="29"/>
-        <v>3.1477255803048068</v>
-      </c>
-      <c r="J286" s="6">
-        <f t="shared" si="30"/>
-        <v>3.3267376037665719</v>
-      </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C287" s="3">
-        <v>2048</v>
-      </c>
-      <c r="D287" s="3">
-        <v>128</v>
-      </c>
-      <c r="E287" s="3">
-        <v>50</v>
-      </c>
-      <c r="G287" s="6">
-        <v>11.307</v>
-      </c>
-      <c r="H287" s="6">
-        <v>11.087</v>
-      </c>
-      <c r="I287" s="6">
-        <f t="shared" si="29"/>
-        <v>4.7492879101441581</v>
-      </c>
-      <c r="J287" s="6">
-        <f t="shared" si="30"/>
-        <v>4.8435283124379902</v>
-      </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C288" s="3">
-        <v>2560</v>
-      </c>
-      <c r="D288" s="3">
-        <v>16</v>
-      </c>
-      <c r="E288" s="3">
-        <v>50</v>
-      </c>
-      <c r="G288" s="6">
-        <v>7.0090000000000003</v>
-      </c>
-      <c r="H288" s="6">
-        <v>6.4880000000000004</v>
-      </c>
-      <c r="I288" s="6">
-        <f t="shared" si="29"/>
-        <v>1.4963344271650736</v>
-      </c>
-      <c r="J288" s="6">
-        <f t="shared" si="30"/>
-        <v>1.616493218249075</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C289" s="3">
-        <v>2560</v>
-      </c>
-      <c r="D289" s="3">
-        <v>32</v>
-      </c>
-      <c r="E289" s="3">
-        <v>50</v>
-      </c>
-      <c r="G289" s="6">
-        <v>18.846</v>
-      </c>
-      <c r="H289" s="6">
-        <v>18.225999999999999</v>
-      </c>
-      <c r="I289" s="6">
-        <f t="shared" si="29"/>
-        <v>1.1130009551098377</v>
-      </c>
-      <c r="J289" s="6">
-        <f t="shared" si="30"/>
-        <v>1.1508622846483048</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C290" s="3">
-        <v>2560</v>
-      </c>
-      <c r="D290" s="3">
-        <v>64</v>
-      </c>
-      <c r="E290" s="3">
-        <v>50</v>
-      </c>
-      <c r="G290" s="6">
-        <v>8.84</v>
-      </c>
-      <c r="H290" s="6">
-        <v>8.4459999999999997</v>
-      </c>
-      <c r="I290" s="6">
-        <f t="shared" si="29"/>
-        <v>4.7456144796380091</v>
-      </c>
-      <c r="J290" s="6">
-        <f t="shared" si="30"/>
-        <v>4.966994080037888</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C291" s="3">
-        <v>2560</v>
-      </c>
-      <c r="D291" s="3">
-        <v>128</v>
-      </c>
-      <c r="E291" s="3">
-        <v>50</v>
-      </c>
-      <c r="G291" s="6">
-        <v>14.316000000000001</v>
-      </c>
-      <c r="H291" s="6">
-        <v>14.372</v>
-      </c>
-      <c r="I291" s="6">
-        <f t="shared" si="29"/>
-        <v>5.8607476948868396</v>
-      </c>
-      <c r="J291" s="6">
-        <f t="shared" si="30"/>
-        <v>5.8379114945727801</v>
-      </c>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A295" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C295" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D295" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E295" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G295" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H295" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I295" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J295" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C296" s="3">
-        <v>512</v>
-      </c>
-      <c r="D296" s="3">
-        <v>16</v>
-      </c>
-      <c r="E296" s="3">
-        <v>25</v>
-      </c>
-      <c r="G296" s="6">
-        <v>1.407</v>
-      </c>
-      <c r="H296" s="6">
-        <v>1.7450000000000001</v>
-      </c>
-      <c r="I296" s="6">
-        <f t="shared" ref="I296:I317" si="31">(8*$E296*$D296*$C296*$C296)/(G296/1000)/10^12</f>
-        <v>0.59620525941719971</v>
-      </c>
-      <c r="J296" s="6">
-        <f t="shared" ref="J296:J311" si="32">(8*$E296*$D296*$C296*$C296)/(H296/1000)/10^12</f>
-        <v>0.4807225214899713</v>
-      </c>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C297" s="3">
-        <v>512</v>
-      </c>
-      <c r="D297" s="3">
-        <v>32</v>
-      </c>
-      <c r="E297" s="3">
-        <v>25</v>
-      </c>
-      <c r="G297" s="6">
-        <v>2.9620000000000002</v>
-      </c>
-      <c r="H297" s="6">
-        <v>7.3849999999999998</v>
-      </c>
-      <c r="I297" s="6">
-        <f t="shared" si="31"/>
-        <v>0.56641512491559753</v>
-      </c>
-      <c r="J297" s="6">
-        <f t="shared" si="32"/>
-        <v>0.22717963439404196</v>
-      </c>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C298" s="3">
-        <v>512</v>
-      </c>
-      <c r="D298" s="3">
-        <v>64</v>
-      </c>
-      <c r="E298" s="3">
-        <v>25</v>
-      </c>
-      <c r="G298" s="6">
-        <v>3.024</v>
-      </c>
-      <c r="H298" s="6">
-        <v>3.0449999999999999</v>
-      </c>
-      <c r="I298" s="6">
-        <f t="shared" si="31"/>
-        <v>1.1096042328042326</v>
-      </c>
-      <c r="J298" s="6">
-        <f t="shared" si="32"/>
-        <v>1.101951789819376</v>
-      </c>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C299" s="3">
-        <v>512</v>
-      </c>
-      <c r="D299" s="3">
-        <v>128</v>
-      </c>
-      <c r="E299" s="3">
-        <v>25</v>
-      </c>
-      <c r="G299" s="6">
-        <v>3.1670000000000003</v>
-      </c>
-      <c r="H299" s="6">
-        <v>3.181</v>
-      </c>
-      <c r="I299" s="6">
-        <f t="shared" si="31"/>
-        <v>2.1190042311335646</v>
-      </c>
-      <c r="J299" s="6">
-        <f t="shared" si="32"/>
-        <v>2.109678214397988</v>
-      </c>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C300" s="3">
-        <v>1024</v>
-      </c>
-      <c r="D300" s="3">
-        <v>16</v>
-      </c>
-      <c r="E300" s="3">
-        <v>25</v>
-      </c>
-      <c r="G300" s="6">
-        <v>3.3780000000000001</v>
-      </c>
-      <c r="H300" s="6">
-        <v>3.105</v>
-      </c>
-      <c r="I300" s="6">
-        <f t="shared" si="31"/>
-        <v>0.99332243931320308</v>
-      </c>
-      <c r="J300" s="6">
-        <f t="shared" si="32"/>
-        <v>1.080658035426731</v>
-      </c>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C301" s="3">
-        <v>1024</v>
-      </c>
-      <c r="D301" s="3">
-        <v>32</v>
-      </c>
-      <c r="E301" s="3">
-        <v>25</v>
-      </c>
-      <c r="G301" s="6">
-        <v>4.7830000000000004</v>
-      </c>
-      <c r="H301" s="6">
-        <v>13.755000000000001</v>
-      </c>
-      <c r="I301" s="6">
-        <f t="shared" si="31"/>
-        <v>1.4030705415011497</v>
-      </c>
-      <c r="J301" s="6">
-        <f t="shared" si="32"/>
-        <v>0.48788705198109772</v>
-      </c>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C302" s="3">
-        <v>1024</v>
-      </c>
-      <c r="D302" s="3">
-        <v>64</v>
-      </c>
-      <c r="E302" s="3">
-        <v>25</v>
-      </c>
-      <c r="G302" s="6">
-        <v>4.7709999999999999</v>
-      </c>
-      <c r="H302" s="6">
-        <v>4.6130000000000004</v>
-      </c>
-      <c r="I302" s="6">
-        <f t="shared" si="31"/>
-        <v>2.8131990777614755</v>
-      </c>
-      <c r="J302" s="6">
-        <f t="shared" si="32"/>
-        <v>2.9095540429221756</v>
-      </c>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C303" s="3">
-        <v>1024</v>
-      </c>
-      <c r="D303" s="3">
-        <v>128</v>
-      </c>
-      <c r="E303" s="3">
-        <v>25</v>
-      </c>
-      <c r="G303" s="6">
-        <v>7.2250000000000005</v>
-      </c>
-      <c r="H303" s="6">
-        <v>6.1930000000000005</v>
-      </c>
-      <c r="I303" s="6">
-        <f t="shared" si="31"/>
-        <v>3.7153696332179926</v>
-      </c>
-      <c r="J303" s="6">
-        <f t="shared" si="32"/>
-        <v>4.3344979170030671</v>
-      </c>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C304" s="3">
-        <v>2048</v>
-      </c>
-      <c r="D304" s="3">
-        <v>16</v>
-      </c>
-      <c r="E304" s="3">
-        <v>25</v>
-      </c>
-      <c r="G304" s="6">
-        <v>12.84</v>
-      </c>
-      <c r="H304" s="6">
-        <v>9.6690000000000005</v>
-      </c>
-      <c r="I304" s="6">
-        <f t="shared" si="31"/>
-        <v>1.0453094080996883</v>
-      </c>
-      <c r="J304" s="6">
-        <f t="shared" si="32"/>
-        <v>1.3881241907125865</v>
-      </c>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C305" s="3">
-        <v>2048</v>
-      </c>
-      <c r="D305" s="3">
-        <v>32</v>
-      </c>
-      <c r="E305" s="3">
-        <v>25</v>
-      </c>
-      <c r="G305" s="6">
-        <v>9.407</v>
-      </c>
-      <c r="H305" s="6">
-        <v>26.876000000000001</v>
-      </c>
-      <c r="I305" s="6">
-        <f t="shared" si="31"/>
-        <v>2.8535713404911234</v>
-      </c>
-      <c r="J305" s="6">
-        <f t="shared" si="32"/>
-        <v>0.99879243935109385</v>
-      </c>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C306" s="3">
-        <v>2048</v>
-      </c>
-      <c r="D306" s="3">
-        <v>64</v>
-      </c>
-      <c r="E306" s="3">
-        <v>25</v>
-      </c>
-      <c r="G306" s="6">
-        <v>11.639000000000001</v>
-      </c>
-      <c r="H306" s="6">
-        <v>9.5830000000000002</v>
-      </c>
-      <c r="I306" s="6">
-        <f t="shared" si="31"/>
-        <v>4.6126893375719558</v>
-      </c>
-      <c r="J306" s="6">
-        <f t="shared" si="32"/>
-        <v>5.6023261191693621</v>
-      </c>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C307" s="3">
-        <v>2048</v>
-      </c>
-      <c r="D307" s="3">
-        <v>128</v>
-      </c>
-      <c r="E307" s="3">
-        <v>25</v>
-      </c>
-      <c r="G307" s="6">
-        <v>23.146000000000001</v>
-      </c>
-      <c r="H307" s="6">
-        <v>16.004999999999999</v>
-      </c>
-      <c r="I307" s="6">
-        <f t="shared" si="31"/>
-        <v>4.6389951784325589</v>
-      </c>
-      <c r="J307" s="6">
-        <f t="shared" si="32"/>
-        <v>6.7087899031552647</v>
-      </c>
-    </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C308" s="3">
-        <v>4096</v>
-      </c>
-      <c r="D308" s="3">
-        <v>16</v>
-      </c>
-      <c r="E308" s="3">
-        <v>25</v>
-      </c>
-      <c r="G308" s="6">
-        <v>50.561</v>
-      </c>
-      <c r="H308" s="6">
-        <v>46.737000000000002</v>
-      </c>
-      <c r="I308" s="6">
-        <f t="shared" si="31"/>
-        <v>1.0618281125768874</v>
-      </c>
-      <c r="J308" s="6">
-        <f t="shared" si="32"/>
-        <v>1.1487064039198067</v>
-      </c>
-    </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C309" s="3">
-        <v>4096</v>
-      </c>
-      <c r="D309" s="3">
-        <v>32</v>
-      </c>
-      <c r="E309" s="3">
-        <v>25</v>
-      </c>
-      <c r="G309" s="6">
-        <v>22.535</v>
-      </c>
-      <c r="H309" s="6">
-        <v>56.363</v>
-      </c>
-      <c r="I309" s="6">
-        <f t="shared" si="31"/>
-        <v>4.7647740137563792</v>
-      </c>
-      <c r="J309" s="6">
-        <f t="shared" si="32"/>
-        <v>1.9050473253730285</v>
-      </c>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C310" s="3">
-        <v>4096</v>
-      </c>
-      <c r="D310" s="3">
-        <v>64</v>
-      </c>
-      <c r="E310" s="3">
-        <v>25</v>
-      </c>
-      <c r="G310" s="6">
-        <v>34.843000000000004</v>
-      </c>
-      <c r="H310" s="6">
-        <v>59.335999999999999</v>
-      </c>
-      <c r="I310" s="6">
-        <f t="shared" si="31"/>
-        <v>6.163314433315155</v>
-      </c>
-      <c r="J310" s="6">
-        <f t="shared" si="32"/>
-        <v>3.6191918026156129</v>
-      </c>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C311" s="3">
-        <v>4096</v>
-      </c>
-      <c r="D311" s="3">
-        <v>128</v>
-      </c>
-      <c r="E311" s="3">
-        <v>25</v>
-      </c>
-      <c r="G311" s="6">
-        <v>67.356999999999999</v>
-      </c>
-      <c r="H311" s="6">
-        <v>54.89</v>
-      </c>
-      <c r="I311" s="6">
-        <f t="shared" si="31"/>
-        <v>6.3764230829757862</v>
-      </c>
-      <c r="J311" s="6">
-        <f t="shared" si="32"/>
-        <v>7.8246808088905082</v>
-      </c>
-    </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C312" s="3">
-        <v>1536</v>
-      </c>
-      <c r="D312" s="3">
-        <v>8</v>
-      </c>
-      <c r="E312" s="3">
-        <v>50</v>
-      </c>
-      <c r="G312" s="6">
-        <v>7.8380000000000001</v>
-      </c>
-      <c r="H312" s="6">
-        <v>8.43</v>
-      </c>
-      <c r="I312" s="6">
-        <f t="shared" si="31"/>
-        <v>0.96322367951007926</v>
-      </c>
-      <c r="J312" s="6">
-        <f t="shared" ref="J312:J317" si="33">(8*$E312*$D312*$C312*$C312)/(H312/1000)/10^12</f>
-        <v>0.89558092526690392</v>
-      </c>
-    </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C313" s="3">
-        <v>1536</v>
-      </c>
-      <c r="D313" s="3">
-        <v>16</v>
-      </c>
-      <c r="E313" s="3">
-        <v>50</v>
-      </c>
-      <c r="G313" s="6">
-        <v>13.547000000000001</v>
-      </c>
-      <c r="H313" s="6">
-        <v>9.2420000000000009</v>
-      </c>
-      <c r="I313" s="6">
-        <f t="shared" si="31"/>
-        <v>1.1146006053000663</v>
-      </c>
-      <c r="J313" s="6">
+      <c r="E339" s="12">
+        <v>1500</v>
+      </c>
+      <c r="F339" s="12"/>
+      <c r="G339" s="13">
+        <v>174.07</v>
+      </c>
+      <c r="H339" s="13">
+        <v>207.309</v>
+      </c>
+      <c r="I339" s="13">
+        <v>71.995000000000005</v>
+      </c>
+      <c r="J339" s="13">
+        <f>(6*$E339*$D339*$C339*$C339)/(G339/1000)/10^12</f>
+        <v>3.4697522605848223</v>
+      </c>
+      <c r="K339" s="13">
+        <f>(6*$E339*$D339*$C339*$C339)/(H339/1000)/10^12</f>
+        <v>2.9134276659479332</v>
+      </c>
+      <c r="L339" s="13">
+        <f>(6*$E339*$D339*$C339*$C339)/(I339/1000)/10^12</f>
+        <v>8.3891905826793529</v>
+      </c>
+      <c r="M339" s="14">
         <f t="shared" si="33"/>
-        <v>1.6337907812161869</v>
-      </c>
-    </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C314" s="3">
-        <v>1536</v>
-      </c>
-      <c r="D314" s="3">
-        <v>32</v>
-      </c>
-      <c r="E314" s="3">
-        <v>50</v>
-      </c>
-      <c r="G314" s="6">
-        <v>13.363</v>
-      </c>
-      <c r="H314" s="6">
-        <v>40.390999999999998</v>
-      </c>
-      <c r="I314" s="6">
-        <f t="shared" si="31"/>
-        <v>2.2598958916410985</v>
-      </c>
-      <c r="J314" s="6">
-        <f t="shared" si="33"/>
-        <v>0.74766628209254538</v>
-      </c>
-    </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C315" s="3">
-        <v>256</v>
-      </c>
-      <c r="D315" s="3">
-        <v>16</v>
-      </c>
-      <c r="E315" s="3">
-        <v>150</v>
-      </c>
-      <c r="G315" s="6">
-        <v>4.1840000000000002</v>
-      </c>
-      <c r="H315" s="6">
-        <v>4.8959999999999999</v>
-      </c>
-      <c r="I315" s="6">
-        <f t="shared" si="31"/>
-        <v>0.30073881453154877</v>
-      </c>
-      <c r="J315" s="6">
-        <f t="shared" si="33"/>
-        <v>0.25700392156862745</v>
-      </c>
-    </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C316" s="3">
-        <v>256</v>
-      </c>
-      <c r="D316" s="3">
-        <v>32</v>
-      </c>
-      <c r="E316" s="3">
-        <v>150</v>
-      </c>
-      <c r="G316" s="6">
-        <v>8.32</v>
-      </c>
-      <c r="H316" s="6">
-        <v>19.956</v>
-      </c>
-      <c r="I316" s="6">
-        <f t="shared" si="31"/>
-        <v>0.30247384615384615</v>
-      </c>
-      <c r="J316" s="6">
-        <f t="shared" si="33"/>
-        <v>0.1261065544197234</v>
-      </c>
-    </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C317" s="3">
-        <v>256</v>
-      </c>
-      <c r="D317" s="3">
-        <v>64</v>
-      </c>
-      <c r="E317" s="3">
-        <v>150</v>
-      </c>
-      <c r="G317" s="6">
-        <v>9.1980000000000004</v>
-      </c>
-      <c r="H317" s="6">
-        <v>14.305</v>
-      </c>
-      <c r="I317" s="6">
-        <f t="shared" si="31"/>
-        <v>0.54720208741030663</v>
-      </c>
-      <c r="J317" s="6">
-        <f t="shared" si="33"/>
-        <v>0.35184654316672492</v>
-      </c>
-    </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G318" s="6"/>
-      <c r="H318" s="6"/>
-    </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G319" s="6"/>
-      <c r="H319" s="6"/>
-    </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A320" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C320" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D320" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E320" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G320" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H320" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I320" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J320" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="321" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C321" s="3">
-        <v>2816</v>
-      </c>
-      <c r="D321" s="3">
-        <v>32</v>
-      </c>
-      <c r="E321" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G321" s="6">
-        <v>691.96299999999997</v>
-      </c>
-      <c r="H321" s="6">
-        <v>1653.912</v>
-      </c>
-      <c r="I321" s="6">
-        <f>(6*$E321*$D321*$C321*$C321)/(G321/1000)/10^12</f>
-        <v>3.3004633600351463</v>
-      </c>
-      <c r="J321" s="6">
-        <f>(6*$E321*$D321*$C321*$C321)/(H321/1000)/10^12</f>
-        <v>1.3808464585782072</v>
-      </c>
-    </row>
-    <row r="322" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C322" s="3">
-        <v>2816</v>
-      </c>
-      <c r="D322" s="3">
-        <v>32</v>
-      </c>
-      <c r="E322" s="3">
-        <v>750</v>
-      </c>
-      <c r="G322" s="6">
-        <v>347.97199999999998</v>
-      </c>
-      <c r="H322" s="6">
-        <v>828.80100000000004</v>
-      </c>
-      <c r="I322" s="6">
-        <f t="shared" ref="I322:I339" si="34">(6*$E322*$D322*$C322*$C322)/(G322/1000)/10^12</f>
-        <v>3.2815837596128423</v>
-      </c>
-      <c r="J322" s="6">
-        <f t="shared" ref="J322:J339" si="35">(6*$E322*$D322*$C322*$C322)/(H322/1000)/10^12</f>
-        <v>1.3777725461238584</v>
-      </c>
-    </row>
-    <row r="323" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C323" s="3">
-        <v>2816</v>
-      </c>
-      <c r="D323" s="3">
-        <v>32</v>
-      </c>
-      <c r="E323" s="3">
-        <v>375</v>
-      </c>
-      <c r="G323" s="6">
-        <v>175.42699999999999</v>
-      </c>
-      <c r="H323" s="6">
-        <v>415.93200000000002</v>
-      </c>
-      <c r="I323" s="6">
-        <f t="shared" si="34"/>
-        <v>3.254628033313002</v>
-      </c>
-      <c r="J323" s="6">
-        <f t="shared" si="35"/>
-        <v>1.3726994604887337</v>
-      </c>
-    </row>
-    <row r="324" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C324" s="3">
-        <v>2816</v>
-      </c>
-      <c r="D324" s="3">
-        <v>32</v>
-      </c>
-      <c r="E324" s="3">
-        <v>187</v>
-      </c>
-      <c r="G324" s="6">
-        <v>88.704000000000008</v>
-      </c>
-      <c r="H324" s="6">
-        <v>208.09100000000001</v>
-      </c>
-      <c r="I324" s="6">
-        <f t="shared" si="34"/>
-        <v>3.2097036190476187</v>
-      </c>
-      <c r="J324" s="6">
-        <f t="shared" si="35"/>
-        <v>1.3682165486445834</v>
-      </c>
-    </row>
-    <row r="325" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C325" s="3">
-        <v>2048</v>
-      </c>
-      <c r="D325" s="3">
-        <v>32</v>
-      </c>
-      <c r="E325" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G325" s="6">
-        <v>467.07100000000003</v>
-      </c>
-      <c r="H325" s="6">
-        <v>1195.6189999999999</v>
-      </c>
-      <c r="I325" s="6">
-        <f t="shared" si="34"/>
-        <v>2.586243958627275</v>
-      </c>
-      <c r="J325" s="6">
-        <f t="shared" si="35"/>
-        <v>1.0103214753194789</v>
-      </c>
-    </row>
-    <row r="326" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C326" s="3">
-        <v>2048</v>
-      </c>
-      <c r="D326" s="3">
-        <v>32</v>
-      </c>
-      <c r="E326" s="3">
-        <v>750</v>
-      </c>
-      <c r="G326" s="6">
-        <v>235.416</v>
-      </c>
-      <c r="H326" s="6">
-        <v>598.94399999999996</v>
-      </c>
-      <c r="I326" s="6">
-        <f t="shared" si="34"/>
-        <v>2.5655850749311861</v>
-      </c>
-      <c r="J326" s="6">
-        <f t="shared" si="35"/>
-        <v>1.0084077576534702</v>
-      </c>
-    </row>
-    <row r="327" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C327" s="3">
-        <v>2048</v>
-      </c>
-      <c r="D327" s="3">
-        <v>32</v>
-      </c>
-      <c r="E327" s="3">
-        <v>375</v>
-      </c>
-      <c r="G327" s="6">
-        <v>119.17400000000001</v>
-      </c>
-      <c r="H327" s="6">
-        <v>300.86200000000002</v>
-      </c>
-      <c r="I327" s="6">
-        <f t="shared" si="34"/>
-        <v>2.5340249383254738</v>
-      </c>
-      <c r="J327" s="6">
-        <f t="shared" si="35"/>
-        <v>1.0037488549567575</v>
-      </c>
-    </row>
-    <row r="328" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C328" s="3">
-        <v>2048</v>
-      </c>
-      <c r="D328" s="3">
-        <v>32</v>
-      </c>
-      <c r="E328" s="3">
-        <v>187</v>
-      </c>
-      <c r="G328" s="6">
-        <v>61.057000000000002</v>
-      </c>
-      <c r="H328" s="6">
-        <v>151.221</v>
-      </c>
-      <c r="I328" s="6">
-        <f t="shared" si="34"/>
-        <v>2.46642139011088</v>
-      </c>
-      <c r="J328" s="6">
-        <f t="shared" si="35"/>
-        <v>0.99584244791398024</v>
-      </c>
-    </row>
-    <row r="329" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C329" s="3">
-        <v>1536</v>
-      </c>
-      <c r="D329" s="3">
-        <v>32</v>
-      </c>
-      <c r="E329" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G329" s="6">
-        <v>354.62700000000001</v>
-      </c>
-      <c r="H329" s="6">
-        <v>914.90200000000004</v>
-      </c>
-      <c r="I329" s="6">
-        <f t="shared" si="34"/>
-        <v>1.9160336015024235</v>
-      </c>
-      <c r="J329" s="6">
-        <f t="shared" si="35"/>
-        <v>0.74267762886079602</v>
-      </c>
-    </row>
-    <row r="330" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C330" s="3">
-        <v>1536</v>
-      </c>
-      <c r="D330" s="3">
-        <v>32</v>
-      </c>
-      <c r="E330" s="3">
-        <v>750</v>
-      </c>
-      <c r="G330" s="6">
-        <v>179.1</v>
-      </c>
-      <c r="H330" s="6">
-        <v>459.06700000000001</v>
-      </c>
-      <c r="I330" s="6">
-        <f t="shared" si="34"/>
-        <v>1.8969214070351761</v>
-      </c>
-      <c r="J330" s="6">
-        <f t="shared" si="35"/>
-        <v>0.74006326745333473</v>
-      </c>
-    </row>
-    <row r="331" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C331" s="3">
-        <v>1536</v>
-      </c>
-      <c r="D331" s="3">
-        <v>32</v>
-      </c>
-      <c r="E331" s="3">
-        <v>375</v>
-      </c>
-      <c r="G331" s="6">
-        <v>91.106000000000009</v>
-      </c>
-      <c r="H331" s="6">
-        <v>230.98600000000002</v>
-      </c>
-      <c r="I331" s="6">
-        <f t="shared" si="34"/>
-        <v>1.8645238732904525</v>
-      </c>
-      <c r="J331" s="6">
-        <f t="shared" si="35"/>
-        <v>0.73540955728918633</v>
-      </c>
-    </row>
-    <row r="332" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C332" s="3">
-        <v>1536</v>
-      </c>
-      <c r="D332" s="3">
-        <v>32</v>
-      </c>
-      <c r="E332" s="3">
-        <v>187</v>
-      </c>
-      <c r="G332" s="6">
-        <v>46.847999999999999</v>
-      </c>
-      <c r="H332" s="6">
-        <v>116.486</v>
-      </c>
-      <c r="I332" s="6">
-        <f t="shared" si="34"/>
-        <v>1.8081489836065574</v>
-      </c>
-      <c r="J332" s="6">
-        <f t="shared" si="35"/>
-        <v>0.72719608866301522</v>
-      </c>
-    </row>
-    <row r="333" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C333" s="3">
-        <v>2560</v>
-      </c>
-      <c r="D333" s="7">
-        <v>32</v>
-      </c>
-      <c r="E333" s="7">
-        <v>1500</v>
-      </c>
-      <c r="G333" s="6">
-        <v>623.35599999999999</v>
-      </c>
-      <c r="H333" s="6">
-        <v>1492.173</v>
-      </c>
-      <c r="I333" s="6">
-        <f t="shared" si="34"/>
-        <v>3.0278633718132171</v>
-      </c>
-      <c r="J333" s="6">
-        <f t="shared" si="35"/>
-        <v>1.2648914033426419</v>
-      </c>
-    </row>
-    <row r="334" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C334" s="3">
-        <v>2560</v>
-      </c>
-      <c r="D334" s="7">
-        <v>32</v>
-      </c>
-      <c r="E334" s="7">
-        <v>750</v>
-      </c>
-      <c r="G334" s="6">
-        <v>312.96199999999999</v>
-      </c>
-      <c r="H334" s="6">
-        <v>747.27300000000002</v>
-      </c>
-      <c r="I334" s="6">
-        <f t="shared" si="34"/>
-        <v>3.0154408522440428</v>
-      </c>
-      <c r="J334" s="6">
-        <f t="shared" si="35"/>
-        <v>1.262883042743415</v>
-      </c>
-    </row>
-    <row r="335" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C335" s="3">
-        <v>2560</v>
-      </c>
-      <c r="D335" s="7">
-        <v>32</v>
-      </c>
-      <c r="E335" s="7">
-        <v>375</v>
-      </c>
-      <c r="G335" s="6">
-        <v>158.00399999999999</v>
-      </c>
-      <c r="H335" s="6">
-        <v>374.95300000000003</v>
-      </c>
-      <c r="I335" s="6">
-        <f t="shared" si="34"/>
-        <v>2.9863750284802921</v>
-      </c>
-      <c r="J335" s="6">
-        <f t="shared" si="35"/>
-        <v>1.2584489255986748</v>
-      </c>
-    </row>
-    <row r="336" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C336" s="3">
-        <v>2560</v>
-      </c>
-      <c r="D336" s="7">
-        <v>32</v>
-      </c>
-      <c r="E336" s="7">
-        <v>187</v>
-      </c>
-      <c r="G336" s="6">
-        <v>80.287999999999997</v>
-      </c>
-      <c r="H336" s="6">
-        <v>188.01900000000001</v>
-      </c>
-      <c r="I336" s="6">
-        <f t="shared" si="34"/>
-        <v>2.930705141490634</v>
-      </c>
-      <c r="J336" s="6">
-        <f t="shared" si="35"/>
-        <v>1.2514716831809551</v>
-      </c>
-    </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C337" s="3">
-        <v>512</v>
-      </c>
-      <c r="D337" s="7">
-        <v>32</v>
-      </c>
-      <c r="E337" s="7">
-        <v>1</v>
-      </c>
-      <c r="G337" s="6">
-        <v>0.111</v>
-      </c>
-      <c r="H337" s="6">
-        <v>0.20400000000000001</v>
-      </c>
-      <c r="I337" s="6">
-        <f t="shared" si="34"/>
-        <v>0.45343827027027028</v>
-      </c>
-      <c r="J337" s="6">
-        <f t="shared" si="35"/>
-        <v>0.24672376470588234</v>
-      </c>
-    </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C338" s="3">
-        <v>1024</v>
-      </c>
-      <c r="D338" s="7">
-        <v>32</v>
-      </c>
-      <c r="E338" s="7">
-        <v>1500</v>
-      </c>
-      <c r="G338" s="6">
-        <v>234.685</v>
-      </c>
-      <c r="H338" s="6">
-        <v>611.86099999999999</v>
-      </c>
-      <c r="I338" s="6">
-        <f t="shared" si="34"/>
-        <v>1.2867881969448409</v>
-      </c>
-      <c r="J338" s="6">
-        <f t="shared" si="35"/>
-        <v>0.49355962873920711</v>
-      </c>
-    </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C339" s="3">
-        <v>1024</v>
-      </c>
-      <c r="D339" s="7">
-        <v>64</v>
-      </c>
-      <c r="E339" s="7">
-        <v>1500</v>
-      </c>
-      <c r="G339" s="6">
-        <v>171.02500000000001</v>
-      </c>
-      <c r="H339" s="6">
-        <v>204.077</v>
-      </c>
-      <c r="I339" s="6">
-        <f t="shared" si="34"/>
-        <v>3.5315291682502554</v>
-      </c>
-      <c r="J339" s="6">
-        <f t="shared" si="35"/>
-        <v>2.9595680845955199</v>
-      </c>
-    </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
+        <v>453.37400000000002</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
         <v>69</v>
       </c>
@@ -13251,7 +14254,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C345" s="3">
         <v>100000</v>
       </c>
@@ -13271,7 +14274,7 @@
         <v>1.6879972269480221E-3</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C346" s="3">
         <v>100000</v>
       </c>
@@ -13291,7 +14294,7 @@
         <v>3.0368387753333908E-3</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C347" s="3">
         <v>100000</v>
       </c>
@@ -13311,7 +14314,7 @@
         <v>3.6968448795098086E-3</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C348" s="3">
         <v>100000</v>
       </c>
@@ -13334,7 +14337,7 @@
         <v>6.8656842513673587E-3</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C349" s="3">
         <v>3097600</v>
       </c>
@@ -13354,7 +14357,7 @@
         <v>8.4447042980544285E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C350" s="3">
         <v>3097600</v>
       </c>
@@ -13374,7 +14377,7 @@
         <v>1.5464289346749793E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C351" s="3">
         <v>3097600</v>
       </c>
@@ -13394,7 +14397,7 @@
         <v>1.2050491702132227E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C352" s="3">
         <v>3097600</v>
       </c>
@@ -13839,7 +14842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26440,7 +27443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
